--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="24540" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25180" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Final set" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="414">
   <si>
     <t>RCE sim</t>
   </si>
@@ -1238,6 +1238,30 @@
   </si>
   <si>
     <t>ts8: day 10</t>
+  </si>
+  <si>
+    <t>CTRLv0qro50000qrhSATqdz5000_nx3072_fx4</t>
+  </si>
+  <si>
+    <t>CTRLv0qro80000qrhSATqdz5000_nx3072_fdiv4</t>
+  </si>
+  <si>
+    <t>CTRLv0qro50000qrhSATqdz5000_nx3072_fx4_lh375</t>
+  </si>
+  <si>
+    <t>CTRLv0qro80000qrhSATqdz5000_nx3072_fdiv4_lh6000</t>
+  </si>
+  <si>
+    <t>HOPRU2N</t>
+  </si>
+  <si>
+    <t>HOPRU9N</t>
+  </si>
+  <si>
+    <t>HOPRU10N</t>
+  </si>
+  <si>
+    <t>HOPRU11N</t>
   </si>
 </sst>
 </file>
@@ -1321,8 +1345,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2567">
+  <cellStyleXfs count="2581">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3917,14 +3955,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2567">
+  <cellStyles count="2581">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5208,6 +5246,13 @@
     <cellStyle name="Followed Hyperlink" xfId="2562" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2564" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2580" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6491,6 +6536,13 @@
     <cellStyle name="Hyperlink" xfId="2561" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2563" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2579" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6822,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C167" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6851,13 +6903,13 @@
       <c r="I2" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -10894,7 +10946,7 @@
       <c r="A205" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="F205" s="13" t="s">
+      <c r="F205" s="12" t="s">
         <v>404</v>
       </c>
     </row>
@@ -10974,11 +11026,11 @@
       </c>
     </row>
     <row r="209" spans="2:8">
-      <c r="B209" s="1" t="s">
-        <v>131</v>
+      <c r="B209" t="s">
+        <v>117</v>
       </c>
       <c r="C209">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D209">
         <v>48</v>
@@ -11002,23 +11054,96 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="2:8">
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
+      <c r="B211" t="s">
+        <v>117</v>
+      </c>
+      <c r="C211">
+        <v>15</v>
+      </c>
+      <c r="D211">
+        <v>48</v>
+      </c>
+      <c r="E211" t="s">
+        <v>146</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G211" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="212" spans="2:8">
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
+      <c r="B212" t="s">
+        <v>117</v>
+      </c>
+      <c r="C212">
+        <v>15</v>
+      </c>
+      <c r="D212">
+        <v>48</v>
+      </c>
+      <c r="E212" t="s">
+        <v>146</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G212" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="213" spans="2:8">
-      <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
+      <c r="B213" t="s">
+        <v>117</v>
+      </c>
+      <c r="C213">
+        <v>15</v>
+      </c>
+      <c r="D213">
+        <v>48</v>
+      </c>
+      <c r="E213" t="s">
+        <v>146</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="214" spans="2:8">
-      <c r="G214" s="4"/>
-      <c r="H214" s="4"/>
+      <c r="B214" t="s">
+        <v>117</v>
+      </c>
+      <c r="C214">
+        <v>15</v>
+      </c>
+      <c r="D214">
+        <v>48</v>
+      </c>
+      <c r="E214" t="s">
+        <v>146</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G214" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="215" spans="2:8">
       <c r="F215" s="4"/>

--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25180" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25180" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Final set" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="412">
   <si>
     <t>RCE sim</t>
   </si>
@@ -976,9 +976,6 @@
     <t>CTRLv0qrhSATqdz5000_nx3072_usfc10_drag</t>
   </si>
   <si>
-    <t>HOPRU3N</t>
-  </si>
-  <si>
     <t>different (and worse)!</t>
   </si>
   <si>
@@ -1204,9 +1201,6 @@
     <t>HOPRU14N</t>
   </si>
   <si>
-    <t>HOPRU18N</t>
-  </si>
-  <si>
     <t>TRANSIENT</t>
   </si>
   <si>
@@ -1252,16 +1246,16 @@
     <t>CTRLv0qro80000qrhSATqdz5000_nx3072_fdiv4_lh6000</t>
   </si>
   <si>
-    <t>HOPRU2N</t>
-  </si>
-  <si>
-    <t>HOPRU9N</t>
-  </si>
-  <si>
-    <t>HOPRU10N</t>
-  </si>
-  <si>
-    <t>HOPRU11N</t>
+    <t xml:space="preserve">RCE_nx48_SST287.50K_Tthresh200K_usfc3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST292.50K_Tthresh200K_usfc3 </t>
+  </si>
+  <si>
+    <t>RU1N</t>
+  </si>
+  <si>
+    <t>RU2N</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1339,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2581">
+  <cellStyleXfs count="2605">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3927,8 +3921,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3961,8 +3979,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2581">
+  <cellStyles count="2605">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5253,6 +5272,18 @@
     <cellStyle name="Followed Hyperlink" xfId="2576" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2578" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2604" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6543,6 +6574,18 @@
     <cellStyle name="Hyperlink" xfId="2575" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2577" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2603" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6872,10 +6915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V246"/>
+  <dimension ref="A1:V248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G214" sqref="G214"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8481,22 +8524,10 @@
     </row>
     <row r="84" spans="1:19">
       <c r="B84" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C84" s="7">
-        <v>11</v>
-      </c>
-      <c r="D84">
-        <v>40</v>
-      </c>
-      <c r="E84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>151</v>
+        <v>408</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>411</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="5"/>
@@ -8505,94 +8536,90 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="2"/>
     </row>
     <row r="85" spans="1:19">
       <c r="B85" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85">
-        <v>13</v>
+        <v>306</v>
+      </c>
+      <c r="C85" s="7">
+        <v>11</v>
       </c>
       <c r="D85">
         <v>40</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" t="s">
         <v>146</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" s="2">
-        <v>40</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
     </row>
     <row r="86" spans="1:19">
       <c r="B86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86">
-        <v>13</v>
-      </c>
-      <c r="D86">
-        <v>40</v>
-      </c>
-      <c r="E86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" s="2">
-        <v>40</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:19">
       <c r="B87" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>48</v>
-      </c>
-      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
+      </c>
+      <c r="G87" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:19">
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>40</v>
@@ -8601,7 +8628,7 @@
         <v>146</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G88" s="2">
         <v>40</v>
@@ -8616,220 +8643,223 @@
         <v>151</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:19">
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E89" t="s">
         <v>146</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" s="2">
-        <v>40</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:19">
       <c r="B90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>146</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G90" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="B91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G91" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="B92" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C90">
+      <c r="C92">
         <v>17.5</v>
       </c>
-      <c r="D90">
+      <c r="D92">
         <v>48</v>
       </c>
-      <c r="E90" t="s">
-        <v>146</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="E92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G92" s="2">
         <v>48</v>
       </c>
-      <c r="H90" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="H92" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M92" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
-      <c r="A92" t="s">
+    <row r="94" spans="1:19">
+      <c r="A94" t="s">
         <v>43</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C92">
+      <c r="C94">
         <v>8</v>
       </c>
-      <c r="D92">
-        <v>40</v>
-      </c>
-      <c r="E92" t="s">
-        <v>146</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>146</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G92" s="2">
-        <v>40</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I92" s="2" t="s">
+      <c r="G94" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J92" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J94" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K94" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L92" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M92" s="2" t="s">
+      <c r="L94" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M94" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="N92" s="2" t="s">
+      <c r="N94" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="O92" s="5" t="s">
+      <c r="O94" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="P92" s="2" t="s">
+      <c r="P94" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="R92" s="2" t="s">
+      <c r="R94" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="S92" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
-      <c r="B93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93">
-        <v>12</v>
-      </c>
-      <c r="D93">
-        <v>40</v>
-      </c>
-      <c r="E93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" s="2">
-        <v>40</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
-      <c r="B94" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C94">
-        <v>15</v>
-      </c>
-      <c r="D94">
-        <v>48</v>
-      </c>
-      <c r="E94" t="s">
-        <v>146</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>54</v>
+      <c r="S94" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:19">
       <c r="B95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D95">
-        <v>48</v>
-      </c>
-      <c r="E95" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
         <v>146</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="G95" s="2">
-        <v>48</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>151</v>
+        <v>40</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:19">
       <c r="B96" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C96">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D96">
         <v>48</v>
@@ -8838,171 +8868,141 @@
         <v>146</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="B97" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97">
+        <v>17</v>
+      </c>
+      <c r="D97">
+        <v>48</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G97" s="2">
+        <v>48</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="B98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98">
+        <v>21</v>
+      </c>
+      <c r="D98">
+        <v>48</v>
+      </c>
+      <c r="E98" t="s">
+        <v>146</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G98" s="2">
         <v>48</v>
       </c>
-      <c r="H96" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K96" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
-      <c r="A98" t="s">
+      <c r="H98" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C98">
+      <c r="C100">
         <v>13</v>
       </c>
-      <c r="D98">
-        <v>40</v>
-      </c>
-      <c r="E98" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" s="2" t="s">
+      <c r="D100">
+        <v>40</v>
+      </c>
+      <c r="E100" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G98" s="2">
-        <v>40</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="G100" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L98" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M98" s="2" t="s">
+      <c r="L100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M100" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="N100" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="O98" s="2" t="s">
+      <c r="O100" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="P98" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q98" s="2" t="s">
+      <c r="P100" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q100" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="R98" s="2" t="s">
+      <c r="R100" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="T100" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="S98" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="T98" s="2" t="s">
+      <c r="U100" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="V100" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="U98" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
-      <c r="B99" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99">
-        <v>14</v>
-      </c>
-      <c r="D99">
-        <v>48</v>
-      </c>
-      <c r="E99" t="s">
-        <v>146</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" s="2">
-        <v>40</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="O99" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
-      <c r="B100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C100">
-        <v>14</v>
-      </c>
-      <c r="D100">
-        <v>40</v>
-      </c>
-      <c r="E100" t="s">
-        <v>146</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" s="2">
-        <v>40</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="B101" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101">
         <v>48</v>
@@ -9011,15 +9011,42 @@
         <v>146</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
+      </c>
+      <c r="G101" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O101" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="B102" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C102">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102">
         <v>40</v>
@@ -9028,7 +9055,7 @@
         <v>146</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G102" s="2">
         <v>40</v>
@@ -9037,7 +9064,7 @@
         <v>146</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>151</v>
@@ -9048,7 +9075,7 @@
     </row>
     <row r="103" spans="1:22">
       <c r="B103" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C103">
         <v>15</v>
@@ -9060,27 +9087,12 @@
         <v>146</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" s="2">
-        <v>40</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="B104" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C104">
         <v>15</v>
@@ -9092,100 +9104,103 @@
         <v>146</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="B105" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+      <c r="D105">
+        <v>48</v>
+      </c>
+      <c r="E105" t="s">
+        <v>146</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" s="2">
+        <v>40</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="B106" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106">
+        <v>40</v>
+      </c>
+      <c r="E106" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G104" s="2">
-        <v>40</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I104" s="2" t="s">
+      <c r="G106" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J104" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
-      <c r="B105" s="1"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:22">
-      <c r="A106" t="s">
-        <v>310</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C106">
-        <v>13</v>
-      </c>
-      <c r="D106">
-        <v>40</v>
-      </c>
-      <c r="E106" t="s">
-        <v>146</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G106" s="2">
-        <v>40</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I106" s="2"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="2"/>
+      <c r="J106" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="107" spans="1:22">
-      <c r="B107" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C107">
-        <v>14</v>
-      </c>
-      <c r="D107">
-        <v>48</v>
-      </c>
-      <c r="E107" t="s">
-        <v>146</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G107" s="2">
-        <v>40</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="B107" s="1"/>
       <c r="I107" s="2"/>
       <c r="J107" s="5"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:22">
+      <c r="A108" t="s">
+        <v>310</v>
+      </c>
       <c r="B108" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C108">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108">
         <v>40</v>
@@ -9194,7 +9209,7 @@
         <v>146</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G108" s="2">
         <v>40</v>
@@ -9205,13 +9220,19 @@
       <c r="I108" s="2"/>
       <c r="J108" s="5"/>
       <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="1:22">
       <c r="B109" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109">
         <v>48</v>
@@ -9220,7 +9241,7 @@
         <v>146</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G109" s="2">
         <v>40</v>
@@ -9228,13 +9249,19 @@
       <c r="H109" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:22">
       <c r="B110" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110">
         <v>40</v>
@@ -9243,7 +9270,7 @@
         <v>146</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G110" s="2">
         <v>40</v>
@@ -9257,7 +9284,7 @@
     </row>
     <row r="111" spans="1:22">
       <c r="B111" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C111">
         <v>15</v>
@@ -9269,7 +9296,7 @@
         <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G111" s="2">
         <v>40</v>
@@ -9277,13 +9304,10 @@
       <c r="H111" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I111" s="2"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:22">
       <c r="B112" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -9295,7 +9319,7 @@
         <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G112" s="2">
         <v>40</v>
@@ -9307,76 +9331,64 @@
       <c r="J112" s="5"/>
       <c r="K112" s="2"/>
     </row>
+    <row r="113" spans="1:15">
+      <c r="B113" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>48</v>
+      </c>
+      <c r="E113" t="s">
+        <v>146</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G113" s="2">
+        <v>40</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="2"/>
+    </row>
     <row r="114" spans="1:15">
-      <c r="A114" t="s">
-        <v>45</v>
-      </c>
       <c r="B114" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C114">
         <v>15</v>
       </c>
       <c r="D114">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E114" t="s">
         <v>146</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="G114" s="2">
         <v>40</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="B115" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C115">
-        <v>15</v>
-      </c>
-      <c r="D115">
-        <v>48</v>
-      </c>
-      <c r="E115" t="s">
-        <v>146</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G115" s="2">
-        <v>40</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="H114" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="2"/>
     </row>
     <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
       <c r="B116" s="1" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C116">
         <v>15</v>
@@ -9388,15 +9400,30 @@
         <v>146</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>54</v>
+        <v>179</v>
+      </c>
+      <c r="G116" s="2">
+        <v>40</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="B117" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C117">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>48</v>
@@ -9405,135 +9432,135 @@
         <v>146</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G117" s="2">
-        <v>48</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>146</v>
+        <v>40</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>151</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="B118" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C118">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>48</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" t="s">
         <v>146</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="B119" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119">
+        <v>14</v>
+      </c>
+      <c r="D119">
+        <v>48</v>
+      </c>
+      <c r="E119" t="s">
+        <v>146</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G119" s="2">
+        <v>48</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="B120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>48</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G120" s="2">
         <v>48</v>
       </c>
-      <c r="H118" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I118" s="5" t="s">
+      <c r="H120" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I120" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J118" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="K118" t="s">
+      <c r="J120" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K120" t="s">
         <v>278</v>
       </c>
-      <c r="L118" t="s">
-        <v>146</v>
-      </c>
-      <c r="M118" t="s">
+      <c r="L120" t="s">
+        <v>146</v>
+      </c>
+      <c r="M120" t="s">
         <v>288</v>
       </c>
-      <c r="N118" t="s">
+      <c r="N120" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
-      <c r="A120" t="s">
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
         <v>46</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
         <v>117</v>
       </c>
-      <c r="C120">
+      <c r="C122">
         <v>15</v>
       </c>
-      <c r="D120">
-        <v>40</v>
-      </c>
-      <c r="E120" t="s">
-        <v>146</v>
-      </c>
-      <c r="F120" s="2" t="s">
+      <c r="D122">
+        <v>40</v>
+      </c>
+      <c r="E122" t="s">
+        <v>146</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G120" s="2">
-        <v>40</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I120" s="2" t="s">
+      <c r="G122" s="2">
+        <v>40</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="F121" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G121" s="2">
-        <v>40</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I121" t="s">
-        <v>175</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="F122" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G122" s="2">
-        <v>40</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I122" t="s">
-        <v>146</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>151</v>
@@ -9544,12 +9571,36 @@
     </row>
     <row r="123" spans="1:15">
       <c r="F123" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
+      </c>
+      <c r="G123" s="2">
+        <v>40</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I123" t="s">
+        <v>175</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="F124" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G124" s="2">
         <v>40</v>
@@ -9558,149 +9609,147 @@
         <v>146</v>
       </c>
       <c r="I124" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>151</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>292</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:15">
       <c r="F125" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="F126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G126" s="2">
+        <v>40</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I126" t="s">
+        <v>176</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="F127" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G125" s="2">
-        <v>40</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="G127" s="2">
+        <v>40</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I127" t="s">
         <v>177</v>
       </c>
-      <c r="J125" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J127" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K127" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="L127" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="M125" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N125" s="2" t="s">
+      <c r="M127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N127" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
-      <c r="F126" s="3" t="s">
+    <row r="128" spans="1:15">
+      <c r="F128" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G126" s="2">
-        <v>40</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="G128" s="2">
+        <v>40</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I128" t="s">
         <v>178</v>
       </c>
-      <c r="J126" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J128" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="O126" t="s">
+      <c r="O128" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="s">
+    <row r="129" spans="1:14">
+      <c r="A129" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" t="s">
-        <v>187</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C128">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D128">
-        <v>48</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G128" s="2">
-        <v>48</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="B129" s="1"/>
-      <c r="C129">
-        <f>C128/$C$130</f>
-        <v>1.2071428571428571</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="C130">
-        <v>14</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D130">
         <v>48</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>54</v>
+        <v>191</v>
+      </c>
+      <c r="G130" s="2">
+        <v>48</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="B131" s="1"/>
       <c r="C131">
-        <f>C130/$C$130</f>
-        <v>1</v>
+        <f>C130/$C$132</f>
+        <v>1.2071428571428571</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -9708,51 +9757,26 @@
         <v>185</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="C132">
-        <v>11.4</v>
+        <v>14</v>
       </c>
       <c r="D132">
         <v>48</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" t="s">
         <v>146</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G132" s="2">
-        <v>40</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K132" t="s">
-        <v>296</v>
-      </c>
-      <c r="L132" t="s">
-        <v>146</v>
-      </c>
-      <c r="M132" t="s">
-        <v>297</v>
-      </c>
-      <c r="N132" t="s">
-        <v>298</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="B133" s="1"/>
       <c r="C133">
-        <f>C132/$C$130</f>
-        <v>0.81428571428571428</v>
-      </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J133" s="5" t="s">
-        <v>151</v>
+        <f>C132/$C$132</f>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -9760,10 +9784,10 @@
         <v>185</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C134">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="D134">
         <v>48</v>
@@ -9772,36 +9796,36 @@
         <v>146</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G134" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J134" s="5" t="s">
         <v>151</v>
       </c>
       <c r="K134" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L134" t="s">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="M134" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N134" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="B135" s="1"/>
       <c r="C135">
-        <f>C134/$C$130</f>
-        <v>0.6</v>
+        <f>C134/$C$132</f>
+        <v>0.81428571428571428</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>151</v>
@@ -9809,39 +9833,51 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C136">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="D136">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G136" s="2">
         <v>32</v>
       </c>
       <c r="J136" s="5" t="s">
         <v>151</v>
+      </c>
+      <c r="K136" t="s">
+        <v>300</v>
+      </c>
+      <c r="L136" t="s">
+        <v>299</v>
+      </c>
+      <c r="M136" t="s">
+        <v>301</v>
+      </c>
+      <c r="N136" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="B137" s="1"/>
       <c r="C137">
-        <f>C136/$C$130</f>
-        <v>0.44285714285714289</v>
+        <f>C136/$C$132</f>
+        <v>0.6</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J137" s="5" t="s">
         <v>151</v>
@@ -9849,13 +9885,13 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C138">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="D138">
         <v>40</v>
@@ -9864,10 +9900,10 @@
         <v>146</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G138" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J138" s="5" t="s">
         <v>151</v>
@@ -9876,12 +9912,12 @@
     <row r="139" spans="1:14">
       <c r="B139" s="1"/>
       <c r="C139">
-        <f>C138/$C$130</f>
-        <v>0.25714285714285717</v>
+        <f>C138/$C$132</f>
+        <v>0.44285714285714289</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J139" s="5" t="s">
         <v>151</v>
@@ -9892,10 +9928,10 @@
         <v>185</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C140">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D140">
         <v>40</v>
@@ -9904,7 +9940,7 @@
         <v>146</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G140" s="2">
         <v>24</v>
@@ -9916,70 +9952,76 @@
     <row r="141" spans="1:14">
       <c r="B141" s="1"/>
       <c r="C141">
-        <f>C140/$C$130</f>
-        <v>0.18571428571428572</v>
+        <f>C140/$C$132</f>
+        <v>0.25714285714285717</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142">
+        <v>2.6</v>
+      </c>
+      <c r="D142">
+        <v>40</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G142" s="2">
+        <v>24</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="B143" s="1"/>
+      <c r="C143">
+        <f>C142/$C$132</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J141" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="B142" s="1"/>
-      <c r="E142" s="5"/>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" t="s">
-        <v>193</v>
-      </c>
-      <c r="E143" s="7"/>
+      <c r="J143" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" t="s">
-        <v>194</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D144">
-        <v>56</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="B144" s="1"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>197</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C145">
-        <v>20</v>
-      </c>
-      <c r="D145">
-        <v>48</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>170</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C146">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="D146">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>170</v>
@@ -9987,47 +10029,47 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D147">
         <v>48</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C148">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D148">
         <v>48</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D149">
         <v>48</v>
@@ -10038,13 +10080,13 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D150">
         <v>48</v>
@@ -10055,16 +10097,16 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D151">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>146</v>
@@ -10072,16 +10114,16 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D152">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>146</v>
@@ -10089,13 +10131,13 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D153">
         <v>40</v>
@@ -10106,13 +10148,13 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D154">
         <v>40</v>
@@ -10123,885 +10165,870 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C155">
         <v>3</v>
       </c>
       <c r="D155">
+        <v>40</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>40</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" t="s">
+        <v>188</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
         <v>24</v>
       </c>
-      <c r="E155" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="B156" s="1"/>
-      <c r="E156" s="7"/>
+      <c r="E157" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" t="s">
+      <c r="B158" s="1"/>
+      <c r="E158" s="7"/>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" t="s">
         <v>49</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C158">
+      <c r="C160">
         <v>21</v>
       </c>
-      <c r="D158">
+      <c r="D160">
         <v>48</v>
       </c>
-      <c r="E158" t="s">
-        <v>146</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="K158" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="F159" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="B160" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C160">
-        <v>8</v>
-      </c>
-      <c r="D160">
-        <v>40</v>
-      </c>
       <c r="E160" t="s">
         <v>146</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>151</v>
+        <v>366</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I160" t="s">
-        <v>365</v>
+        <v>370</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="161" spans="2:12">
       <c r="F161" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>151</v>
+        <v>366</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>325</v>
+        <v>371</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="162" spans="2:12">
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+      <c r="B162" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>40</v>
+      </c>
+      <c r="E162" t="s">
+        <v>146</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I162" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="163" spans="2:12">
-      <c r="B163" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C163">
-        <v>21</v>
-      </c>
-      <c r="D163">
-        <v>48</v>
-      </c>
-      <c r="E163" t="s">
-        <v>146</v>
-      </c>
       <c r="F163" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G163" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="2:12">
-      <c r="F164" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K164" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
     </row>
     <row r="165" spans="2:12">
       <c r="B165" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D165">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E165" t="s">
         <v>146</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G165" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G165" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="166" spans="2:12">
       <c r="F166" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>325</v>
+        <v>332</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="167" spans="2:12">
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
+      <c r="B167" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>40</v>
+      </c>
+      <c r="E167" t="s">
+        <v>146</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="168" spans="2:12">
-      <c r="B168" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C168">
-        <v>21</v>
-      </c>
-      <c r="D168">
-        <v>48</v>
-      </c>
-      <c r="E168" t="s">
-        <v>146</v>
-      </c>
       <c r="F168" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G168" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H168" s="3" t="s">
-        <v>325</v>
+      <c r="H168" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="2:12">
-      <c r="F169" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K169" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="L169" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
     </row>
     <row r="170" spans="2:12">
       <c r="B170" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C170">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D170">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E170" t="s">
         <v>146</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G170" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="2:12">
       <c r="F171" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="L171" s="3"/>
+        <v>366</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="172" spans="2:12">
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
+      <c r="B172" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>40</v>
+      </c>
+      <c r="E172" t="s">
+        <v>146</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="173" spans="2:12">
-      <c r="B173" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C173">
-        <v>21</v>
-      </c>
-      <c r="D173">
-        <v>48</v>
-      </c>
-      <c r="E173" t="s">
-        <v>146</v>
-      </c>
       <c r="F173" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H173" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="H173" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="L173" s="3"/>
     </row>
     <row r="174" spans="2:12">
-      <c r="F174" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G174" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" spans="2:12">
       <c r="B175" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C175">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D175">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E175" t="s">
         <v>146</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G175" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H175" s="4" t="s">
-        <v>325</v>
+      <c r="H175" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="2:12">
       <c r="F176" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>325</v>
+        <v>340</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="177" spans="2:12">
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="B177" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>40</v>
+      </c>
+      <c r="E177" t="s">
+        <v>146</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="178" spans="2:12">
-      <c r="B178" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C178">
-        <v>21</v>
-      </c>
-      <c r="D178">
-        <v>48</v>
-      </c>
-      <c r="E178" t="s">
-        <v>146</v>
-      </c>
       <c r="F178" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G178" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H178" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H178" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="L178" s="3"/>
-    </row>
-    <row r="179" spans="2:12" ht="18">
-      <c r="F179" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G179" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L179" s="11"/>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
     </row>
     <row r="180" spans="2:12">
       <c r="B180" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180">
+        <v>21</v>
+      </c>
+      <c r="D180">
+        <v>48</v>
+      </c>
+      <c r="E180" t="s">
+        <v>146</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="L180" s="3"/>
+    </row>
+    <row r="181" spans="2:12" ht="18">
+      <c r="F181" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L181" s="11"/>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="B182" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C180">
+      <c r="C182">
         <v>8</v>
       </c>
-      <c r="D180">
-        <v>40</v>
-      </c>
-      <c r="E180" t="s">
-        <v>146</v>
-      </c>
-      <c r="F180" s="3" t="s">
+      <c r="D182">
+        <v>40</v>
+      </c>
+      <c r="E182" t="s">
+        <v>146</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12">
+      <c r="F183" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G180" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="181" spans="2:12">
-      <c r="F181" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="182" spans="2:12">
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-    </row>
-    <row r="183" spans="2:12">
-      <c r="B183" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C183">
-        <v>21</v>
-      </c>
-      <c r="D183">
-        <v>48</v>
-      </c>
-      <c r="E183" t="s">
-        <v>146</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="G183" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H183" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H183" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K183" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="L183" s="3" t="s">
-        <v>381</v>
-      </c>
     </row>
     <row r="184" spans="2:12">
-      <c r="F184" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
     </row>
     <row r="185" spans="2:12">
       <c r="B185" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C185">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D185">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E185" t="s">
         <v>146</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K185" s="5" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="186" spans="2:12">
       <c r="F186" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G186" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H186" s="4" t="s">
-        <v>325</v>
+      <c r="H186" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="2:12">
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
+      <c r="B187" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>40</v>
+      </c>
+      <c r="E187" t="s">
+        <v>146</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="188" spans="2:12">
-      <c r="B188" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C188">
-        <v>21</v>
-      </c>
-      <c r="D188">
-        <v>48</v>
-      </c>
-      <c r="E188" t="s">
-        <v>146</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>352</v>
+      <c r="F188" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="G188" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H188" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H188" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K188" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="L188" s="4" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="189" spans="2:12">
-      <c r="F189" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G189" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
     </row>
     <row r="190" spans="2:12">
       <c r="B190" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C190">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D190">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E190" t="s">
         <v>146</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="2:12">
       <c r="F191" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>325</v>
+        <v>352</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="192" spans="2:12">
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
+      <c r="B192" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C192">
+        <v>8</v>
+      </c>
+      <c r="D192">
+        <v>40</v>
+      </c>
+      <c r="E192" t="s">
+        <v>146</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="193" spans="1:16">
-      <c r="B193" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C193">
-        <v>21</v>
-      </c>
-      <c r="D193">
-        <v>48</v>
-      </c>
-      <c r="E193" t="s">
-        <v>146</v>
-      </c>
       <c r="F193" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G193" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H193" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H193" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I193" t="s">
-        <v>326</v>
-      </c>
-      <c r="K193" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L193" s="4" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="194" spans="1:16">
-      <c r="F194" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G194" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="K194" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="L194" s="4" t="s">
-        <v>390</v>
-      </c>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:16">
       <c r="B195" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C195">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D195">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E195" t="s">
         <v>146</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I195" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="M195" t="s">
-        <v>374</v>
-      </c>
-      <c r="O195" t="s">
-        <v>366</v>
-      </c>
-      <c r="P195" s="4" t="s">
-        <v>67</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:16">
       <c r="F196" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>151</v>
+        <v>366</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>151</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="M196" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:16">
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="O197" s="7" t="s">
-        <v>366</v>
+      <c r="B197" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+      <c r="D197">
+        <v>40</v>
+      </c>
+      <c r="E197" t="s">
+        <v>146</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I197" t="s">
+        <v>326</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L197" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="M197" t="s">
+        <v>373</v>
+      </c>
+      <c r="O197" t="s">
+        <v>365</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>368</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:16">
-      <c r="B198" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C198">
-        <v>21</v>
-      </c>
-      <c r="D198">
-        <v>48</v>
-      </c>
-      <c r="E198" t="s">
-        <v>146</v>
-      </c>
       <c r="F198" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G198" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H198" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H198" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="K198" s="5" t="s">
-        <v>392</v>
+        <v>151</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
+      </c>
+      <c r="M198" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:16">
-      <c r="F199" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G199" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="K199" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="L199" s="4" t="s">
-        <v>391</v>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="O199" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P199" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:16">
       <c r="B200" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C200">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D200">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E200" t="s">
         <v>146</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G200" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="H200" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G200" s="9" t="s">
         <v>323</v>
       </c>
+      <c r="H200" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="K200" s="5" t="s">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:16">
       <c r="F201" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G201" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>325</v>
+        <v>360</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="202" spans="1:16">
-      <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
+      <c r="B202" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C202">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>40</v>
+      </c>
+      <c r="E202" t="s">
+        <v>146</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G202" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L202" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="203" spans="1:16">
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
+      <c r="F203" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G203" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="204" spans="1:16">
-      <c r="A204" s="5" t="s">
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="1:16">
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B206" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C206" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D206" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E206" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F204" s="6" t="s">
+      <c r="F206" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
-      <c r="I204" s="5"/>
-    </row>
-    <row r="205" spans="1:16">
-      <c r="A205" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16">
-      <c r="A206" t="s">
-        <v>397</v>
-      </c>
-      <c r="B206" t="s">
-        <v>117</v>
-      </c>
-      <c r="C206">
-        <v>15</v>
-      </c>
-      <c r="D206">
-        <v>48</v>
-      </c>
-      <c r="E206" t="s">
-        <v>146</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>396</v>
-      </c>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="5"/>
     </row>
     <row r="207" spans="1:16">
-      <c r="A207" t="s">
-        <v>398</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C207">
-        <v>8</v>
-      </c>
-      <c r="D207">
-        <v>40</v>
-      </c>
-      <c r="E207" t="s">
-        <v>146</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G207" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>403</v>
+      <c r="A207" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="208" spans="1:16">
       <c r="A208" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B208" t="s">
         <v>117</v>
@@ -11016,44 +11043,65 @@
         <v>146</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G208" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8">
-      <c r="B209" t="s">
+        <v>54</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>396</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C209">
+        <v>8</v>
+      </c>
+      <c r="D209">
+        <v>40</v>
+      </c>
+      <c r="E209" t="s">
+        <v>146</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G209" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" t="s">
         <v>117</v>
       </c>
-      <c r="C209">
+      <c r="C210">
         <v>15</v>
       </c>
-      <c r="D209">
+      <c r="D210">
         <v>48</v>
       </c>
-      <c r="E209" t="s">
-        <v>146</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G209" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8">
-      <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
-    </row>
-    <row r="211" spans="2:8">
+      <c r="E210" t="s">
+        <v>146</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G210" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="B211" t="s">
         <v>117</v>
       </c>
@@ -11067,39 +11115,21 @@
         <v>146</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>410</v>
+        <v>151</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8">
-      <c r="B212" t="s">
-        <v>117</v>
-      </c>
-      <c r="C212">
-        <v>15</v>
-      </c>
-      <c r="D212">
-        <v>48</v>
-      </c>
-      <c r="E212" t="s">
-        <v>146</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="1:8">
       <c r="B213" t="s">
         <v>117</v>
       </c>
@@ -11113,16 +11143,16 @@
         <v>146</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>413</v>
+        <v>151</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="B214" t="s">
         <v>117</v>
       </c>
@@ -11136,55 +11166,93 @@
         <v>146</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>412</v>
+        <v>151</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8">
-      <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
-      <c r="H215" s="4"/>
-    </row>
-    <row r="216" spans="2:8">
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-    </row>
-    <row r="217" spans="2:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="B215" t="s">
+        <v>117</v>
+      </c>
+      <c r="C215">
+        <v>15</v>
+      </c>
+      <c r="D215">
+        <v>48</v>
+      </c>
+      <c r="E215" t="s">
+        <v>146</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G215" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="B216" t="s">
+        <v>117</v>
+      </c>
+      <c r="C216">
+        <v>15</v>
+      </c>
+      <c r="D216">
+        <v>48</v>
+      </c>
+      <c r="E216" t="s">
+        <v>146</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G216" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="2:8">
+    <row r="218" spans="1:8">
+      <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="2:8">
+    <row r="219" spans="1:8">
+      <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="2:8">
+    <row r="220" spans="1:8">
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
-    <row r="221" spans="2:8">
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-    </row>
-    <row r="222" spans="2:8">
+    <row r="221" spans="1:8">
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="1:8">
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="2:8">
-      <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
-    </row>
-    <row r="224" spans="2:8">
+    <row r="223" spans="1:8">
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="1:8">
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
@@ -11212,30 +11280,30 @@
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
-    <row r="233" spans="7:8">
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
+    <row r="231" spans="7:8">
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+    </row>
+    <row r="232" spans="7:8">
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
     </row>
     <row r="235" spans="7:8">
-      <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
-    </row>
-    <row r="236" spans="7:8">
-      <c r="G236" s="4"/>
-      <c r="H236" s="4"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
     </row>
     <row r="237" spans="7:8">
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
     </row>
+    <row r="238" spans="7:8">
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+    </row>
     <row r="239" spans="7:8">
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
     </row>
-    <row r="240" spans="7:8">
-      <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
-    </row>
     <row r="241" spans="7:8">
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
@@ -11244,17 +11312,25 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
     </row>
+    <row r="243" spans="7:8">
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+    </row>
     <row r="244" spans="7:8">
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="7:8">
-      <c r="G245" s="4"/>
-      <c r="H245" s="4"/>
-    </row>
     <row r="246" spans="7:8">
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
+    </row>
+    <row r="247" spans="7:8">
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+    </row>
+    <row r="248" spans="7:8">
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="412">
   <si>
     <t>RCE sim</t>
   </si>
@@ -985,9 +985,6 @@
     <t>"0.5" instead of ".5" 0-200</t>
   </si>
   <si>
-    <t>HOPRU6N</t>
-  </si>
-  <si>
     <t>blow up</t>
   </si>
   <si>
@@ -1246,16 +1243,19 @@
     <t>CTRLv0qro80000qrhSATqdz5000_nx3072_fdiv4_lh6000</t>
   </si>
   <si>
+    <t>HOPRU2N</t>
+  </si>
+  <si>
     <t xml:space="preserve">RCE_nx48_SST287.50K_Tthresh200K_usfc3 </t>
   </si>
   <si>
     <t xml:space="preserve">RCE_nx48_SST292.50K_Tthresh200K_usfc3 </t>
   </si>
   <si>
-    <t>RU1N</t>
-  </si>
-  <si>
-    <t>RU2N</t>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST287.50K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST292.50K</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1339,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2605">
+  <cellStyleXfs count="2621">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3981,7 +3997,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2605">
+  <cellStyles count="2621">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5284,6 +5300,14 @@
     <cellStyle name="Followed Hyperlink" xfId="2600" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2602" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2620" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6586,6 +6610,14 @@
     <cellStyle name="Hyperlink" xfId="2599" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2601" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2619" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6917,7 +6949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
@@ -8527,7 +8559,13 @@
         <v>408</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>411</v>
+        <v>151</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="5"/>
@@ -8571,9 +8609,14 @@
         <v>409</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="G86" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="5"/>
       <c r="K86" s="2"/>
@@ -10235,36 +10278,36 @@
         <v>146</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="2:12">
       <c r="F161" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="2:12">
@@ -10281,27 +10324,27 @@
         <v>146</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G162" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="2:12">
       <c r="F163" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G163" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="2:12">
@@ -10322,30 +10365,30 @@
         <v>146</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G165" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="2:12">
       <c r="F166" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="167" spans="2:12">
@@ -10362,24 +10405,24 @@
         <v>146</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G167" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="2:12">
       <c r="F168" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G168" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="169" spans="2:12">
@@ -10400,30 +10443,30 @@
         <v>146</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G170" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="171" spans="2:12">
       <c r="F171" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="172" spans="2:12">
@@ -10440,24 +10483,24 @@
         <v>146</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G172" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="2:12">
       <c r="F173" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G173" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L173" s="3"/>
     </row>
@@ -10479,24 +10522,24 @@
         <v>146</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G175" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="2:12">
       <c r="F176" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G176" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="2:12">
@@ -10513,24 +10556,24 @@
         <v>146</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G177" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="2:12">
       <c r="F178" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="2:12">
@@ -10551,25 +10594,25 @@
         <v>146</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L180" s="3"/>
     </row>
     <row r="181" spans="2:12" ht="18">
       <c r="F181" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G181" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L181" s="11"/>
     </row>
@@ -10587,24 +10630,24 @@
         <v>146</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G182" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="183" spans="2:12">
       <c r="F183" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" spans="2:12">
@@ -10625,30 +10668,30 @@
         <v>146</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K185" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="2:12">
       <c r="F186" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G186" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="187" spans="2:12">
@@ -10665,30 +10708,30 @@
         <v>146</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="2:12">
       <c r="F188" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G188" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="2:12">
@@ -10710,30 +10753,30 @@
         <v>146</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" spans="2:12">
       <c r="F191" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G191" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" spans="2:12">
@@ -10750,30 +10793,30 @@
         <v>146</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>151</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:16">
       <c r="F193" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10794,39 +10837,39 @@
         <v>146</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I195" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="1:16">
       <c r="F196" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>151</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10843,28 +10886,28 @@
         <v>146</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I197" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K197" s="5" t="s">
         <v>151</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M197" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O197" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P197" s="4" t="s">
         <v>67</v>
@@ -10872,22 +10915,22 @@
     </row>
     <row r="198" spans="1:16">
       <c r="F198" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G198" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>151</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M198" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -10895,10 +10938,10 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="O199" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -10915,36 +10958,36 @@
         <v>146</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K200" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:16">
       <c r="F201" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K201" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -10961,30 +11004,30 @@
         <v>146</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K202" s="5" t="s">
         <v>151</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:16">
       <c r="F203" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G203" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11020,15 +11063,15 @@
     </row>
     <row r="207" spans="1:16">
       <c r="A207" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:16">
       <c r="A208" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B208" t="s">
         <v>117</v>
@@ -11046,12 +11089,12 @@
         <v>54</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>128</v>
@@ -11066,18 +11109,18 @@
         <v>146</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G209" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B210" t="s">
         <v>117</v>
@@ -11092,13 +11135,13 @@
         <v>146</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G210" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11115,13 +11158,13 @@
         <v>146</v>
       </c>
       <c r="F211" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G211" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H211" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="G211" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11143,13 +11186,13 @@
         <v>146</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G213" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11166,13 +11209,13 @@
         <v>146</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G214" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11189,13 +11232,13 @@
         <v>146</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G215" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11212,13 +11255,13 @@
         <v>146</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G216" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="217" spans="1:8">

--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25180" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Final set" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="428">
   <si>
     <t>RCE sim</t>
   </si>
@@ -466,796 +466,844 @@
     <t>CTRLv0qrhSATqdz5000_nx3072_SST310.00K</t>
   </si>
   <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175K</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>2-day mean</t>
+  </si>
+  <si>
+    <t>hard to t</t>
+  </si>
+  <si>
+    <t>Vm?</t>
+  </si>
+  <si>
+    <t>rm noise</t>
+  </si>
+  <si>
+    <t>rm no</t>
+  </si>
+  <si>
+    <t>rm/r0 maybe not</t>
+  </si>
+  <si>
+    <t>no, weird things</t>
+  </si>
+  <si>
+    <t>rm kind of</t>
+  </si>
+  <si>
+    <t>rm messy</t>
+  </si>
+  <si>
+    <t>rm oscillation</t>
+  </si>
+  <si>
+    <t>bad day 90-100</t>
+  </si>
+  <si>
+    <t>rm tiny jump</t>
+  </si>
+  <si>
+    <t>eh day 90-100</t>
+  </si>
+  <si>
+    <t>rm drop day 85-100</t>
+  </si>
+  <si>
+    <t>rm maybe</t>
+  </si>
+  <si>
+    <t>rm 80-100 only</t>
+  </si>
+  <si>
+    <t>nooo</t>
+  </si>
+  <si>
+    <t>rm big oscillations</t>
+  </si>
+  <si>
+    <t>not quite</t>
+  </si>
+  <si>
+    <t>no, large oscill</t>
+  </si>
+  <si>
+    <t>r0 maybe not</t>
+  </si>
+  <si>
+    <t>rm, r0 no</t>
+  </si>
+  <si>
+    <t>day 80 only</t>
+  </si>
+  <si>
+    <t>rm noisy</t>
+  </si>
+  <si>
+    <t>rm r0 day 80 only</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>not even close</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_rad0.125K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_rad0.25K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_rad1.0K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_rad2.0K</t>
+  </si>
+  <si>
+    <t>Q_cool Vpcnst</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh175K_usfc3_rad0.25K</t>
+  </si>
+  <si>
+    <t>Vp = 93</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh225K_usfc3_rad1.0K</t>
+  </si>
+  <si>
+    <t>Vp = 92</t>
+  </si>
+  <si>
+    <t>Vp = 88</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh150K_usfc3_rad0.125K</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_rad2.0K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175K_rad0.25K</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh220K_usfc3_rad1.0K</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Vp = 75</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh230K_usfc3_rad2.0K</t>
+  </si>
+  <si>
+    <t>Vp = 81</t>
+  </si>
+  <si>
+    <t>Vp = 82</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh140K_usfc3_rad0.125K</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST305.00K_Tthresh150K_usfc3_rad0.125K</t>
+  </si>
+  <si>
+    <t>Vp = 102</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh240K_usfc3_rad2.0K</t>
+  </si>
+  <si>
+    <t>Vp = 89</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh237K_usfc3_rad2.0K</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_rad4.0K</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh247K_usfc3_rad4.0K</t>
+  </si>
+  <si>
+    <t>Vp = 91</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_rad8.0K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh220K_rad1.0K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh237K_rad2.0K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh247K_rad4.0K</t>
+  </si>
+  <si>
+    <t>Vp = 103</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh255K_usfc3_rad8.0K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh255K_rad8.0K</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh261K_usfc3_rad16.0K</t>
+  </si>
+  <si>
+    <t>Vp = 85</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh259K_usfc3_rad16.0K</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh259K_usfc3_rad16.0K_nz24</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh257K_usfc3_rad16.0K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh257K_rad16.0K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175K_rad0.25K_lv121</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh220K_rad1.0K_lv81</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh237K_rad2.0K_lv60</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh247K_rad4.0K_lv44</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh255K_rad8.0K_lv26</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh257K_rad16.0K_lv19</t>
+  </si>
+  <si>
+    <t>run to 150?</t>
+  </si>
+  <si>
+    <t>qr0_orig</t>
+  </si>
+  <si>
+    <t>CTRLv0qro100000qrhSATqdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLv0qro50000qrhSATqdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLv0qro25000qrhSATqdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLv0qro400000qrhSATqdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLv0qro800000qrhSATqdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLv0qro1600000qrhSATqdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>r0_orig</t>
+  </si>
+  <si>
+    <t>CTRLro100000v12.5qrh0qdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLro50000v12.5qrh0qdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLro200000v12.5qrh0qdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLro800000v12.5qrh0qdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLro1600000v12.5qrh0qdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLro3200000v12.5qrh0qdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx6144_dx2</t>
+  </si>
+  <si>
+    <t>too slow</t>
+  </si>
+  <si>
+    <t>DONE 200 days</t>
+  </si>
+  <si>
+    <t>CTRLv12.5qrh0qdz5000_nx3072</t>
+  </si>
+  <si>
+    <t>NO COMBINE!!!</t>
+  </si>
+  <si>
+    <t>Tmean5</t>
+  </si>
+  <si>
+    <t>sort of</t>
+  </si>
+  <si>
+    <t>Vm</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>yes (20)</t>
+  </si>
+  <si>
+    <t>close (15)</t>
+  </si>
+  <si>
+    <t>(##) = % largest deviation during equilibration period</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>rm big jump ~day 110 (dx large)</t>
+  </si>
+  <si>
+    <t>long oscillation</t>
+  </si>
+  <si>
+    <t>all three big jump (weakening 40%) at day 95</t>
+  </si>
+  <si>
+    <t>yes except rm</t>
+  </si>
+  <si>
+    <t>rm bumps (40%)</t>
+  </si>
+  <si>
+    <t>no!</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>steady til day 110!</t>
+  </si>
+  <si>
+    <t>wtf?</t>
+  </si>
+  <si>
+    <t>Vm  only</t>
+  </si>
+  <si>
+    <t>sort of (20)</t>
+  </si>
+  <si>
+    <t>no (40)</t>
+  </si>
+  <si>
+    <t>big r0 jump day 100</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>close (20)</t>
+  </si>
+  <si>
+    <t>close (30)</t>
+  </si>
+  <si>
+    <t>big oscillation day 90-130</t>
+  </si>
+  <si>
+    <t>kind of</t>
+  </si>
+  <si>
+    <t>big jump</t>
+  </si>
+  <si>
+    <t>yes!</t>
+  </si>
+  <si>
+    <t>pretty close</t>
+  </si>
+  <si>
+    <t>not quite before day 120</t>
+  </si>
+  <si>
+    <t>big spikes (60)</t>
+  </si>
+  <si>
+    <t>Vm only</t>
+  </si>
+  <si>
+    <t>huge jump day 135</t>
+  </si>
+  <si>
+    <t>huge jump day 120</t>
+  </si>
+  <si>
+    <t>gradual increase after day 110</t>
+  </si>
+  <si>
+    <t>rm jumpy but stable</t>
+  </si>
+  <si>
+    <t>decline after day 130</t>
+  </si>
+  <si>
+    <t>small decline after day 130</t>
+  </si>
+  <si>
+    <t>big jump day 110</t>
+  </si>
+  <si>
+    <t>slow decline up to day 130</t>
+  </si>
+  <si>
+    <t>close (25)</t>
+  </si>
+  <si>
+    <t>huge jump day 90, 140</t>
+  </si>
+  <si>
+    <t>not r0</t>
+  </si>
+  <si>
+    <t>r0 big jump day 130</t>
+  </si>
+  <si>
+    <t>not radii</t>
+  </si>
+  <si>
+    <t>big increase day 120-140</t>
+  </si>
+  <si>
+    <t>only rm</t>
+  </si>
+  <si>
+    <t>declining</t>
+  </si>
+  <si>
+    <t>Vm = 16.3 could be problematic for radii</t>
+  </si>
+  <si>
+    <t>yes, but oscil</t>
+  </si>
+  <si>
+    <t>big jump day 125</t>
+  </si>
+  <si>
+    <t>oscillating every 40 days</t>
+  </si>
+  <si>
+    <t>yes, messy</t>
+  </si>
+  <si>
+    <t>Vm, r0 ok</t>
+  </si>
+  <si>
+    <t>no, huge jumps day 100, 130</t>
+  </si>
+  <si>
+    <t>steady til day 100-120, then steady again after day 120</t>
+  </si>
+  <si>
+    <t>rerun and compare</t>
+  </si>
+  <si>
+    <t>HOPRU5N</t>
+  </si>
+  <si>
+    <t>storm contracts and weakens slightly day 130-150, what happens after?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST290.00K_Tthresh200K_usfc3 </t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST290.00K</t>
+  </si>
+  <si>
+    <t>rerun 0-150</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lowqro</t>
+  </si>
+  <si>
+    <t>u_s_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc.5_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc1_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc4_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc5_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc10_drag</t>
+  </si>
+  <si>
+    <t>different (and worse)!</t>
+  </si>
+  <si>
+    <t>rerun again 0-200</t>
+  </si>
+  <si>
+    <t>"0.5" instead of ".5" 0-200</t>
+  </si>
+  <si>
+    <t>blow up</t>
+  </si>
+  <si>
+    <t>blowup</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>this is just CTRL_himpi</t>
+  </si>
+  <si>
+    <t>this is just CTRL_lompi</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh375</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh375</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv2_lh187.5</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh187.5</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh187.5</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh187.5</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh187.5</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh3000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh187.5</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh3000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh187.5</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh6000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh375</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh6000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh375</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh12000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh12000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh12000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv2_lh12000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh12000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh3000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh12000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh3000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh12000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh6000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh12000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh6000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh12000_ts8</t>
+  </si>
+  <si>
+    <t>100-day oscillation!  Argh!</t>
+  </si>
+  <si>
+    <t>blew up</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh12000_pgi11</t>
+  </si>
+  <si>
+    <t>ts4: day 11</t>
+  </si>
+  <si>
+    <t>ts16: day 81</t>
+  </si>
+  <si>
+    <t>ts8: day 24</t>
+  </si>
+  <si>
+    <t>ts8: day 9</t>
+  </si>
+  <si>
+    <t>ts4: day 9</t>
+  </si>
+  <si>
+    <t>works!</t>
+  </si>
+  <si>
+    <t>works too!</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh12000_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh12000_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv2_lh12000_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh12000_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh12000_rstday100_2</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh12000_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh12000_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh12000_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh375_ts4</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh187.5_ts2</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5_ts2</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh187.5_ts2</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh3000_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh6000_ts8</t>
+  </si>
+  <si>
+    <t>TRANSIENT</t>
+  </si>
+  <si>
+    <t>DONE 150 days</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>halve r0, Vp</t>
+  </si>
+  <si>
+    <t>halve r0, double f</t>
+  </si>
+  <si>
+    <t>CTRLv0qro100000qrhSATqdz5000_nx3072_fx2_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qro100000qrhSATqdz5000_nx3072_Tthresh250K_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qro400000qrhSATqdz5000_nx3072_fdiv2_lh3000</t>
+  </si>
+  <si>
+    <t>75 days</t>
+  </si>
+  <si>
+    <t>simulations with constant r0/(Vp/f) AND lh/(Vp/f)</t>
+  </si>
+  <si>
+    <t>ts8: day 10</t>
+  </si>
+  <si>
+    <t>CTRLv0qro50000qrhSATqdz5000_nx3072_fx4</t>
+  </si>
+  <si>
+    <t>CTRLv0qro80000qrhSATqdz5000_nx3072_fdiv4</t>
+  </si>
+  <si>
+    <t>CTRLv0qro50000qrhSATqdz5000_nx3072_fx4_lh375</t>
+  </si>
+  <si>
+    <t>CTRLv0qro80000qrhSATqdz5000_nx3072_fdiv4_lh6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST287.50K_Tthresh200K_usfc3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST292.50K_Tthresh200K_usfc3 </t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST287.50K</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST292.50K</t>
+  </si>
+  <si>
+    <t>nondim new</t>
+  </si>
+  <si>
+    <t>hi Vp, half f, half lh</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fdiv2_lh750</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh3000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fx2_lh3000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh3000</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc.5_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc10_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_drag</t>
+  </si>
+  <si>
+    <t>DRY</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_DRY</t>
+  </si>
+  <si>
     <t>HOPRU1N</t>
   </si>
   <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175K</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>2-day mean</t>
-  </si>
-  <si>
-    <t>hard to t</t>
-  </si>
-  <si>
-    <t>Vm?</t>
-  </si>
-  <si>
-    <t>rm noise</t>
-  </si>
-  <si>
-    <t>rm no</t>
-  </si>
-  <si>
-    <t>rm/r0 maybe not</t>
-  </si>
-  <si>
-    <t>no, weird things</t>
-  </si>
-  <si>
-    <t>rm kind of</t>
-  </si>
-  <si>
-    <t>rm messy</t>
-  </si>
-  <si>
-    <t>rm oscillation</t>
-  </si>
-  <si>
-    <t>bad day 90-100</t>
-  </si>
-  <si>
-    <t>rm tiny jump</t>
-  </si>
-  <si>
-    <t>eh day 90-100</t>
-  </si>
-  <si>
-    <t>rm drop day 85-100</t>
-  </si>
-  <si>
-    <t>rm maybe</t>
-  </si>
-  <si>
-    <t>rm 80-100 only</t>
-  </si>
-  <si>
-    <t>nooo</t>
-  </si>
-  <si>
-    <t>rm big oscillations</t>
-  </si>
-  <si>
-    <t>not quite</t>
-  </si>
-  <si>
-    <t>no, large oscill</t>
-  </si>
-  <si>
-    <t>r0 maybe not</t>
-  </si>
-  <si>
-    <t>rm, r0 no</t>
-  </si>
-  <si>
-    <t>day 80 only</t>
-  </si>
-  <si>
-    <t>rm noisy</t>
-  </si>
-  <si>
-    <t>rm r0 day 80 only</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>not even close</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_rad0.125K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_rad0.25K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_rad1.0K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_rad2.0K</t>
-  </si>
-  <si>
-    <t>Q_cool Vpcnst</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh175K_usfc3_rad0.25K</t>
-  </si>
-  <si>
-    <t>Vp = 93</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh225K_usfc3_rad1.0K</t>
-  </si>
-  <si>
-    <t>Vp = 92</t>
-  </si>
-  <si>
-    <t>Vp = 88</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh150K_usfc3_rad0.125K</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_rad2.0K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175K_rad0.25K</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh220K_usfc3_rad1.0K</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>Vp = 75</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh230K_usfc3_rad2.0K</t>
-  </si>
-  <si>
-    <t>Vp = 81</t>
-  </si>
-  <si>
-    <t>Vp = 82</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh140K_usfc3_rad0.125K</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST305.00K_Tthresh150K_usfc3_rad0.125K</t>
-  </si>
-  <si>
-    <t>Vp = 102</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh240K_usfc3_rad2.0K</t>
-  </si>
-  <si>
-    <t>Vp = 89</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh237K_usfc3_rad2.0K</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_rad4.0K</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh247K_usfc3_rad4.0K</t>
-  </si>
-  <si>
-    <t>Vp = 91</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_rad8.0K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh220K_rad1.0K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh237K_rad2.0K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh247K_rad4.0K</t>
-  </si>
-  <si>
-    <t>Vp = 103</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh255K_usfc3_rad8.0K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh255K_rad8.0K</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh261K_usfc3_rad16.0K</t>
-  </si>
-  <si>
-    <t>Vp = 85</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh259K_usfc3_rad16.0K</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh259K_usfc3_rad16.0K_nz24</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh257K_usfc3_rad16.0K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh257K_rad16.0K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175K_rad0.25K_lv121</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh220K_rad1.0K_lv81</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh237K_rad2.0K_lv60</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh247K_rad4.0K_lv44</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh255K_rad8.0K_lv26</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh257K_rad16.0K_lv19</t>
-  </si>
-  <si>
-    <t>run to 150?</t>
-  </si>
-  <si>
-    <t>qr0_orig</t>
-  </si>
-  <si>
-    <t>CTRLv0qro100000qrhSATqdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLv0qro50000qrhSATqdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLv0qro25000qrhSATqdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLv0qro400000qrhSATqdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLv0qro800000qrhSATqdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLv0qro1600000qrhSATqdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>r0_orig</t>
-  </si>
-  <si>
-    <t>CTRLro100000v12.5qrh0qdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLro50000v12.5qrh0qdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLro200000v12.5qrh0qdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLro800000v12.5qrh0qdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLro1600000v12.5qrh0qdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLro3200000v12.5qrh0qdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx6144_dx2</t>
-  </si>
-  <si>
-    <t>too slow</t>
-  </si>
-  <si>
-    <t>DONE 200 days</t>
-  </si>
-  <si>
-    <t>CTRLv12.5qrh0qdz5000_nx3072</t>
-  </si>
-  <si>
-    <t>NO COMBINE!!!</t>
-  </si>
-  <si>
-    <t>Tmean5</t>
-  </si>
-  <si>
-    <t>sort of</t>
-  </si>
-  <si>
-    <t>Vm</t>
-  </si>
-  <si>
-    <t>rm</t>
-  </si>
-  <si>
-    <t>r0</t>
-  </si>
-  <si>
-    <t>yes (20)</t>
-  </si>
-  <si>
-    <t>close (15)</t>
-  </si>
-  <si>
-    <t>(##) = % largest deviation during equilibration period</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>rm big jump ~day 110 (dx large)</t>
-  </si>
-  <si>
-    <t>long oscillation</t>
-  </si>
-  <si>
-    <t>all three big jump (weakening 40%) at day 95</t>
-  </si>
-  <si>
-    <t>yes except rm</t>
-  </si>
-  <si>
-    <t>rm bumps (40%)</t>
-  </si>
-  <si>
-    <t>no!</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>steady til day 110!</t>
-  </si>
-  <si>
-    <t>wtf?</t>
-  </si>
-  <si>
-    <t>Vm  only</t>
-  </si>
-  <si>
-    <t>sort of (20)</t>
-  </si>
-  <si>
-    <t>no (40)</t>
-  </si>
-  <si>
-    <t>big r0 jump day 100</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>close (20)</t>
-  </si>
-  <si>
-    <t>close (30)</t>
-  </si>
-  <si>
-    <t>big oscillation day 90-130</t>
-  </si>
-  <si>
-    <t>kind of</t>
-  </si>
-  <si>
-    <t>big jump</t>
-  </si>
-  <si>
-    <t>yes!</t>
-  </si>
-  <si>
-    <t>pretty close</t>
-  </si>
-  <si>
-    <t>not quite before day 120</t>
-  </si>
-  <si>
-    <t>big spikes (60)</t>
-  </si>
-  <si>
-    <t>Vm only</t>
-  </si>
-  <si>
-    <t>huge jump day 135</t>
-  </si>
-  <si>
-    <t>huge jump day 120</t>
-  </si>
-  <si>
-    <t>gradual increase after day 110</t>
-  </si>
-  <si>
-    <t>rm jumpy but stable</t>
-  </si>
-  <si>
-    <t>decline after day 130</t>
-  </si>
-  <si>
-    <t>small decline after day 130</t>
-  </si>
-  <si>
-    <t>big jump day 110</t>
-  </si>
-  <si>
-    <t>slow decline up to day 130</t>
-  </si>
-  <si>
-    <t>close (25)</t>
-  </si>
-  <si>
-    <t>huge jump day 90, 140</t>
-  </si>
-  <si>
-    <t>not r0</t>
-  </si>
-  <si>
-    <t>r0 big jump day 130</t>
-  </si>
-  <si>
-    <t>not radii</t>
-  </si>
-  <si>
-    <t>big increase day 120-140</t>
-  </si>
-  <si>
-    <t>only rm</t>
-  </si>
-  <si>
-    <t>declining</t>
-  </si>
-  <si>
-    <t>Vm = 16.3 could be problematic for radii</t>
-  </si>
-  <si>
-    <t>yes, but oscil</t>
-  </si>
-  <si>
-    <t>big jump day 125</t>
-  </si>
-  <si>
-    <t>oscillating every 40 days</t>
-  </si>
-  <si>
-    <t>yes, messy</t>
-  </si>
-  <si>
-    <t>Vm, r0 ok</t>
-  </si>
-  <si>
-    <t>no, huge jumps day 100, 130</t>
-  </si>
-  <si>
-    <t>steady til day 100-120, then steady again after day 120</t>
-  </si>
-  <si>
-    <t>rerun and compare</t>
-  </si>
-  <si>
-    <t>HOPRU5N</t>
-  </si>
-  <si>
-    <t>storm contracts and weakens slightly day 130-150, what happens after?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCE_nx48_SST290.00K_Tthresh200K_usfc3 </t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_SST290.00K</t>
-  </si>
-  <si>
-    <t>rerun 0-150</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lowqro</t>
-  </si>
-  <si>
-    <t>u_s_drag</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_usfc.5_drag</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_usfc1_drag</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_usfc2_drag</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_drag</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_usfc4_drag</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_usfc5_drag</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_usfc10_drag</t>
-  </si>
-  <si>
-    <t>different (and worse)!</t>
-  </si>
-  <si>
-    <t>rerun again 0-200</t>
-  </si>
-  <si>
-    <t>"0.5" instead of ".5" 0-200</t>
-  </si>
-  <si>
-    <t>blow up</t>
-  </si>
-  <si>
-    <t>blowup</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>this is just CTRL_himpi</t>
-  </si>
-  <si>
-    <t>this is just CTRL_lompi</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh375</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh375</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv2_lh187.5</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh750</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh187.5</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh750</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh187.5</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh187.5</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh187.5</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh3000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh187.5</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh3000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh187.5</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh6000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh375</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh6000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh375</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh12000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh750</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh12000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh750</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh12000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv2_lh12000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh12000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh3000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh12000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh3000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh12000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh6000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh12000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh6000</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh12000_ts8</t>
-  </si>
-  <si>
-    <t>100-day oscillation!  Argh!</t>
-  </si>
-  <si>
-    <t>blew up</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_lh12000_pgi11</t>
-  </si>
-  <si>
-    <t>ts4: day 11</t>
-  </si>
-  <si>
-    <t>ts16: day 81</t>
-  </si>
-  <si>
-    <t>ts8: day 24</t>
-  </si>
-  <si>
-    <t>ts8: day 9</t>
-  </si>
-  <si>
-    <t>ts4: day 9</t>
-  </si>
-  <si>
-    <t>works!</t>
-  </si>
-  <si>
-    <t>works too!</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh12000_ts8</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh12000_ts8</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv2_lh12000_ts8</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh12000_ts8</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_lh12000_rstday100_2</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh12000_ts8</t>
-  </si>
-  <si>
-    <t>HOPRU4N</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh12000_ts8</t>
-  </si>
-  <si>
-    <t>HOPRU7N</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh12000_ts8</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh375_ts4</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh187.5_ts2</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5_ts2</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh187.5_ts2</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh3000_ts8</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh6000_ts8</t>
-  </si>
-  <si>
-    <t>HOPRU8N</t>
-  </si>
-  <si>
-    <t>HOPRU14N</t>
-  </si>
-  <si>
-    <t>TRANSIENT</t>
-  </si>
-  <si>
-    <t>DONE 150 days</t>
-  </si>
-  <si>
-    <t>ctrl</t>
-  </si>
-  <si>
-    <t>halve r0, Vp</t>
-  </si>
-  <si>
-    <t>halve r0, double f</t>
-  </si>
-  <si>
-    <t>CTRLv0qro100000qrhSATqdz5000_nx3072_fx2_lh750</t>
-  </si>
-  <si>
-    <t>CTRLv0qro100000qrhSATqdz5000_nx3072_Tthresh250K_lh750</t>
-  </si>
-  <si>
-    <t>CTRLv0qro400000qrhSATqdz5000_nx3072_fdiv2_lh3000</t>
-  </si>
-  <si>
-    <t>75 days</t>
-  </si>
-  <si>
-    <t>simulations with constant r0/(Vp/f) AND lh/(Vp/f)</t>
-  </si>
-  <si>
-    <t>ts8: day 10</t>
-  </si>
-  <si>
-    <t>CTRLv0qro50000qrhSATqdz5000_nx3072_fx4</t>
-  </si>
-  <si>
-    <t>CTRLv0qro80000qrhSATqdz5000_nx3072_fdiv4</t>
-  </si>
-  <si>
-    <t>CTRLv0qro50000qrhSATqdz5000_nx3072_fx4_lh375</t>
-  </si>
-  <si>
-    <t>CTRLv0qro80000qrhSATqdz5000_nx3072_fdiv4_lh6000</t>
-  </si>
-  <si>
-    <t>HOPRU2N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCE_nx48_SST287.50K_Tthresh200K_usfc3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCE_nx48_SST292.50K_Tthresh200K_usfc3 </t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_SST287.50K</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_SST292.50K</t>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5_tsadapt</t>
+  </si>
+  <si>
+    <t>RU1N</t>
+  </si>
+  <si>
+    <t>RU2N</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_DRYdrc</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh150K_usfc3_DRY</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_DRY</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1387,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2621">
+  <cellStyleXfs count="2751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3992,12 +4170,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2621">
+  <cellStyles count="2751">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5308,6 +5486,71 @@
     <cellStyle name="Followed Hyperlink" xfId="2616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2618" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2750" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6618,6 +6861,71 @@
     <cellStyle name="Hyperlink" xfId="2615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2617" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2749" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6947,17 +7255,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V248"/>
+  <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="66.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -6966,25 +7274,26 @@
     <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="K1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="I2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -7015,19 +7324,19 @@
         <v>120</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>120</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>121</v>
@@ -7059,25 +7368,25 @@
         <v>146</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -7091,25 +7400,25 @@
         <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -7126,7 +7435,7 @@
         <v>146</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>146</v>
@@ -7146,7 +7455,7 @@
         <v>146</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>146</v>
@@ -7166,7 +7475,7 @@
         <v>146</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>146</v>
@@ -7192,15 +7501,15 @@
         <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="F12" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G12" s="2">
         <v>40</v>
@@ -7209,7 +7518,7 @@
         <v>146</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>146</v>
@@ -7231,10 +7540,10 @@
         <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
         <v>146</v>
@@ -7251,25 +7560,25 @@
         <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
+        <v>253</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="s">
+        <v>253</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
         <v>254</v>
-      </c>
-      <c r="L15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" t="s">
-        <v>254</v>
-      </c>
-      <c r="N15" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -7286,7 +7595,7 @@
         <v>146</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
         <v>146</v>
@@ -7318,10 +7627,10 @@
         <v>146</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -7336,25 +7645,25 @@
         <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -7373,25 +7682,25 @@
         <v>146</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" t="s">
         <v>258</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" t="s">
-        <v>146</v>
-      </c>
-      <c r="O21" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -7420,10 +7729,10 @@
         <v>146</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>146</v>
@@ -7443,7 +7752,7 @@
         <v>146</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>146</v>
@@ -7460,31 +7769,31 @@
         <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -7507,7 +7816,7 @@
         <v>146</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>146</v>
@@ -7524,10 +7833,10 @@
         <v>146</v>
       </c>
       <c r="I28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>146</v>
@@ -7544,10 +7853,10 @@
         <v>146</v>
       </c>
       <c r="I29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>146</v>
@@ -7579,10 +7888,10 @@
         <v>146</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>146</v>
@@ -7602,28 +7911,28 @@
         <v>146</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -7640,28 +7949,28 @@
         <v>146</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="P33" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7680,10 +7989,10 @@
         <v>146</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>146</v>
@@ -7703,7 +8012,7 @@
         <v>146</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>146</v>
@@ -7723,7 +8032,7 @@
         <v>146</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>146</v>
@@ -7734,7 +8043,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s">
         <v>117</v>
@@ -7749,7 +8058,7 @@
         <v>146</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G39" s="2">
         <v>40</v>
@@ -7758,7 +8067,7 @@
         <v>146</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>146</v>
@@ -7766,7 +8075,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="F40" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G40" s="2">
         <v>40</v>
@@ -7775,7 +8084,7 @@
         <v>146</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>146</v>
@@ -7783,7 +8092,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="F41" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G41" s="2">
         <v>40</v>
@@ -7792,7 +8101,7 @@
         <v>146</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>146</v>
@@ -7805,7 +8114,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="F43" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G43" s="2">
         <v>40</v>
@@ -7814,7 +8123,7 @@
         <v>146</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>146</v>
@@ -7822,7 +8131,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="F44" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G44" s="2">
         <v>40</v>
@@ -7831,7 +8140,7 @@
         <v>146</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>146</v>
@@ -7839,7 +8148,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="F45" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G45" s="2">
         <v>40</v>
@@ -7848,22 +8157,22 @@
         <v>146</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K45" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -7872,7 +8181,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
         <v>117</v>
@@ -7887,7 +8196,7 @@
         <v>146</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" s="2">
         <v>40</v>
@@ -7896,7 +8205,7 @@
         <v>146</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>146</v>
@@ -7904,7 +8213,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="F48" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G48" s="2">
         <v>40</v>
@@ -7913,7 +8222,7 @@
         <v>146</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>146</v>
@@ -7921,7 +8230,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="F49" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G49" s="2">
         <v>40</v>
@@ -7930,7 +8239,7 @@
         <v>146</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>146</v>
@@ -7938,7 +8247,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="F50" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G50" s="2">
         <v>40</v>
@@ -7947,21 +8256,21 @@
         <v>146</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="F51" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G51" s="2">
         <v>40</v>
@@ -7970,7 +8279,7 @@
         <v>146</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>146</v>
@@ -7978,7 +8287,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="F52" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G52" s="2">
         <v>40</v>
@@ -7987,7 +8296,7 @@
         <v>146</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>146</v>
@@ -7995,7 +8304,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="F53" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G53" s="2">
         <v>40</v>
@@ -8004,25 +8313,25 @@
         <v>146</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K53" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="N53" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -8093,7 +8402,7 @@
         <v>146</v>
       </c>
       <c r="I58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -8107,7 +8416,7 @@
         <v>146</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -8121,7 +8430,7 @@
         <v>146</v>
       </c>
       <c r="I60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -8163,7 +8472,7 @@
         <v>146</v>
       </c>
       <c r="I63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -8220,7 +8529,7 @@
         <v>146</v>
       </c>
       <c r="I67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -8290,7 +8599,7 @@
         <v>146</v>
       </c>
       <c r="I72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -8319,13 +8628,13 @@
         <v>146</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -8339,25 +8648,25 @@
         <v>146</v>
       </c>
       <c r="I75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K75" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -8371,19 +8680,19 @@
         <v>146</v>
       </c>
       <c r="I76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>146</v>
@@ -8408,7 +8717,7 @@
         <v>146</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>146</v>
@@ -8428,7 +8737,7 @@
         <v>146</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>146</v>
@@ -8445,10 +8754,10 @@
         <v>146</v>
       </c>
       <c r="I80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -8477,31 +8786,31 @@
         <v>146</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K82" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O82" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="P82" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -8530,42 +8839,42 @@
         <v>146</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:19">
       <c r="B84" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>151</v>
+        <v>402</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="5"/>
@@ -8579,7 +8888,7 @@
     </row>
     <row r="85" spans="1:19">
       <c r="B85" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C85" s="7">
         <v>11</v>
@@ -8591,10 +8900,10 @@
         <v>146</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="5"/>
@@ -8606,16 +8915,16 @@
     </row>
     <row r="86" spans="1:19">
       <c r="B86" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="5"/>
@@ -8648,10 +8957,10 @@
         <v>146</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>146</v>
@@ -8683,7 +8992,7 @@
         <v>146</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>146</v>
@@ -8732,19 +9041,19 @@
         <v>146</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -8767,10 +9076,10 @@
         <v>40</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="2" t="s">
@@ -8800,13 +9109,13 @@
         <v>146</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -8835,34 +9144,34 @@
         <v>146</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="N94" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="O94" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="P94" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="P94" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="R94" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -8891,7 +9200,7 @@
         <v>146</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>146</v>
@@ -8928,7 +9237,7 @@
         <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G97" s="2">
         <v>48</v>
@@ -8937,10 +9246,10 @@
         <v>146</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -8957,7 +9266,7 @@
         <v>146</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G98" s="2">
         <v>48</v>
@@ -8966,7 +9275,7 @@
         <v>146</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>146</v>
@@ -9001,43 +9310,43 @@
         <v>146</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P100" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R100" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T100" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="S100" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="T100" s="2" t="s">
+      <c r="U100" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="V100" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="U100" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="V100" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -9063,25 +9372,25 @@
         <v>146</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -9110,7 +9419,7 @@
         <v>146</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>146</v>
@@ -9156,10 +9465,10 @@
         <v>146</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>146</v>
@@ -9191,7 +9500,7 @@
         <v>146</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>146</v>
@@ -9220,10 +9529,10 @@
         <v>146</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>146</v>
@@ -9237,7 +9546,7 @@
     </row>
     <row r="108" spans="1:22">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>132</v>
@@ -9252,13 +9561,13 @@
         <v>146</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G108" s="2">
         <v>40</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="5"/>
@@ -9284,13 +9593,13 @@
         <v>146</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G109" s="2">
         <v>40</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="5"/>
@@ -9313,13 +9622,13 @@
         <v>146</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G110" s="2">
         <v>40</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="5"/>
@@ -9339,13 +9648,13 @@
         <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G111" s="2">
         <v>40</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -9362,19 +9671,19 @@
         <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G112" s="2">
         <v>40</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="5"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:14">
       <c r="B113" s="1" t="s">
         <v>137</v>
       </c>
@@ -9388,19 +9697,19 @@
         <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G113" s="2">
         <v>40</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="5"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:14">
       <c r="B114" s="1" t="s">
         <v>138</v>
       </c>
@@ -9414,423 +9723,396 @@
         <v>146</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G114" s="2">
         <v>40</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="5"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="116" spans="1:15">
-      <c r="A116" t="s">
+    <row r="115" spans="1:14">
+      <c r="B115" s="1"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="B116" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H116" s="6"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="B117" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H117" s="6"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="B118" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H118" s="6"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
         <v>45</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C116">
+      <c r="C120">
         <v>15</v>
-      </c>
-      <c r="D116">
-        <v>48</v>
-      </c>
-      <c r="E116" t="s">
-        <v>146</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G116" s="2">
-        <v>40</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="B117" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C117">
-        <v>15</v>
-      </c>
-      <c r="D117">
-        <v>48</v>
-      </c>
-      <c r="E117" t="s">
-        <v>146</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G117" s="2">
-        <v>40</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="B118" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118">
-        <v>15</v>
-      </c>
-      <c r="D118">
-        <v>48</v>
-      </c>
-      <c r="E118" t="s">
-        <v>146</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="B119" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C119">
-        <v>14</v>
-      </c>
-      <c r="D119">
-        <v>48</v>
-      </c>
-      <c r="E119" t="s">
-        <v>146</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G119" s="2">
-        <v>48</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="B120" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C120">
-        <v>13</v>
       </c>
       <c r="D120">
         <v>48</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" t="s">
         <v>146</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G120" s="2">
+        <v>40</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="B121" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="D121">
         <v>48</v>
       </c>
-      <c r="H120" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="K120" t="s">
-        <v>278</v>
-      </c>
-      <c r="L120" t="s">
-        <v>146</v>
-      </c>
-      <c r="M120" t="s">
-        <v>288</v>
-      </c>
-      <c r="N120" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" t="s">
-        <v>46</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="E121" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G121" s="2">
+        <v>40</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="B122" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C122">
         <v>15</v>
       </c>
       <c r="D122">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E122" t="s">
         <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="B123" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123">
+        <v>14</v>
+      </c>
+      <c r="D123">
+        <v>48</v>
+      </c>
+      <c r="E123" t="s">
+        <v>146</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G123" s="2">
+        <v>48</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="B124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124">
+        <v>13</v>
+      </c>
+      <c r="D124">
+        <v>48</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G124" s="2">
+        <v>48</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K124" t="s">
+        <v>277</v>
+      </c>
+      <c r="L124" t="s">
+        <v>146</v>
+      </c>
+      <c r="M124" t="s">
+        <v>287</v>
+      </c>
+      <c r="N124" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>40</v>
+      </c>
+      <c r="E126" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G122" s="2">
-        <v>40</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I122" s="2" t="s">
+      <c r="G126" s="2">
+        <v>40</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="F127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G127" s="2">
+        <v>40</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I127" t="s">
         <v>174</v>
       </c>
-      <c r="J122" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="F123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G123" s="2">
-        <v>40</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="J127" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="F128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G128" s="2">
+        <v>40</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I128" t="s">
+        <v>146</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="F129" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="F130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G130" s="2">
+        <v>40</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I130" t="s">
         <v>175</v>
       </c>
-      <c r="J123" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N123" s="2" t="s">
+      <c r="J130" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K130" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="F124" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G124" s="2">
-        <v>40</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I124" t="s">
-        <v>146</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="F125" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="F126" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G126" s="2">
-        <v>40</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="L130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="F131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G131" s="2">
+        <v>40</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I131" t="s">
         <v>176</v>
       </c>
-      <c r="J126" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M126" s="2" t="s">
+      <c r="J131" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K131" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="N126" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="F127" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G127" s="2">
-        <v>40</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="L131" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="F132" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G132" s="2">
+        <v>40</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I132" t="s">
         <v>177</v>
       </c>
-      <c r="J127" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L127" s="2" t="s">
+      <c r="J132" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O132" t="s">
         <v>294</v>
       </c>
-      <c r="M127" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="F128" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G128" s="2">
-        <v>40</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I128" t="s">
-        <v>178</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O128" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" t="s">
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130" t="s">
-        <v>187</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C130">
+      <c r="C134">
         <v>16.899999999999999</v>
-      </c>
-      <c r="D130">
-        <v>48</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G130" s="2">
-        <v>48</v>
-      </c>
-      <c r="J130" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="B131" s="1"/>
-      <c r="C131">
-        <f>C130/$C$132</f>
-        <v>1.2071428571428571</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" t="s">
-        <v>185</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132">
-        <v>14</v>
-      </c>
-      <c r="D132">
-        <v>48</v>
-      </c>
-      <c r="E132" t="s">
-        <v>146</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="B133" s="1"/>
-      <c r="C133">
-        <f>C132/$C$132</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="A134" t="s">
-        <v>185</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C134">
-        <v>11.4</v>
       </c>
       <c r="D134">
         <v>48</v>
@@ -9839,182 +10121,172 @@
         <v>146</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G134" s="2">
-        <v>40</v>
-      </c>
-      <c r="J134" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K134" t="s">
-        <v>296</v>
-      </c>
-      <c r="L134" t="s">
-        <v>146</v>
-      </c>
-      <c r="M134" t="s">
-        <v>297</v>
-      </c>
-      <c r="N134" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>48</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="B135" s="1"/>
       <c r="C135">
-        <f>C134/$C$132</f>
-        <v>0.81428571428571428</v>
+        <f>C134/$C$136</f>
+        <v>1.2071428571428571</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>219</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="C136">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="D136">
         <v>48</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" t="s">
         <v>146</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G136" s="2">
-        <v>32</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K136" t="s">
-        <v>300</v>
-      </c>
-      <c r="L136" t="s">
-        <v>299</v>
-      </c>
-      <c r="M136" t="s">
-        <v>301</v>
-      </c>
-      <c r="N136" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="B137" s="1"/>
       <c r="C137">
-        <f>C136/$C$132</f>
-        <v>0.6</v>
-      </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <f>C136/$C$136</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C138">
-        <v>6.2</v>
+        <v>11.4</v>
       </c>
       <c r="D138">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G138" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>150</v>
+      </c>
+      <c r="K138" t="s">
+        <v>295</v>
+      </c>
+      <c r="L138" t="s">
+        <v>146</v>
+      </c>
+      <c r="M138" t="s">
+        <v>296</v>
+      </c>
+      <c r="N138" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="B139" s="1"/>
       <c r="C139">
-        <f>C138/$C$132</f>
-        <v>0.44285714285714289</v>
+        <f>C138/$C$136</f>
+        <v>0.81428571428571428</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C140">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="D140">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G140" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>150</v>
+      </c>
+      <c r="K140" t="s">
+        <v>299</v>
+      </c>
+      <c r="L140" t="s">
+        <v>298</v>
+      </c>
+      <c r="M140" t="s">
+        <v>300</v>
+      </c>
+      <c r="N140" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="B141" s="1"/>
       <c r="C141">
-        <f>C140/$C$132</f>
-        <v>0.25714285714285717</v>
+        <f>C140/$C$136</f>
+        <v>0.6</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C142">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="D142">
         <v>40</v>
@@ -10023,1179 +10295,1191 @@
         <v>146</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G142" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="B143" s="1"/>
       <c r="C143">
-        <f>C142/$C$132</f>
-        <v>0.18571428571428572</v>
+        <f>C142/$C$136</f>
+        <v>0.44285714285714289</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="B144" s="1"/>
-      <c r="E144" s="5"/>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" t="s">
+        <v>184</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C144">
+        <v>3.6</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G144" s="2">
+        <v>24</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="B145" s="1"/>
+      <c r="C145">
+        <f>C144/$C$136</f>
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>184</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C146">
+        <v>2.6</v>
+      </c>
+      <c r="D146">
+        <v>40</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G146" s="2">
+        <v>24</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="B147" s="1"/>
+      <c r="C147">
+        <f>C146/$C$136</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="E147" s="7"/>
+      <c r="F147" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="B148" s="1"/>
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>192</v>
+      </c>
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
         <v>193</v>
       </c>
-      <c r="E145" s="7"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" t="s">
-        <v>194</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D146">
+      <c r="B150" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D150">
         <v>56</v>
       </c>
-      <c r="E146" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" t="s">
-        <v>197</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C147">
+      <c r="E150" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>196</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C151">
         <v>20</v>
-      </c>
-      <c r="D147">
-        <v>48</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" t="s">
-        <v>196</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C148">
-        <v>22</v>
-      </c>
-      <c r="D148">
-        <v>48</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" t="s">
-        <v>188</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C149">
-        <v>11</v>
-      </c>
-      <c r="D149">
-        <v>48</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" t="s">
-        <v>194</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C150">
-        <v>7</v>
-      </c>
-      <c r="D150">
-        <v>48</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" t="s">
-        <v>202</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C151">
-        <v>8</v>
       </c>
       <c r="D151">
         <v>48</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D152">
         <v>48</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C153">
+        <v>11</v>
+      </c>
+      <c r="D153">
+        <v>48</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>193</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>48</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>48</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C156">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <v>48</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157">
         <v>6</v>
       </c>
-      <c r="D153">
-        <v>40</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" t="s">
-        <v>211</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C154">
+      <c r="D157">
+        <v>40</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158">
         <v>4</v>
       </c>
-      <c r="D154">
-        <v>40</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" t="s">
+      <c r="D158">
+        <v>40</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>214</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>40</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>201</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C155">
+      <c r="C160">
         <v>3</v>
       </c>
-      <c r="D155">
-        <v>40</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" t="s">
-        <v>202</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="D160">
+        <v>40</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" t="s">
+        <v>187</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C156">
+      <c r="C161">
         <v>3</v>
       </c>
-      <c r="D156">
-        <v>40</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" t="s">
-        <v>188</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157">
+      <c r="D161">
         <v>24</v>
       </c>
-      <c r="E157" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="B158" s="1"/>
-      <c r="E158" s="7"/>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" t="s">
+      <c r="E161" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="B162" s="1"/>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" t="s">
         <v>49</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C160">
+      <c r="C164">
         <v>21</v>
       </c>
-      <c r="D160">
+      <c r="D164">
         <v>48</v>
       </c>
-      <c r="E160" t="s">
-        <v>146</v>
-      </c>
-      <c r="F160" s="3" t="s">
+      <c r="E164" t="s">
+        <v>146</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="F165" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G160" s="9" t="s">
+      <c r="G165" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="O165" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="B166" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>40</v>
+      </c>
+      <c r="E166" t="s">
+        <v>146</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I166" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="F167" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="B169" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C169">
+        <v>21</v>
+      </c>
+      <c r="D169">
+        <v>48</v>
+      </c>
+      <c r="E169" t="s">
+        <v>146</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="F170" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="B171" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>40</v>
+      </c>
+      <c r="E171" t="s">
+        <v>146</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="F172" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="B174" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C174">
+        <v>21</v>
+      </c>
+      <c r="D174">
+        <v>48</v>
+      </c>
+      <c r="E174" t="s">
+        <v>146</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="F175" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="B176" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+      <c r="D176">
+        <v>40</v>
+      </c>
+      <c r="E176" t="s">
+        <v>146</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="F177" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="2:12">
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="B179" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C179">
+        <v>21</v>
+      </c>
+      <c r="D179">
+        <v>48</v>
+      </c>
+      <c r="E179" t="s">
+        <v>146</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12">
+      <c r="F180" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12">
+      <c r="B181" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C181">
+        <v>8</v>
+      </c>
+      <c r="D181">
+        <v>40</v>
+      </c>
+      <c r="E181" t="s">
+        <v>146</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="F182" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12">
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="2:12">
+      <c r="B184" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184">
+        <v>21</v>
+      </c>
+      <c r="D184">
+        <v>48</v>
+      </c>
+      <c r="E184" t="s">
+        <v>146</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="L184" s="3"/>
+    </row>
+    <row r="185" spans="2:12" ht="18">
+      <c r="F185" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L185" s="11"/>
+    </row>
+    <row r="186" spans="2:12">
+      <c r="B186" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C186">
+        <v>8</v>
+      </c>
+      <c r="D186">
+        <v>40</v>
+      </c>
+      <c r="E186" t="s">
+        <v>146</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12">
+      <c r="F187" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12">
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="2:12">
+      <c r="B189" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C189">
+        <v>21</v>
+      </c>
+      <c r="D189">
+        <v>48</v>
+      </c>
+      <c r="E189" t="s">
+        <v>146</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K189" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12">
+      <c r="F190" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12">
+      <c r="B191" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C191">
+        <v>8</v>
+      </c>
+      <c r="D191">
+        <v>40</v>
+      </c>
+      <c r="E191" t="s">
+        <v>146</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12">
+      <c r="F192" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16">
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="2:16">
+      <c r="B194" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C194">
+        <v>21</v>
+      </c>
+      <c r="D194">
+        <v>48</v>
+      </c>
+      <c r="E194" t="s">
+        <v>146</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16">
+      <c r="F195" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16">
+      <c r="B196" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+      <c r="D196">
+        <v>40</v>
+      </c>
+      <c r="E196" t="s">
+        <v>146</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L196" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16">
+      <c r="F197" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16">
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="2:16">
+      <c r="B199" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C199">
+        <v>21</v>
+      </c>
+      <c r="D199">
+        <v>48</v>
+      </c>
+      <c r="E199" t="s">
+        <v>146</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I199" t="s">
+        <v>323</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L199" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16">
+      <c r="F200" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16">
+      <c r="B201" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201">
+        <v>40</v>
+      </c>
+      <c r="E201" t="s">
+        <v>146</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I201" t="s">
+        <v>324</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M201" t="s">
+        <v>371</v>
+      </c>
+      <c r="O201" t="s">
+        <v>363</v>
+      </c>
+      <c r="P201" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16">
+      <c r="F202" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L202" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="M202" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16">
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="O203" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P203" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H160" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12">
-      <c r="F161" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K161" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="L161" s="3" t="s">
+    </row>
+    <row r="204" spans="2:16">
+      <c r="B204" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C204">
+        <v>21</v>
+      </c>
+      <c r="D204">
+        <v>48</v>
+      </c>
+      <c r="E204" t="s">
+        <v>146</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16">
+      <c r="F205" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L205" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="2:12">
-      <c r="B162" s="1" t="s">
+    <row r="206" spans="2:16">
+      <c r="B206" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C162">
+      <c r="C206">
         <v>8</v>
       </c>
-      <c r="D162">
-        <v>40</v>
-      </c>
-      <c r="E162" t="s">
-        <v>146</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I162" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="163" spans="2:12">
-      <c r="F163" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12">
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-    </row>
-    <row r="165" spans="2:12">
-      <c r="B165" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C165">
-        <v>21</v>
-      </c>
-      <c r="D165">
+      <c r="D206">
+        <v>40</v>
+      </c>
+      <c r="E206" t="s">
+        <v>146</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G206" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16">
+      <c r="F207" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G207" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16">
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>389</v>
+      </c>
+      <c r="B212" t="s">
+        <v>117</v>
+      </c>
+      <c r="C212">
+        <v>15</v>
+      </c>
+      <c r="D212">
         <v>48</v>
       </c>
-      <c r="E165" t="s">
-        <v>146</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12">
-      <c r="F166" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K166" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="167" spans="2:12">
-      <c r="B167" s="1" t="s">
+      <c r="E212" t="s">
+        <v>146</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>390</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C167">
+      <c r="C213">
         <v>8</v>
       </c>
-      <c r="D167">
-        <v>40</v>
-      </c>
-      <c r="E167" t="s">
-        <v>146</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12">
-      <c r="F168" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12">
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-    </row>
-    <row r="170" spans="2:12">
-      <c r="B170" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C170">
-        <v>21</v>
-      </c>
-      <c r="D170">
-        <v>48</v>
-      </c>
-      <c r="E170" t="s">
-        <v>146</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G170" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="171" spans="2:12">
-      <c r="F171" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="K171" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="172" spans="2:12">
-      <c r="B172" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C172">
-        <v>8</v>
-      </c>
-      <c r="D172">
-        <v>40</v>
-      </c>
-      <c r="E172" t="s">
-        <v>146</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="173" spans="2:12">
-      <c r="F173" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G173" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="L173" s="3"/>
-    </row>
-    <row r="174" spans="2:12">
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" spans="2:12">
-      <c r="B175" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C175">
-        <v>21</v>
-      </c>
-      <c r="D175">
-        <v>48</v>
-      </c>
-      <c r="E175" t="s">
-        <v>146</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="176" spans="2:12">
-      <c r="F176" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G176" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="177" spans="2:12">
-      <c r="B177" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C177">
-        <v>8</v>
-      </c>
-      <c r="D177">
-        <v>40</v>
-      </c>
-      <c r="E177" t="s">
-        <v>146</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G177" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="178" spans="2:12">
-      <c r="F178" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="179" spans="2:12">
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-    </row>
-    <row r="180" spans="2:12">
-      <c r="B180" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C180">
-        <v>21</v>
-      </c>
-      <c r="D180">
-        <v>48</v>
-      </c>
-      <c r="E180" t="s">
-        <v>146</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="L180" s="3"/>
-    </row>
-    <row r="181" spans="2:12" ht="18">
-      <c r="F181" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L181" s="11"/>
-    </row>
-    <row r="182" spans="2:12">
-      <c r="B182" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C182">
-        <v>8</v>
-      </c>
-      <c r="D182">
-        <v>40</v>
-      </c>
-      <c r="E182" t="s">
-        <v>146</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G182" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="183" spans="2:12">
-      <c r="F183" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G183" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="184" spans="2:12">
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-    </row>
-    <row r="185" spans="2:12">
-      <c r="B185" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C185">
-        <v>21</v>
-      </c>
-      <c r="D185">
-        <v>48</v>
-      </c>
-      <c r="E185" t="s">
-        <v>146</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G185" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K185" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="L185" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="186" spans="2:12">
-      <c r="F186" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="187" spans="2:12">
-      <c r="B187" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C187">
-        <v>8</v>
-      </c>
-      <c r="D187">
-        <v>40</v>
-      </c>
-      <c r="E187" t="s">
-        <v>146</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K187" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L187" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="188" spans="2:12">
-      <c r="F188" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G188" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="189" spans="2:12">
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-    </row>
-    <row r="190" spans="2:12">
-      <c r="B190" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C190">
-        <v>21</v>
-      </c>
-      <c r="D190">
-        <v>48</v>
-      </c>
-      <c r="E190" t="s">
-        <v>146</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G190" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K190" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="L190" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="191" spans="2:12">
-      <c r="F191" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="G191" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="192" spans="2:12">
-      <c r="B192" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C192">
-        <v>8</v>
-      </c>
-      <c r="D192">
-        <v>40</v>
-      </c>
-      <c r="E192" t="s">
-        <v>146</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K192" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L192" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16">
-      <c r="F193" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16">
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-    </row>
-    <row r="195" spans="1:16">
-      <c r="B195" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C195">
-        <v>21</v>
-      </c>
-      <c r="D195">
-        <v>48</v>
-      </c>
-      <c r="E195" t="s">
-        <v>146</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G195" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I195" t="s">
-        <v>324</v>
-      </c>
-      <c r="K195" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L195" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16">
-      <c r="F196" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G196" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="K196" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L196" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
-      <c r="B197" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C197">
-        <v>8</v>
-      </c>
-      <c r="D197">
-        <v>40</v>
-      </c>
-      <c r="E197" t="s">
-        <v>146</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G197" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I197" t="s">
-        <v>325</v>
-      </c>
-      <c r="K197" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L197" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="M197" t="s">
-        <v>372</v>
-      </c>
-      <c r="O197" t="s">
-        <v>364</v>
-      </c>
-      <c r="P197" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16">
-      <c r="F198" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K198" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L198" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="M198" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16">
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="O199" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="P199" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16">
-      <c r="B200" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C200">
-        <v>21</v>
-      </c>
-      <c r="D200">
-        <v>48</v>
-      </c>
-      <c r="E200" t="s">
-        <v>146</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G200" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K200" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="L200" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16">
-      <c r="F201" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G201" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K201" s="5" t="s">
+      <c r="D213">
+        <v>40</v>
+      </c>
+      <c r="E213" t="s">
+        <v>146</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
         <v>391</v>
       </c>
-      <c r="L201" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16">
-      <c r="B202" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C202">
-        <v>8</v>
-      </c>
-      <c r="D202">
-        <v>40</v>
-      </c>
-      <c r="E202" t="s">
-        <v>146</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="G202" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="K202" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L202" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16">
-      <c r="F203" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G203" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16">
-      <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-    </row>
-    <row r="205" spans="1:16">
-      <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
-    </row>
-    <row r="206" spans="1:16">
-      <c r="A206" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
-      <c r="I206" s="5"/>
-    </row>
-    <row r="207" spans="1:16">
-      <c r="A207" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="F207" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16">
-      <c r="A208" t="s">
-        <v>394</v>
-      </c>
-      <c r="B208" t="s">
-        <v>117</v>
-      </c>
-      <c r="C208">
-        <v>15</v>
-      </c>
-      <c r="D208">
-        <v>48</v>
-      </c>
-      <c r="E208" t="s">
-        <v>146</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>395</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C209">
-        <v>8</v>
-      </c>
-      <c r="D209">
-        <v>40</v>
-      </c>
-      <c r="E209" t="s">
-        <v>146</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G209" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>396</v>
-      </c>
-      <c r="B210" t="s">
-        <v>117</v>
-      </c>
-      <c r="C210">
-        <v>15</v>
-      </c>
-      <c r="D210">
-        <v>48</v>
-      </c>
-      <c r="E210" t="s">
-        <v>146</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G210" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="B211" t="s">
-        <v>117</v>
-      </c>
-      <c r="C211">
-        <v>15</v>
-      </c>
-      <c r="D211">
-        <v>48</v>
-      </c>
-      <c r="E211" t="s">
-        <v>146</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G211" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="B213" t="s">
-        <v>117</v>
-      </c>
-      <c r="C213">
-        <v>15</v>
-      </c>
-      <c r="D213">
-        <v>48</v>
-      </c>
-      <c r="E213" t="s">
-        <v>146</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G213" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H213" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
       <c r="B214" t="s">
         <v>117</v>
       </c>
@@ -11209,16 +11493,16 @@
         <v>146</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
         <v>117</v>
       </c>
@@ -11232,120 +11516,274 @@
         <v>146</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H215" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="B217" t="s">
+        <v>117</v>
+      </c>
+      <c r="C217">
+        <v>15</v>
+      </c>
+      <c r="D217">
+        <v>48</v>
+      </c>
+      <c r="E217" t="s">
+        <v>146</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G217" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="B218" t="s">
+        <v>117</v>
+      </c>
+      <c r="C218">
+        <v>15</v>
+      </c>
+      <c r="D218">
+        <v>48</v>
+      </c>
+      <c r="E218" t="s">
+        <v>146</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G218" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="B219" t="s">
+        <v>117</v>
+      </c>
+      <c r="C219">
+        <v>15</v>
+      </c>
+      <c r="D219">
+        <v>48</v>
+      </c>
+      <c r="E219" t="s">
+        <v>146</v>
+      </c>
+      <c r="F219" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="B216" t="s">
+      <c r="G219" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="B220" t="s">
         <v>117</v>
       </c>
-      <c r="C216">
+      <c r="C220">
         <v>15</v>
       </c>
-      <c r="D216">
+      <c r="D220">
         <v>48</v>
       </c>
-      <c r="E216" t="s">
-        <v>146</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G216" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="E220" t="s">
+        <v>146</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G220" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" spans="1:8">
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="G224" s="4"/>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>406</v>
+      </c>
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="F223" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G223" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H223" s="4"/>
+      <c r="I223" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="F224" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G224" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="7:8">
-      <c r="G225" s="4"/>
+    <row r="225" spans="1:8">
+      <c r="F225" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G225" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H225" s="4"/>
     </row>
-    <row r="226" spans="7:8">
-      <c r="G226" s="4"/>
+    <row r="226" spans="1:8">
+      <c r="F226" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G226" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H226" s="4"/>
     </row>
-    <row r="227" spans="7:8">
-      <c r="G227" s="4"/>
+    <row r="227" spans="1:8">
+      <c r="F227" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G227" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H227" s="4"/>
     </row>
-    <row r="228" spans="7:8">
-      <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
-    </row>
-    <row r="229" spans="7:8">
-      <c r="G229" s="4"/>
+    <row r="228" spans="1:8">
+      <c r="F228" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G228" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="F229" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G229" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H229" s="4"/>
     </row>
-    <row r="230" spans="7:8">
-      <c r="G230" s="4"/>
+    <row r="230" spans="1:8">
+      <c r="F230" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G230" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="7:8">
+    <row r="231" spans="1:8">
+      <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="7:8">
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>419</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
-    <row r="235" spans="7:8">
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-    </row>
-    <row r="237" spans="7:8">
-      <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
-    </row>
-    <row r="238" spans="7:8">
-      <c r="G238" s="4"/>
-      <c r="H238" s="4"/>
-    </row>
-    <row r="239" spans="7:8">
-      <c r="G239" s="4"/>
-      <c r="H239" s="4"/>
+    <row r="233" spans="1:8">
+      <c r="B233" t="s">
+        <v>420</v>
+      </c>
+      <c r="C233" s="7">
+        <v>10</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>146</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="B234" t="s">
+        <v>426</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D234">
+        <v>40</v>
+      </c>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
+        <v>427</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D235">
+        <v>32</v>
+      </c>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
     </row>
     <row r="241" spans="7:8">
       <c r="G241" s="4"/>
@@ -11359,9 +11797,9 @@
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="7:8">
-      <c r="G244" s="4"/>
-      <c r="H244" s="4"/>
+    <row r="245" spans="7:8">
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
     </row>
     <row r="246" spans="7:8">
       <c r="G246" s="4"/>
@@ -11374,6 +11812,18 @@
     <row r="248" spans="7:8">
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
+    </row>
+    <row r="250" spans="7:8">
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+    </row>
+    <row r="251" spans="7:8">
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+    </row>
+    <row r="252" spans="7:8">
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="427">
   <si>
     <t>RCE sim</t>
   </si>
@@ -1291,12 +1291,6 @@
     <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5_tsadapt</t>
   </si>
   <si>
-    <t>RU1N</t>
-  </si>
-  <si>
-    <t>RU2N</t>
-  </si>
-  <si>
     <t>CTRLv0qrhSATqdz5000_nx3072_DRYdrc</t>
   </si>
   <si>
@@ -1304,6 +1298,9 @@
   </si>
   <si>
     <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_DRY</t>
+  </si>
+  <si>
+    <t>done150, running to 300</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1384,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2751">
+  <cellStyleXfs count="2765">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4175,7 +4186,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2751">
+  <cellStyles count="2765">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5551,6 +5562,13 @@
     <cellStyle name="Followed Hyperlink" xfId="2746" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2748" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2764" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6926,6 +6944,13 @@
     <cellStyle name="Hyperlink" xfId="2745" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2747" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2763" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7258,7 +7283,7 @@
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11746,17 +11771,21 @@
         <v>146</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
+        <v>423</v>
+      </c>
+      <c r="G233" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="234" spans="1:8">
       <c r="B234" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>423</v>
+        <v>150</v>
       </c>
       <c r="D234">
         <v>40</v>
@@ -11766,10 +11795,10 @@
     </row>
     <row r="235" spans="1:8">
       <c r="B235" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>424</v>
+        <v>150</v>
       </c>
       <c r="D235">
         <v>32</v>

--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="434">
   <si>
     <t>RCE sim</t>
   </si>
@@ -1291,6 +1291,12 @@
     <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5_tsadapt</t>
   </si>
   <si>
+    <t>RU1N</t>
+  </si>
+  <si>
+    <t>RU2N</t>
+  </si>
+  <si>
     <t>CTRLv0qrhSATqdz5000_nx3072_DRYdrc</t>
   </si>
   <si>
@@ -1301,6 +1307,21 @@
   </si>
   <si>
     <t>done150, running to 300</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh225K_usfc3_DRY</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh175K_usfc3_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_tap1hr</t>
+  </si>
+  <si>
+    <t>HOPRU2N</t>
+  </si>
+  <si>
+    <t>hourly output</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1405,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2765">
+  <cellStyleXfs count="2789">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4186,7 +4231,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2765">
+  <cellStyles count="2789">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5569,6 +5614,18 @@
     <cellStyle name="Followed Hyperlink" xfId="2760" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2762" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2788" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6951,6 +7008,18 @@
     <cellStyle name="Hyperlink" xfId="2759" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2761" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2787" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7282,8 +7351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H234" sqref="H234"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11759,60 +11828,95 @@
     </row>
     <row r="233" spans="1:8">
       <c r="B233" t="s">
-        <v>420</v>
-      </c>
-      <c r="C233" s="7">
-        <v>10</v>
+        <v>426</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D233">
         <v>40</v>
-      </c>
-      <c r="E233" t="s">
-        <v>146</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G233" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="B234" t="s">
+        <v>430</v>
+      </c>
+      <c r="C234" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D234">
-        <v>40</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8">
       <c r="B235" t="s">
+        <v>420</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D235">
+        <v>40</v>
+      </c>
+      <c r="E235" t="s">
+        <v>146</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C235" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D235">
-        <v>32</v>
-      </c>
-      <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
+      <c r="G235" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="236" spans="1:8">
+      <c r="B236" t="s">
+        <v>429</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>427</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D237">
+        <v>32</v>
+      </c>
     </row>
     <row r="239" spans="1:8">
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="B240" t="s">
+        <v>135</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D240">
+        <v>40</v>
+      </c>
+      <c r="E240" t="s">
+        <v>146</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="241" spans="7:8">
       <c r="G241" s="4"/>

--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="24460" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Final set" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="455">
   <si>
     <t>RCE sim</t>
   </si>
@@ -1291,15 +1291,6 @@
     <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5_tsadapt</t>
   </si>
   <si>
-    <t>RU1N</t>
-  </si>
-  <si>
-    <t>RU2N</t>
-  </si>
-  <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_DRYdrc</t>
-  </si>
-  <si>
     <t>RCE_nx48_SST300.00K_Tthresh150K_usfc3_DRY</t>
   </si>
   <si>
@@ -1318,17 +1309,89 @@
     <t>CTRLv0qrhSATqdz5000_nx3072_tap1hr</t>
   </si>
   <si>
-    <t>HOPRU2N</t>
-  </si>
-  <si>
     <t>hourly output</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_DRYdrc_300day</t>
+  </si>
+  <si>
+    <t>test DRY run -- base state manually adjusted to make CM1 work</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh375_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh6000_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fdiv4_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fx4_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh750_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh3000_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fdiv2_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fx2_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150.00K_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175.00K_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh225.00K_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250.00K_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175.00K_DRY_nz32</t>
+  </si>
+  <si>
+    <t>domain size</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx1536_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx768_DRY</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx384_DRY</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>RCE_test (nx=ny=48, no initial condition)</t>
+  </si>
+  <si>
+    <t>3HOPRU1N</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx384_fx8_10day</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx384_dx64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1387,6 +1450,21 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1405,7 +1483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2789">
+  <cellStyleXfs count="2929">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4195,8 +4273,148 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4227,11 +4445,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2789">
+  <cellStyles count="2929">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5626,6 +5846,76 @@
     <cellStyle name="Followed Hyperlink" xfId="2784" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2786" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2928" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7020,6 +7310,76 @@
     <cellStyle name="Hyperlink" xfId="2783" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2785" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2927" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7349,10 +7709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V252"/>
+  <dimension ref="A1:V264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H241" sqref="H241"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7381,13 +7741,13 @@
       <c r="I2" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -7695,146 +8055,135 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
+    <row r="17" spans="1:17">
+      <c r="F17" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>117</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>160</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="F19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="2">
-        <v>80</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" t="s">
-        <v>157</v>
-      </c>
       <c r="J19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:17">
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="G20" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="F22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>20</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
         <v>155</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" t="s">
-        <v>146</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="L22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" t="s">
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>117</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>15</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G23" s="2">
-        <v>40</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="F24" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G24" s="2">
         <v>40</v>
@@ -7842,10 +8191,10 @@
       <c r="H24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I24" t="s">
-        <v>146</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="I24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>150</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -7854,7 +8203,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="2">
         <v>40</v>
@@ -7863,62 +8212,62 @@
         <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
-      </c>
-      <c r="J25" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O25" t="s">
-        <v>261</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>302</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="F26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G26" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" t="s">
+        <v>261</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="F27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="2">
-        <v>40</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:17">
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2">
         <v>40</v>
@@ -7927,7 +8276,7 @@
         <v>146</v>
       </c>
       <c r="I28" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>150</v>
@@ -7938,7 +8287,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="F29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="2">
         <v>40</v>
@@ -7947,53 +8296,53 @@
         <v>146</v>
       </c>
       <c r="I29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="F30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="2">
+        <v>40</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
+      <c r="J30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>15</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>48</v>
       </c>
-      <c r="E31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G31" s="2">
-        <v>40</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="F32" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="G32" s="2">
         <v>40</v>
@@ -8001,37 +8350,19 @@
       <c r="H32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I32" t="s">
-        <v>146</v>
+      <c r="I32" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>302</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="F33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="2">
         <v>40</v>
@@ -8046,55 +8377,73 @@
         <v>150</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P33" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="P33" s="5" t="s">
         <v>150</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="F34" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="G34" s="2">
+        <v>40</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="F35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="2">
-        <v>40</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" t="s">
-        <v>162</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="2">
         <v>40</v>
@@ -8103,7 +8452,7 @@
         <v>146</v>
       </c>
       <c r="I36" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>150</v>
@@ -8114,7 +8463,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="F37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="2">
         <v>40</v>
@@ -8133,43 +8482,46 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="J38" s="5"/>
+      <c r="F38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="2">
+        <v>40</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" t="s">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
         <v>226</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>15</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>48</v>
       </c>
-      <c r="E39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="G39" s="2">
-        <v>40</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="F40" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="G40" s="2">
         <v>40</v>
@@ -8186,7 +8538,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="F41" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G41" s="2">
         <v>40</v>
@@ -8203,29 +8555,29 @@
     </row>
     <row r="42" spans="1:17">
       <c r="F42" s="2" t="s">
-        <v>54</v>
+        <v>227</v>
+      </c>
+      <c r="G42" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="F43" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G43" s="2">
-        <v>40</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="F44" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G44" s="2">
         <v>40</v>
@@ -8241,8 +8593,8 @@
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="F45" s="4" t="s">
-        <v>232</v>
+      <c r="F45" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="G45" s="2">
         <v>40</v>
@@ -8254,60 +8606,60 @@
         <v>150</v>
       </c>
       <c r="K45" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="F46" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M45" s="2" t="s">
+      <c r="L46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N46" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O46" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="F46" s="4"/>
-      <c r="J46" s="5"/>
-    </row>
     <row r="47" spans="1:17">
-      <c r="A47" t="s">
+      <c r="F47" s="4"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
         <v>233</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>117</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>15</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>48</v>
       </c>
-      <c r="E47" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="G47" s="2">
-        <v>40</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="F48" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="G48" s="2">
         <v>40</v>
@@ -8324,7 +8676,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="F49" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G49" s="2">
         <v>40</v>
@@ -8341,7 +8693,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="F50" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G50" s="2">
         <v>40</v>
@@ -8353,18 +8705,12 @@
         <v>150</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>307</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="F51" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G51" s="2">
         <v>40</v>
@@ -8376,12 +8722,18 @@
         <v>150</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>146</v>
+        <v>271</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="F52" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G52" s="2">
         <v>40</v>
@@ -8398,7 +8750,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="F53" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G53" s="2">
         <v>40</v>
@@ -8410,56 +8762,59 @@
         <v>150</v>
       </c>
       <c r="K53" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="F54" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M53" s="2" t="s">
+      <c r="L54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="P53" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q53" s="2" t="s">
+      <c r="P54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q54" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55" t="s">
+    <row r="56" spans="1:17">
+      <c r="A56" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>15</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>48</v>
       </c>
-      <c r="E55" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G55" s="2">
-        <v>40</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="F56" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G56" s="2">
         <v>40</v>
@@ -8467,13 +8822,13 @@
       <c r="H56" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="F57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G57" s="2">
         <v>40</v>
@@ -8487,7 +8842,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="F58" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G58" s="2">
         <v>40</v>
@@ -8496,12 +8851,12 @@
         <v>146</v>
       </c>
       <c r="I58" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="F59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G59" s="2">
         <v>40</v>
@@ -8510,12 +8865,12 @@
         <v>146</v>
       </c>
       <c r="I59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="F60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" s="2">
         <v>40</v>
@@ -8524,12 +8879,12 @@
         <v>146</v>
       </c>
       <c r="I60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="F61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" s="2">
         <v>40</v>
@@ -8538,12 +8893,12 @@
         <v>146</v>
       </c>
       <c r="I61" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="F62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="2">
         <v>40</v>
@@ -8557,7 +8912,7 @@
     </row>
     <row r="63" spans="1:17">
       <c r="F63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G63" s="2">
         <v>40</v>
@@ -8566,41 +8921,41 @@
         <v>146</v>
       </c>
       <c r="I63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="F64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" t="s">
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
         <v>40</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>117</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>15</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>48</v>
       </c>
-      <c r="E65" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G65" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="F66" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G66" s="2">
         <v>40</v>
@@ -8608,13 +8963,13 @@
       <c r="H66" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="F67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G67" s="2">
         <v>40</v>
@@ -8623,12 +8978,12 @@
         <v>146</v>
       </c>
       <c r="I67" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="F68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G68" s="2">
         <v>40</v>
@@ -8637,12 +8992,12 @@
         <v>146</v>
       </c>
       <c r="I68" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="F69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G69" s="2">
         <v>40</v>
@@ -8656,7 +9011,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="F70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G70" s="2">
         <v>40</v>
@@ -8670,7 +9025,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="F71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" s="2">
         <v>40</v>
@@ -8684,7 +9039,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="F72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G72" s="2">
         <v>40</v>
@@ -8693,47 +9048,41 @@
         <v>146</v>
       </c>
       <c r="I72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="F73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" t="s">
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
         <v>41</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>117</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>15</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>48</v>
       </c>
-      <c r="E74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G74" s="2">
-        <v>40</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="F75" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="G75" s="2">
         <v>40</v>
@@ -8741,31 +9090,19 @@
       <c r="H75" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I75" t="s">
-        <v>168</v>
-      </c>
-      <c r="J75" s="5" t="s">
+      <c r="I75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J75" s="6" t="s">
         <v>150</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="F76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G76" s="2">
         <v>40</v>
@@ -8774,52 +9111,64 @@
         <v>146</v>
       </c>
       <c r="I76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>146</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="F77" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
+      </c>
+      <c r="G77" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
+        <v>169</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="F78" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I78" t="s">
-        <v>146</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="F79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G79" s="2">
         <v>40</v>
@@ -8839,7 +9188,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="F80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G80" s="2">
         <v>40</v>
@@ -8848,71 +9197,41 @@
         <v>146</v>
       </c>
       <c r="I80" t="s">
+        <v>146</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="F81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I81" t="s">
         <v>170</v>
       </c>
-      <c r="J80" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
-      <c r="A82" t="s">
+      <c r="J81" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" t="s">
         <v>42</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>122</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>8</v>
-      </c>
-      <c r="D82">
-        <v>40</v>
-      </c>
-      <c r="E82" t="s">
-        <v>146</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P82" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="B83" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83">
-        <v>11</v>
       </c>
       <c r="D83">
         <v>40</v>
@@ -8921,7 +9240,7 @@
         <v>146</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G83" s="2">
         <v>40</v>
@@ -8930,7 +9249,7 @@
         <v>146</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>150</v>
@@ -8948,7 +9267,7 @@
         <v>176</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>150</v>
@@ -8959,42 +9278,63 @@
     </row>
     <row r="84" spans="1:19">
       <c r="B84" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>150</v>
+        <v>123</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="E84" t="s">
+        <v>146</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I84" s="2"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="G84" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="85" spans="1:19">
       <c r="B85" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C85" s="7">
-        <v>11</v>
-      </c>
-      <c r="D85">
-        <v>40</v>
-      </c>
-      <c r="E85" t="s">
-        <v>146</v>
+        <v>402</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>306</v>
+        <v>404</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>150</v>
@@ -9006,16 +9346,24 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="2"/>
     </row>
     <row r="86" spans="1:19">
       <c r="B86" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>150</v>
+        <v>305</v>
+      </c>
+      <c r="C86" s="7">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>40</v>
+      </c>
+      <c r="E86" t="s">
+        <v>146</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>150</v>
@@ -9030,39 +9378,28 @@
     </row>
     <row r="87" spans="1:19">
       <c r="B87" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87">
-        <v>13</v>
-      </c>
-      <c r="D87">
-        <v>40</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>146</v>
+        <v>403</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
     </row>
     <row r="88" spans="1:19">
       <c r="B88" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C88">
         <v>13</v>
@@ -9070,20 +9407,20 @@
       <c r="D88">
         <v>40</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G88" s="2">
         <v>40</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>146</v>
+      <c r="H88" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>150</v>
@@ -9094,68 +9431,59 @@
     </row>
     <row r="89" spans="1:19">
       <c r="B89" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
         <v>146</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+      <c r="G89" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:19">
       <c r="B90" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E90" t="s">
         <v>146</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G90" s="2">
-        <v>40</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:19">
       <c r="B91" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91">
         <v>40</v>
@@ -9164,116 +9492,104 @@
         <v>146</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G91" s="2">
         <v>40</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J91" s="5"/>
+      <c r="H91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="K91" s="2" t="s">
-        <v>146</v>
+        <v>267</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:19">
       <c r="B92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="E92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="K92" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="B93" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>17.5</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>48</v>
       </c>
-      <c r="E92" t="s">
-        <v>146</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="E93" t="s">
+        <v>146</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G93" s="2">
         <v>48</v>
       </c>
-      <c r="H92" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M92" t="s">
+      <c r="H93" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M93" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
-      <c r="A94" t="s">
+    <row r="95" spans="1:19">
+      <c r="A95" t="s">
         <v>43</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>8</v>
-      </c>
-      <c r="D94">
-        <v>40</v>
-      </c>
-      <c r="E94" t="s">
-        <v>146</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" s="2">
-        <v>40</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="O94" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="R94" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="S94" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
-      <c r="B95" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95">
-        <v>12</v>
       </c>
       <c r="D95">
         <v>40</v>
@@ -9282,7 +9598,7 @@
         <v>146</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G95" s="2">
         <v>40</v>
@@ -9291,76 +9607,100 @@
         <v>146</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>146</v>
+        <v>271</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:19">
       <c r="B96" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E96" t="s">
         <v>146</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
+      </c>
+      <c r="G96" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C97">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97">
         <v>48</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" t="s">
         <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G97" s="2">
-        <v>48</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D98">
         <v>48</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G98" s="2">
         <v>48</v>
@@ -9368,96 +9708,60 @@
       <c r="H98" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="J98" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
-      <c r="A100" t="s">
+      <c r="I98" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="B99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>48</v>
+      </c>
+      <c r="E99" t="s">
+        <v>146</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G99" s="2">
+        <v>48</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>13</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>40</v>
       </c>
-      <c r="E100" t="s">
-        <v>146</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="E101" t="s">
+        <v>146</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G100" s="2">
-        <v>40</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="P100" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q100" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="R100" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="S100" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="T100" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="U100" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="V100" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
-      <c r="B101" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C101">
-        <v>14</v>
-      </c>
-      <c r="D101">
-        <v>48</v>
-      </c>
-      <c r="E101" t="s">
-        <v>146</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G101" s="2">
         <v>40</v>
@@ -9466,7 +9770,7 @@
         <v>146</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>150</v>
@@ -9478,30 +9782,51 @@
         <v>146</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O101" t="s">
-        <v>285</v>
+        <v>176</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="S101" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="U101" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="B102" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102">
         <v>14</v>
       </c>
       <c r="D102">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
         <v>146</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G102" s="2">
         <v>40</v>
@@ -9510,79 +9835,91 @@
         <v>146</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>146</v>
+        <v>267</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O102" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="B103" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E103" t="s">
         <v>146</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
+      </c>
+      <c r="G103" s="2">
+        <v>40</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="B104" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104">
         <v>15</v>
       </c>
       <c r="D104">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
         <v>146</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G104" s="2">
-        <v>40</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="B105" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C105">
         <v>15</v>
       </c>
       <c r="D105">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E105" t="s">
         <v>146</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G105" s="2">
         <v>40</v>
@@ -9591,7 +9928,7 @@
         <v>146</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>150</v>
@@ -9602,19 +9939,19 @@
     </row>
     <row r="106" spans="1:22">
       <c r="B106" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C106">
         <v>15</v>
       </c>
       <c r="D106">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E106" t="s">
         <v>146</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G106" s="2">
         <v>40</v>
@@ -9623,71 +9960,71 @@
         <v>146</v>
       </c>
       <c r="I106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="B107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>40</v>
+      </c>
+      <c r="E107" t="s">
+        <v>146</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G107" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J106" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22">
-      <c r="B107" s="1"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="2"/>
+      <c r="J107" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" t="s">
-        <v>309</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108">
-        <v>13</v>
-      </c>
-      <c r="D108">
-        <v>40</v>
-      </c>
-      <c r="E108" t="s">
-        <v>146</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G108" s="2">
-        <v>40</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="B108" s="1"/>
       <c r="I108" s="2"/>
       <c r="J108" s="5"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="1:22">
+      <c r="A109" t="s">
+        <v>309</v>
+      </c>
       <c r="B109" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C109">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E109" t="s">
         <v>146</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G109" s="2">
         <v>40</v>
@@ -9701,22 +10038,25 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="2"/>
     </row>
     <row r="110" spans="1:22">
       <c r="B110" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C110">
         <v>14</v>
       </c>
       <c r="D110">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
         <v>146</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G110" s="2">
         <v>40</v>
@@ -9727,22 +10067,25 @@
       <c r="I110" s="2"/>
       <c r="J110" s="5"/>
       <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:22">
       <c r="B111" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E111" t="s">
         <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G111" s="2">
         <v>40</v>
@@ -9750,22 +10093,25 @@
       <c r="H111" s="6" t="s">
         <v>150</v>
       </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:22">
       <c r="B112" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112">
         <v>15</v>
       </c>
       <c r="D112">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
         <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G112" s="2">
         <v>40</v>
@@ -9773,25 +10119,22 @@
       <c r="H112" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I112" s="2"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:14">
       <c r="B113" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C113">
         <v>15</v>
       </c>
       <c r="D113">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E113" t="s">
         <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G113" s="2">
         <v>40</v>
@@ -9805,19 +10148,19 @@
     </row>
     <row r="114" spans="1:14">
       <c r="B114" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114">
         <v>15</v>
       </c>
       <c r="D114">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E114" t="s">
         <v>146</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G114" s="2">
         <v>40</v>
@@ -9830,19 +10173,33 @@
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:14">
-      <c r="B115" s="1"/>
-      <c r="H115" s="6"/>
+      <c r="B115" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+      <c r="D115">
+        <v>40</v>
+      </c>
+      <c r="E115" t="s">
+        <v>146</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G115" s="2">
+        <v>40</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="I115" s="2"/>
       <c r="J115" s="5"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="B116" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="B116" s="1"/>
       <c r="H116" s="6"/>
       <c r="I116" s="2"/>
       <c r="J116" s="5"/>
@@ -9850,7 +10207,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="B117" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>150</v>
@@ -9862,7 +10219,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="B118" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>150</v>
@@ -9872,44 +10229,24 @@
       <c r="J118" s="5"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="120" spans="1:14">
-      <c r="A120" t="s">
+    <row r="119" spans="1:14">
+      <c r="B119" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H119" s="6"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="2"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" t="s">
         <v>45</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C120">
-        <v>15</v>
-      </c>
-      <c r="D120">
-        <v>48</v>
-      </c>
-      <c r="E120" t="s">
-        <v>146</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G120" s="2">
-        <v>40</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="B121" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C121">
         <v>15</v>
@@ -9921,7 +10258,7 @@
         <v>146</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G121" s="2">
         <v>40</v>
@@ -9930,7 +10267,7 @@
         <v>146</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>150</v>
@@ -9941,7 +10278,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="B122" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C122">
         <v>15</v>
@@ -9953,15 +10290,30 @@
         <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>54</v>
+        <v>179</v>
+      </c>
+      <c r="G122" s="2">
+        <v>40</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="B123" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123">
         <v>48</v>
@@ -9970,33 +10322,24 @@
         <v>146</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G123" s="2">
-        <v>48</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="B124" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D124">
         <v>48</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" t="s">
         <v>146</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G124" s="2">
         <v>48</v>
@@ -10004,63 +10347,69 @@
       <c r="H124" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I124" s="5" t="s">
+      <c r="J124" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="B125" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125">
+        <v>13</v>
+      </c>
+      <c r="D125">
+        <v>48</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" s="2">
+        <v>48</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I125" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J124" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K124" t="s">
+      <c r="J125" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K125" t="s">
         <v>277</v>
       </c>
-      <c r="L124" t="s">
-        <v>146</v>
-      </c>
-      <c r="M124" t="s">
+      <c r="L125" t="s">
+        <v>146</v>
+      </c>
+      <c r="M125" t="s">
         <v>287</v>
       </c>
-      <c r="N124" t="s">
+      <c r="N125" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
-      <c r="A126" t="s">
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
         <v>46</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>117</v>
       </c>
-      <c r="C126">
+      <c r="C127">
         <v>15</v>
       </c>
-      <c r="D126">
+      <c r="D127">
         <v>40</v>
       </c>
-      <c r="E126" t="s">
-        <v>146</v>
-      </c>
-      <c r="F126" s="2" t="s">
+      <c r="E127" t="s">
+        <v>146</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G126" s="2">
-        <v>40</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="F127" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G127" s="2">
         <v>40</v>
@@ -10068,28 +10417,19 @@
       <c r="H127" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I127" t="s">
-        <v>174</v>
+      <c r="I127" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="F128" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G128" s="2">
         <v>40</v>
@@ -10098,52 +10438,52 @@
         <v>146</v>
       </c>
       <c r="I128" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>146</v>
+        <v>288</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="F129" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
+      </c>
+      <c r="G129" s="2">
+        <v>40</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I129" t="s">
+        <v>146</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="F130" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G130" s="2">
-        <v>40</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I130" t="s">
-        <v>175</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="F131" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G131" s="2">
         <v>40</v>
@@ -10152,27 +10492,27 @@
         <v>146</v>
       </c>
       <c r="I131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:15">
-      <c r="F132" s="3" t="s">
-        <v>116</v>
+      <c r="F132" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G132" s="2">
         <v>40</v>
@@ -10181,312 +10521,327 @@
         <v>146</v>
       </c>
       <c r="I132" t="s">
+        <v>176</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="F133" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G133" s="2">
+        <v>40</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I133" t="s">
         <v>177</v>
       </c>
-      <c r="J132" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J133" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K133" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="O132" t="s">
+      <c r="O133" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
         <v>186</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <v>16.899999999999999</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <v>48</v>
       </c>
-      <c r="E134" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F134" s="2" t="s">
+      <c r="E135" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G135" s="2">
         <v>48</v>
       </c>
-      <c r="J134" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="B135" s="1"/>
-      <c r="C135">
-        <f>C134/$C$136</f>
+      <c r="J135" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="B136" s="1"/>
+      <c r="C136">
+        <f>C135/$C$137</f>
         <v>1.2071428571428571</v>
       </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="2" t="s">
+      <c r="E136" s="7"/>
+      <c r="F136" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J135" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" t="s">
+      <c r="J136" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" t="s">
         <v>184</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <v>14</v>
       </c>
-      <c r="D136">
+      <c r="D137">
         <v>48</v>
       </c>
-      <c r="E136" t="s">
-        <v>146</v>
-      </c>
-      <c r="F136" s="2" t="s">
+      <c r="E137" t="s">
+        <v>146</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
-      <c r="B137" s="1"/>
-      <c r="C137">
-        <f>C136/$C$136</f>
+    <row r="138" spans="1:15">
+      <c r="B138" s="1"/>
+      <c r="C138">
+        <f>C137/$C$137</f>
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
-      <c r="A138" t="s">
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
         <v>184</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <v>11.4</v>
       </c>
-      <c r="D138">
+      <c r="D139">
         <v>48</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F138" s="2" t="s">
+      <c r="E139" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G139" s="2">
         <v>40</v>
       </c>
-      <c r="J138" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K138" t="s">
+      <c r="J139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K139" t="s">
         <v>295</v>
       </c>
-      <c r="L138" t="s">
-        <v>146</v>
-      </c>
-      <c r="M138" t="s">
+      <c r="L139" t="s">
+        <v>146</v>
+      </c>
+      <c r="M139" t="s">
         <v>296</v>
       </c>
-      <c r="N138" t="s">
+      <c r="N139" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
-      <c r="B139" s="1"/>
-      <c r="C139">
-        <f>C138/$C$136</f>
+    <row r="140" spans="1:15">
+      <c r="B140" s="1"/>
+      <c r="C140">
+        <f>C139/$C$137</f>
         <v>0.81428571428571428</v>
       </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="2" t="s">
+      <c r="E140" s="7"/>
+      <c r="F140" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J139" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" t="s">
+      <c r="J140" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
         <v>184</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>8.4</v>
       </c>
-      <c r="D140">
+      <c r="D141">
         <v>48</v>
       </c>
-      <c r="E140" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F140" s="2" t="s">
+      <c r="E141" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G141" s="2">
         <v>32</v>
       </c>
-      <c r="J140" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K140" t="s">
+      <c r="J141" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K141" t="s">
         <v>299</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L141" t="s">
         <v>298</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M141" t="s">
         <v>300</v>
       </c>
-      <c r="N140" t="s">
+      <c r="N141" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
-      <c r="B141" s="1"/>
-      <c r="C141">
-        <f>C140/$C$136</f>
+    <row r="142" spans="1:15">
+      <c r="B142" s="1"/>
+      <c r="C142">
+        <f>C141/$C$137</f>
         <v>0.6</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="2" t="s">
+      <c r="E142" s="7"/>
+      <c r="F142" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J141" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" t="s">
+      <c r="J142" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" t="s">
         <v>205</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <v>6.2</v>
       </c>
-      <c r="D142">
+      <c r="D143">
         <v>40</v>
       </c>
-      <c r="E142" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F142" s="2" t="s">
+      <c r="E143" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G143" s="2">
         <v>32</v>
       </c>
-      <c r="J142" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="B143" s="1"/>
-      <c r="C143">
-        <f>C142/$C$136</f>
+      <c r="J143" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="B144" s="1"/>
+      <c r="C144">
+        <f>C143/$C$137</f>
         <v>0.44285714285714289</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="2" t="s">
+      <c r="E144" s="7"/>
+      <c r="F144" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J143" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" t="s">
+      <c r="J144" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
         <v>184</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C144">
+      <c r="C145">
         <v>3.6</v>
       </c>
-      <c r="D144">
+      <c r="D145">
         <v>40</v>
       </c>
-      <c r="E144" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F144" s="2" t="s">
+      <c r="E145" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G145" s="2">
         <v>24</v>
       </c>
-      <c r="J144" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="B145" s="1"/>
-      <c r="C145">
-        <f>C144/$C$136</f>
+      <c r="J145" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="B146" s="1"/>
+      <c r="C146">
+        <f>C145/$C$137</f>
         <v>0.25714285714285717</v>
       </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="2" t="s">
+      <c r="E146" s="7"/>
+      <c r="F146" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J145" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" t="s">
+      <c r="J146" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
         <v>184</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C146">
+      <c r="C147">
         <v>2.6</v>
       </c>
-      <c r="D146">
+      <c r="D147">
         <v>40</v>
       </c>
-      <c r="E146" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F146" s="2" t="s">
+      <c r="E147" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G147" s="2">
         <v>24</v>
-      </c>
-      <c r="J146" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="B147" s="1"/>
-      <c r="C147">
-        <f>C146/$C$136</f>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="J147" s="5" t="s">
         <v>150</v>
@@ -10494,40 +10849,37 @@
     </row>
     <row r="148" spans="1:10">
       <c r="B148" s="1"/>
-      <c r="E148" s="5"/>
+      <c r="C148">
+        <f>C147/$C$137</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" t="s">
-        <v>192</v>
-      </c>
-      <c r="E149" s="7"/>
+      <c r="B149" s="1"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>193</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D150">
-        <v>56</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>169</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C151">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D151">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>169</v>
@@ -10535,13 +10887,13 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C152">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D152">
         <v>48</v>
@@ -10552,30 +10904,30 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C153">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D153">
         <v>48</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C154">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D154">
         <v>48</v>
@@ -10586,13 +10938,13 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C155">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155">
         <v>48</v>
@@ -10603,13 +10955,13 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C156">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D156">
         <v>48</v>
@@ -10620,16 +10972,16 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D157">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>146</v>
@@ -10637,13 +10989,13 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D158">
         <v>40</v>
@@ -10654,13 +11006,13 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D159">
         <v>40</v>
@@ -10671,10 +11023,10 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -10688,187 +11040,193 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161">
         <v>3</v>
       </c>
       <c r="D161">
+        <v>40</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
         <v>24</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="B162" s="1"/>
-      <c r="E162" s="7"/>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" t="s">
+      <c r="E162" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="B163" s="1"/>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" t="s">
         <v>49</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C164">
+      <c r="C165">
         <v>21</v>
       </c>
-      <c r="D164">
+      <c r="D165">
         <v>48</v>
       </c>
-      <c r="E164" t="s">
-        <v>146</v>
-      </c>
-      <c r="F164" s="3" t="s">
+      <c r="E165" t="s">
+        <v>146</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G164" s="9" t="s">
+      <c r="G165" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H165" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="K164" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="F165" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="K165" s="5" t="s">
         <v>364</v>
       </c>
       <c r="L165" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="F166" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="L166" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="N165" s="3" t="s">
+      <c r="N166" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="O165" s="5" t="s">
+      <c r="O166" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
-      <c r="B166" s="1" t="s">
+    <row r="167" spans="1:15">
+      <c r="B167" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C166">
+      <c r="C167">
         <v>8</v>
       </c>
-      <c r="D166">
+      <c r="D167">
         <v>40</v>
       </c>
-      <c r="E166" t="s">
-        <v>146</v>
-      </c>
-      <c r="F166" s="3" t="s">
+      <c r="E167" t="s">
+        <v>146</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G166" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H166" s="3" t="s">
+      <c r="G167" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H167" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I167" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
-      <c r="F167" s="3" t="s">
+    <row r="168" spans="1:15">
+      <c r="F168" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G167" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H167" s="4" t="s">
+      <c r="G168" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H168" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-    </row>
     <row r="169" spans="1:15">
-      <c r="B169" s="1" t="s">
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="B170" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C169">
+      <c r="C170">
         <v>21</v>
       </c>
-      <c r="D169">
+      <c r="D170">
         <v>48</v>
       </c>
-      <c r="E169" t="s">
-        <v>146</v>
-      </c>
-      <c r="F169" s="3" t="s">
+      <c r="E170" t="s">
+        <v>146</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G169" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H169" s="4" t="s">
+      <c r="G170" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H170" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
-      <c r="F170" s="3" t="s">
+    <row r="171" spans="1:15">
+      <c r="F171" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G170" s="6" t="s">
+      <c r="G171" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H170" s="2" t="s">
+      <c r="H171" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K170" s="5" t="s">
+      <c r="K171" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="L170" s="3" t="s">
+      <c r="L171" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
-      <c r="B171" s="1" t="s">
+    <row r="172" spans="1:15">
+      <c r="B172" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C171">
+      <c r="C172">
         <v>8</v>
       </c>
-      <c r="D171">
+      <c r="D172">
         <v>40</v>
       </c>
-      <c r="E171" t="s">
-        <v>146</v>
-      </c>
-      <c r="F171" s="3" t="s">
+      <c r="E172" t="s">
+        <v>146</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
-      <c r="F172" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="G172" s="9" t="s">
         <v>150</v>
@@ -10878,114 +11236,114 @@
       </c>
     </row>
     <row r="173" spans="1:15">
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
+      <c r="F173" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="174" spans="1:15">
-      <c r="B174" s="1" t="s">
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="B175" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C174">
+      <c r="C175">
         <v>21</v>
       </c>
-      <c r="D174">
+      <c r="D175">
         <v>48</v>
       </c>
-      <c r="E174" t="s">
-        <v>146</v>
-      </c>
-      <c r="F174" s="3" t="s">
+      <c r="E175" t="s">
+        <v>146</v>
+      </c>
+      <c r="F175" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G174" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H174" s="3" t="s">
+      <c r="G175" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H175" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
-      <c r="F175" s="3" t="s">
+    <row r="176" spans="1:15">
+      <c r="F176" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G175" s="9" t="s">
+      <c r="G176" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H176" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="K175" s="5" t="s">
+      <c r="K176" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="L175" s="3" t="s">
+      <c r="L176" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
-      <c r="B176" s="1" t="s">
+    <row r="177" spans="2:12">
+      <c r="B177" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C176">
+      <c r="C177">
         <v>8</v>
       </c>
-      <c r="D176">
+      <c r="D177">
         <v>40</v>
       </c>
-      <c r="E176" t="s">
-        <v>146</v>
-      </c>
-      <c r="F176" s="3" t="s">
+      <c r="E177" t="s">
+        <v>146</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G176" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H176" s="3" t="s">
+      <c r="G177" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H177" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="177" spans="2:12">
-      <c r="F177" s="3" t="s">
+    <row r="178" spans="2:12">
+      <c r="F178" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G177" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H177" s="4" t="s">
+      <c r="G178" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H178" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L177" s="3"/>
-    </row>
-    <row r="178" spans="2:12">
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
+      <c r="L178" s="3"/>
     </row>
     <row r="179" spans="2:12">
-      <c r="B179" s="1" t="s">
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="2:12">
+      <c r="B180" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C179">
+      <c r="C180">
         <v>21</v>
       </c>
-      <c r="D179">
+      <c r="D180">
         <v>48</v>
       </c>
-      <c r="E179" t="s">
-        <v>146</v>
-      </c>
-      <c r="F179" s="3" t="s">
+      <c r="E180" t="s">
+        <v>146</v>
+      </c>
+      <c r="F180" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="G179" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="180" spans="2:12">
-      <c r="F180" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>150</v>
@@ -10995,33 +11353,33 @@
       </c>
     </row>
     <row r="181" spans="2:12">
-      <c r="B181" s="1" t="s">
+      <c r="F181" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="B182" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C181">
+      <c r="C182">
         <v>8</v>
       </c>
-      <c r="D181">
+      <c r="D182">
         <v>40</v>
       </c>
-      <c r="E181" t="s">
-        <v>146</v>
-      </c>
-      <c r="F181" s="3" t="s">
+      <c r="E182" t="s">
+        <v>146</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G181" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="182" spans="2:12">
-      <c r="F182" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G182" s="6" t="s">
+      <c r="G182" s="9" t="s">
         <v>150</v>
       </c>
       <c r="H182" s="4" t="s">
@@ -11029,71 +11387,71 @@
       </c>
     </row>
     <row r="183" spans="2:12">
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
+      <c r="F183" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="184" spans="2:12">
-      <c r="B184" s="1" t="s">
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="2:12">
+      <c r="B185" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C184">
+      <c r="C185">
         <v>21</v>
       </c>
-      <c r="D184">
+      <c r="D185">
         <v>48</v>
       </c>
-      <c r="E184" t="s">
-        <v>146</v>
-      </c>
-      <c r="F184" s="3" t="s">
+      <c r="E185" t="s">
+        <v>146</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G184" s="9" t="s">
+      <c r="G185" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H184" s="4" t="s">
+      <c r="H185" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="L184" s="3"/>
-    </row>
-    <row r="185" spans="2:12" ht="18">
-      <c r="F185" s="3" t="s">
+      <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="2:12" ht="18">
+      <c r="F186" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="G185" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H185" s="3" t="s">
+      <c r="G186" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H186" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L185" s="11"/>
-    </row>
-    <row r="186" spans="2:12">
-      <c r="B186" s="1" t="s">
+      <c r="L186" s="11"/>
+    </row>
+    <row r="187" spans="2:12">
+      <c r="B187" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C186">
+      <c r="C187">
         <v>8</v>
       </c>
-      <c r="D186">
+      <c r="D187">
         <v>40</v>
       </c>
-      <c r="E186" t="s">
-        <v>146</v>
-      </c>
-      <c r="F186" s="3" t="s">
+      <c r="E187" t="s">
+        <v>146</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="187" spans="2:12">
-      <c r="F187" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="G187" s="9" t="s">
         <v>150</v>
@@ -11103,491 +11461,476 @@
       </c>
     </row>
     <row r="188" spans="2:12">
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
+      <c r="F188" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="189" spans="2:12">
-      <c r="B189" s="1" t="s">
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="2:12">
+      <c r="B190" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C189">
+      <c r="C190">
         <v>21</v>
       </c>
-      <c r="D189">
+      <c r="D190">
         <v>48</v>
       </c>
-      <c r="E189" t="s">
-        <v>146</v>
-      </c>
-      <c r="F189" s="3" t="s">
+      <c r="E190" t="s">
+        <v>146</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G189" s="9" t="s">
+      <c r="G190" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H189" s="3" t="s">
+      <c r="H190" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K189" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L189" s="3" t="s">
+      <c r="K190" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L190" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="2:12">
-      <c r="F190" s="3" t="s">
+    <row r="191" spans="2:12">
+      <c r="F191" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G190" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H190" s="3" t="s">
+      <c r="G191" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H191" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="191" spans="2:12">
-      <c r="B191" s="1" t="s">
+    <row r="192" spans="2:12">
+      <c r="B192" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C191">
+      <c r="C192">
         <v>8</v>
       </c>
-      <c r="D191">
+      <c r="D192">
         <v>40</v>
       </c>
-      <c r="E191" t="s">
-        <v>146</v>
-      </c>
-      <c r="F191" s="3" t="s">
+      <c r="E192" t="s">
+        <v>146</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="G191" s="9" t="s">
+      <c r="G192" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="H192" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K191" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L191" s="3" t="s">
+      <c r="K192" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L192" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="192" spans="2:12">
-      <c r="F192" s="3" t="s">
+    <row r="193" spans="2:16">
+      <c r="F193" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G192" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H192" s="4" t="s">
+      <c r="G193" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H193" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="2:16">
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-    </row>
     <row r="194" spans="2:16">
-      <c r="B194" s="1" t="s">
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="2:16">
+      <c r="B195" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C194">
+      <c r="C195">
         <v>21</v>
       </c>
-      <c r="D194">
+      <c r="D195">
         <v>48</v>
       </c>
-      <c r="E194" t="s">
-        <v>146</v>
-      </c>
-      <c r="F194" s="4" t="s">
+      <c r="E195" t="s">
+        <v>146</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G194" s="9" t="s">
+      <c r="G195" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H194" s="3" t="s">
+      <c r="H195" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K194" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L194" s="4" t="s">
+      <c r="K195" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L195" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="195" spans="2:16">
-      <c r="F195" s="4" t="s">
+    <row r="196" spans="2:16">
+      <c r="F196" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G195" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H195" s="3" t="s">
+      <c r="G196" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H196" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="196" spans="2:16">
-      <c r="B196" s="1" t="s">
+    <row r="197" spans="2:16">
+      <c r="B197" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C196">
+      <c r="C197">
         <v>8</v>
       </c>
-      <c r="D196">
+      <c r="D197">
         <v>40</v>
       </c>
-      <c r="E196" t="s">
-        <v>146</v>
-      </c>
-      <c r="F196" s="4" t="s">
+      <c r="E197" t="s">
+        <v>146</v>
+      </c>
+      <c r="F197" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G196" s="9" t="s">
+      <c r="G197" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H196" s="3" t="s">
+      <c r="H197" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K196" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L196" s="4" t="s">
+      <c r="K197" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L197" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="197" spans="2:16">
-      <c r="F197" s="4" t="s">
+    <row r="198" spans="2:16">
+      <c r="F198" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G197" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H197" s="2" t="s">
+      <c r="G198" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H198" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="198" spans="2:16">
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-    </row>
     <row r="199" spans="2:16">
-      <c r="B199" s="1" t="s">
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="2:16">
+      <c r="B200" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C199">
+      <c r="C200">
         <v>21</v>
       </c>
-      <c r="D199">
+      <c r="D200">
         <v>48</v>
       </c>
-      <c r="E199" t="s">
-        <v>146</v>
-      </c>
-      <c r="F199" s="4" t="s">
+      <c r="E200" t="s">
+        <v>146</v>
+      </c>
+      <c r="F200" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G199" s="9" t="s">
+      <c r="G200" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H199" s="3" t="s">
+      <c r="H200" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I200" t="s">
         <v>323</v>
       </c>
-      <c r="K199" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L199" s="4" t="s">
+      <c r="K200" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L200" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="200" spans="2:16">
-      <c r="F200" s="4" t="s">
+    <row r="201" spans="2:16">
+      <c r="F201" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G200" s="9" t="s">
+      <c r="G201" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H200" s="3" t="s">
+      <c r="H201" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K200" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L200" s="4" t="s">
+      <c r="K201" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L201" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="201" spans="2:16">
-      <c r="B201" s="1" t="s">
+    <row r="202" spans="2:16">
+      <c r="B202" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C201">
+      <c r="C202">
         <v>8</v>
       </c>
-      <c r="D201">
+      <c r="D202">
         <v>40</v>
       </c>
-      <c r="E201" t="s">
-        <v>146</v>
-      </c>
-      <c r="F201" s="4" t="s">
+      <c r="E202" t="s">
+        <v>146</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G201" s="9" t="s">
+      <c r="G202" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H201" s="3" t="s">
+      <c r="H202" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I202" t="s">
         <v>324</v>
       </c>
-      <c r="K201" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L201" s="4" t="s">
+      <c r="K202" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L202" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M202" t="s">
         <v>371</v>
       </c>
-      <c r="O201" t="s">
+      <c r="O202" t="s">
         <v>363</v>
       </c>
-      <c r="P201" s="4" t="s">
+      <c r="P202" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="2:16">
-      <c r="F202" s="4" t="s">
+    <row r="203" spans="2:16">
+      <c r="F203" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G202" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H202" s="3" t="s">
+      <c r="G203" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H203" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K202" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L202" s="4" t="s">
+      <c r="K203" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L203" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M203" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="203" spans="2:16">
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="O203" s="7" t="s">
+    <row r="204" spans="2:16">
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="O204" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P203" s="4" t="s">
+      <c r="P204" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="204" spans="2:16">
-      <c r="B204" s="1" t="s">
+    <row r="205" spans="2:16">
+      <c r="B205" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C204">
+      <c r="C205">
         <v>21</v>
       </c>
-      <c r="D204">
+      <c r="D205">
         <v>48</v>
       </c>
-      <c r="E204" t="s">
-        <v>146</v>
-      </c>
-      <c r="F204" s="4" t="s">
+      <c r="E205" t="s">
+        <v>146</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="G204" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K204" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L204" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="205" spans="2:16">
-      <c r="F205" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="G205" s="9" t="s">
         <v>321</v>
       </c>
       <c r="H205" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L205" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16">
+      <c r="F206" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G206" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="K205" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L205" s="4" t="s">
+      <c r="H206" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L206" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="206" spans="2:16">
-      <c r="B206" s="1" t="s">
+    <row r="207" spans="2:16">
+      <c r="B207" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C206">
+      <c r="C207">
         <v>8</v>
       </c>
-      <c r="D206">
+      <c r="D207">
         <v>40</v>
       </c>
-      <c r="E206" t="s">
-        <v>146</v>
-      </c>
-      <c r="F206" s="4" t="s">
+      <c r="E207" t="s">
+        <v>146</v>
+      </c>
+      <c r="F207" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G206" s="10" t="s">
+      <c r="G207" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="H206" s="4" t="s">
+      <c r="H207" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K206" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L206" s="4" t="s">
+      <c r="K207" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L207" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="207" spans="2:16">
-      <c r="F207" s="4" t="s">
+    <row r="208" spans="2:16">
+      <c r="F208" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G207" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H207" s="4" t="s">
+      <c r="G208" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H208" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="208" spans="2:16">
-      <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:9">
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
-      <c r="I210" s="5"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="F211" s="12" t="s">
+      <c r="F212" s="12" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
-      <c r="A212" t="s">
-        <v>389</v>
-      </c>
-      <c r="B212" t="s">
-        <v>117</v>
-      </c>
-      <c r="C212">
-        <v>15</v>
-      </c>
-      <c r="D212">
-        <v>48</v>
-      </c>
-      <c r="E212" t="s">
-        <v>146</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>390</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>128</v>
+        <v>389</v>
+      </c>
+      <c r="B213" t="s">
+        <v>117</v>
       </c>
       <c r="C213">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D213">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E213" t="s">
         <v>146</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G213" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H213" s="4" t="s">
-        <v>395</v>
+        <v>54</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>391</v>
-      </c>
-      <c r="B214" t="s">
-        <v>117</v>
+        <v>390</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C214">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D214">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E214" t="s">
         <v>146</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G214" s="10" t="s">
         <v>150</v>
@@ -11597,6 +11940,9 @@
       </c>
     </row>
     <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>391</v>
+      </c>
       <c r="B215" t="s">
         <v>117</v>
       </c>
@@ -11610,7 +11956,7 @@
         <v>146</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G215" s="10" t="s">
         <v>150</v>
@@ -11620,32 +11966,32 @@
       </c>
     </row>
     <row r="216" spans="1:9">
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
+      <c r="B216" t="s">
+        <v>117</v>
+      </c>
+      <c r="C216">
+        <v>15</v>
+      </c>
+      <c r="D216">
+        <v>48</v>
+      </c>
+      <c r="E216" t="s">
+        <v>146</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G216" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="B217" t="s">
-        <v>117</v>
-      </c>
-      <c r="C217">
-        <v>15</v>
-      </c>
-      <c r="D217">
-        <v>48</v>
-      </c>
-      <c r="E217" t="s">
-        <v>146</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G217" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H217" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
     </row>
     <row r="218" spans="1:9">
       <c r="B218" t="s">
@@ -11661,7 +12007,7 @@
         <v>146</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G218" s="10" t="s">
         <v>150</v>
@@ -11684,7 +12030,7 @@
         <v>146</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G219" s="10" t="s">
         <v>150</v>
@@ -11707,7 +12053,7 @@
         <v>146</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G220" s="10" t="s">
         <v>150</v>
@@ -11717,118 +12063,122 @@
       </c>
     </row>
     <row r="221" spans="1:9">
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
+      <c r="B221" t="s">
+        <v>117</v>
+      </c>
+      <c r="C221">
+        <v>15</v>
+      </c>
+      <c r="D221">
+        <v>48</v>
+      </c>
+      <c r="E221" t="s">
+        <v>146</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G221" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" t="s">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
         <v>406</v>
       </c>
-      <c r="F222" s="4"/>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="F223" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G223" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H223" s="4"/>
-      <c r="I223" t="s">
-        <v>407</v>
-      </c>
+      <c r="F223" s="4"/>
     </row>
     <row r="224" spans="1:9">
       <c r="F224" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G224" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H224" s="4"/>
+      <c r="I224" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="F225" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G224" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H224" s="4"/>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="F225" s="4" t="s">
+      <c r="G225" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H225" s="4"/>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="F226" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G225" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H225" s="4"/>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="F226" s="4" t="s">
+      <c r="G226" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H226" s="4"/>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="F227" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G226" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H226" s="4"/>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="F227" s="4" t="s">
+      <c r="G227" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H227" s="4"/>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="F228" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G227" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H227" s="4"/>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="F228" s="4" t="s">
+      <c r="G228" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H228" s="4"/>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="F229" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G228" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H228" s="3"/>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="F229" s="4" t="s">
+      <c r="G229" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="F230" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G229" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H229" s="4"/>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="F230" s="4" t="s">
+      <c r="G230" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="F231" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G230" s="10" t="s">
+      <c r="G231" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="H230" s="4"/>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>419</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G232" s="4"/>
+    <row r="232" spans="1:12">
+      <c r="F232" s="4"/>
+      <c r="G232" s="10"/>
       <c r="H232" s="4"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:12">
       <c r="B233" t="s">
-        <v>426</v>
+        <v>135</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>150</v>
@@ -11836,127 +12186,307 @@
       <c r="D233">
         <v>40</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>430</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="G234" s="4"/>
+      <c r="E233" t="s">
+        <v>146</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="F234" s="4"/>
+      <c r="G234" s="10"/>
       <c r="H234" s="4"/>
     </row>
-    <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>420</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D235">
-        <v>40</v>
-      </c>
-      <c r="E235" t="s">
-        <v>146</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G235" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="B236" t="s">
-        <v>429</v>
+    <row r="235" spans="1:12">
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" s="15" t="s">
+        <v>419</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>423</v>
+        <v>119</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:12">
       <c r="B237" t="s">
+        <v>423</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D237">
+        <v>40</v>
+      </c>
+      <c r="E237" t="s">
+        <v>146</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="B238" t="s">
         <v>427</v>
       </c>
-      <c r="C237" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D237">
+      <c r="C238" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D238">
+        <v>40</v>
+      </c>
+      <c r="E238" t="s">
+        <v>146</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G238" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H238" s="4"/>
+      <c r="J238" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="B239" t="s">
+        <v>420</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D239">
+        <v>40</v>
+      </c>
+      <c r="E239" t="s">
+        <v>146</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K239" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L239" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="B240" t="s">
+        <v>426</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D240">
         <v>32</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="B240" t="s">
-        <v>135</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D240">
-        <v>40</v>
-      </c>
       <c r="E240" t="s">
         <v>146</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G240" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G240" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H240" s="4"/>
+      <c r="J240" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K240" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="B241" t="s">
+        <v>424</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D241">
+        <v>32</v>
+      </c>
+      <c r="E241" t="s">
+        <v>146</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="F243" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="F244" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="F245" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H240" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="241" spans="7:8">
-      <c r="G241" s="4"/>
-      <c r="H241" s="4"/>
-    </row>
-    <row r="242" spans="7:8">
-      <c r="G242" s="4"/>
-      <c r="H242" s="4"/>
-    </row>
-    <row r="243" spans="7:8">
-      <c r="G243" s="4"/>
-      <c r="H243" s="4"/>
-    </row>
-    <row r="245" spans="7:8">
-      <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="7:8">
-      <c r="G246" s="4"/>
+    <row r="246" spans="1:8">
+      <c r="F246" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="H246" s="4"/>
     </row>
-    <row r="247" spans="7:8">
-      <c r="G247" s="4"/>
+    <row r="247" spans="1:8">
+      <c r="F247" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G247" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H247" s="4"/>
     </row>
-    <row r="248" spans="7:8">
+    <row r="248" spans="1:8">
       <c r="G248" s="4"/>
-      <c r="H248" s="4"/>
-    </row>
-    <row r="250" spans="7:8">
-      <c r="G250" s="4"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="F249" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G249" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H249" s="4"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="F250" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="7:8">
+    <row r="251" spans="1:8">
+      <c r="F251" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="7:8">
-      <c r="G252" s="4"/>
+    <row r="252" spans="1:8">
+      <c r="F252" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G252" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H252" s="4"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="F253" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>446</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G256" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H256" s="4"/>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="F257" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="F258" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="B263" t="s">
+        <v>451</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="B264" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>452</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="24460" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="24460" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Final set" sheetId="1" r:id="rId1"/>
     <sheet name="Older runs" sheetId="2" r:id="rId2"/>
+    <sheet name="RUNS_drag" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="550">
   <si>
     <t>RCE sim</t>
   </si>
@@ -1153,9 +1154,6 @@
     <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh12000_ts8</t>
   </si>
   <si>
-    <t>CTRLv0qrhSATqdz5000_nx3072_lh12000_rstday100_2</t>
-  </si>
-  <si>
     <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh12000_ts8</t>
   </si>
   <si>
@@ -1378,13 +1376,301 @@
     <t>RCE_test (nx=ny=48, no initial condition)</t>
   </si>
   <si>
-    <t>3HOPRU1N</t>
-  </si>
-  <si>
-    <t>3dCTRLv0qrhSATqdz5000_nx384_fx8_10day</t>
-  </si>
-  <si>
     <t>CTRLv0qrhSATqdz5000_nx384_dx64</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx6144_fx8_ts2</t>
+  </si>
+  <si>
+    <t>HOPRU2N</t>
+  </si>
+  <si>
+    <t>T_tpp_drag</t>
+  </si>
+  <si>
+    <t>T_sst_drag</t>
+  </si>
+  <si>
+    <t>Q_cool_drag</t>
+  </si>
+  <si>
+    <t>C_d_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_drag</t>
+  </si>
+  <si>
+    <t>RU1N</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>damp layer in original?</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh225K_usfc3_drag</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>HOPRU3N</t>
+  </si>
+  <si>
+    <t>HOPRU4N</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST275.00K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST285.00K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST287.50K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST290.00K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST292.50K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST295.00K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST297.50K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST302.50K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST305.00K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST310.00K_Tthresh200K_usfc3_drag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST300.00K_Tthresh175K_usfc3_drag </t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc1_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc2_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc4_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc5_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_rad0.125K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_rad0.25K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_rad1.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_rad2.0K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST275.00K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST285.00K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST287.50K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST290.00K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST292.50K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST295.00K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST297.50K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST302.50K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST305.00K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_SST310.00K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh225K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_rad0.125K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_rad0.25K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_rad1.0K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_rad2.0K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cddiv8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cddiv4_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cddiv2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cdx2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cdx4_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cdx8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh750_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh750_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fdiv2_lh750_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fx2_lh3000_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh3000_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh3000_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh375_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv2_lh187.5_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_lh750_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv4_lh750_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh187.5_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv4_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fdiv2_lh12000_ts8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_lh12000_ts8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh3000_ts8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_lh12000_ts8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh3000_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx2_lh12000_ts8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fx4_lh6000_ts8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx2_lh12000_ts8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh250K_fx4_lh6000_drag</t>
+  </si>
+  <si>
+    <t>HOPRU6N</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx384_fx8_6day</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh150K_usfc3_drag</t>
+  </si>
+  <si>
+    <t>HOPRU7N</t>
+  </si>
+  <si>
+    <t>HOPRU8N</t>
+  </si>
+  <si>
+    <t>HOPRU9N</t>
+  </si>
+  <si>
+    <t>HOPRU10N</t>
+  </si>
+  <si>
+    <t>HOPRU11N</t>
+  </si>
+  <si>
+    <t>RU4N</t>
+  </si>
+  <si>
+    <t>RU5N</t>
+  </si>
+  <si>
+    <t>RU6N</t>
+  </si>
+  <si>
+    <t>RU7N</t>
+  </si>
+  <si>
+    <t>cancel (no drag)</t>
+  </si>
+  <si>
+    <t>lh</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1769,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2929">
+  <cellStyleXfs count="3077">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4451,7 +4885,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2929">
+  <cellStyles count="3077">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5916,6 +6350,80 @@
     <cellStyle name="Followed Hyperlink" xfId="2924" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2926" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3076" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7380,6 +7888,80 @@
     <cellStyle name="Hyperlink" xfId="2923" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2925" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3075" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7709,10 +8291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V264"/>
+  <dimension ref="A1:V265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8057,10 +8639,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="F17" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>421</v>
+        <v>150</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -9223,83 +9805,43 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
-      <c r="A83" t="s">
+    <row r="82" spans="1:19">
+      <c r="F82" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>122</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>8</v>
       </c>
-      <c r="D83">
-        <v>40</v>
-      </c>
-      <c r="E83" t="s">
-        <v>146</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="E84" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G83" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I83" s="2" t="s">
+      <c r="G84" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P83" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
-      <c r="B84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84">
-        <v>11</v>
-      </c>
-      <c r="D84">
-        <v>40</v>
-      </c>
-      <c r="E84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>150</v>
@@ -9317,7 +9859,7 @@
         <v>176</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>150</v>
@@ -9328,42 +9870,63 @@
     </row>
     <row r="85" spans="1:19">
       <c r="B85" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>150</v>
+        <v>123</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85" t="s">
+        <v>146</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="G85" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="86" spans="1:19">
       <c r="B86" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C86" s="7">
-        <v>11</v>
-      </c>
-      <c r="D86">
-        <v>40</v>
-      </c>
-      <c r="E86" t="s">
-        <v>146</v>
+        <v>401</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>306</v>
+        <v>403</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>150</v>
@@ -9375,16 +9938,24 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="2"/>
     </row>
     <row r="87" spans="1:19">
       <c r="B87" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>150</v>
+        <v>305</v>
+      </c>
+      <c r="C87" s="7">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
+        <v>146</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>150</v>
@@ -9399,39 +9970,28 @@
     </row>
     <row r="88" spans="1:19">
       <c r="B88" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88">
-        <v>13</v>
-      </c>
-      <c r="D88">
-        <v>40</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>146</v>
+        <v>402</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" s="2">
-        <v>40</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
     </row>
     <row r="89" spans="1:19">
       <c r="B89" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89">
         <v>13</v>
@@ -9439,20 +9999,20 @@
       <c r="D89">
         <v>40</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G89" s="2">
         <v>40</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>146</v>
+      <c r="H89" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>150</v>
@@ -9463,68 +10023,59 @@
     </row>
     <row r="90" spans="1:19">
       <c r="B90" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E90" t="s">
         <v>146</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+      <c r="G90" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:19">
       <c r="B91" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E91" t="s">
         <v>146</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:19">
       <c r="B92" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <v>40</v>
@@ -9533,203 +10084,215 @@
         <v>146</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G92" s="2">
         <v>40</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J92" s="5"/>
+      <c r="H92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="K92" s="2" t="s">
-        <v>146</v>
+        <v>267</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:19">
       <c r="B93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93">
+        <v>17</v>
+      </c>
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
+        <v>146</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G93" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="B94" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>17.5</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>48</v>
       </c>
-      <c r="E93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="E94" t="s">
+        <v>146</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G94" s="2">
         <v>48</v>
       </c>
-      <c r="H93" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="H94" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M94" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
-      <c r="A95" t="s">
+    <row r="96" spans="1:19">
+      <c r="A96" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>8</v>
       </c>
-      <c r="D95">
-        <v>40</v>
-      </c>
-      <c r="E95" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="D96">
+        <v>40</v>
+      </c>
+      <c r="E96" t="s">
+        <v>146</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G95" s="2">
-        <v>40</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I95" s="2" t="s">
+      <c r="G96" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J95" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J96" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L95" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M95" s="2" t="s">
+      <c r="L96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M96" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="N95" s="2" t="s">
+      <c r="N96" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="O95" s="5" t="s">
+      <c r="O96" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="P95" s="2" t="s">
+      <c r="P96" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="R95" s="2" t="s">
+      <c r="R96" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="S95" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
-      <c r="B96" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96">
-        <v>12</v>
-      </c>
-      <c r="D96">
-        <v>40</v>
-      </c>
-      <c r="E96" t="s">
-        <v>146</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G96" s="2">
-        <v>40</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>146</v>
+      <c r="S96" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="B97" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C97">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E97" t="s">
         <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
+      </c>
+      <c r="G97" s="2">
+        <v>40</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="B98" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C98">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>48</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" t="s">
         <v>146</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G98" s="2">
-        <v>48</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="B99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D99">
         <v>48</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G99" s="2">
         <v>48</v>
@@ -9737,97 +10300,61 @@
       <c r="H99" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="J99" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
-      <c r="A101" t="s">
+      <c r="I99" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="B100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100">
+        <v>21</v>
+      </c>
+      <c r="D100">
+        <v>48</v>
+      </c>
+      <c r="E100" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G100" s="2">
+        <v>48</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>13</v>
       </c>
-      <c r="D101">
-        <v>40</v>
-      </c>
-      <c r="E101" t="s">
-        <v>146</v>
-      </c>
-      <c r="F101" s="2" t="s">
+      <c r="D102">
+        <v>40</v>
+      </c>
+      <c r="E102" t="s">
+        <v>146</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G101" s="2">
-        <v>40</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="P101" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q101" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="R101" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="S101" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="U101" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="V101" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22">
-      <c r="B102" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102">
-        <v>14</v>
-      </c>
-      <c r="D102">
-        <v>48</v>
-      </c>
-      <c r="E102" t="s">
-        <v>146</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G102" s="2">
         <v>40</v>
       </c>
@@ -9835,7 +10362,7 @@
         <v>146</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>150</v>
@@ -9847,30 +10374,51 @@
         <v>146</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O102" t="s">
-        <v>285</v>
+        <v>176</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="S102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="U102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="B103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103">
         <v>14</v>
       </c>
       <c r="D103">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
         <v>146</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G103" s="2">
         <v>40</v>
@@ -9879,79 +10427,91 @@
         <v>146</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>146</v>
+        <v>267</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O103" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="B104" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E104" t="s">
         <v>146</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
+      </c>
+      <c r="G104" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="B105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105">
         <v>15</v>
       </c>
       <c r="D105">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E105" t="s">
         <v>146</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G105" s="2">
-        <v>40</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:22">
       <c r="B106" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106">
         <v>15</v>
       </c>
       <c r="D106">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
         <v>146</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G106" s="2">
         <v>40</v>
@@ -9960,7 +10520,7 @@
         <v>146</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>150</v>
@@ -9971,92 +10531,92 @@
     </row>
     <row r="107" spans="1:22">
       <c r="B107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107">
         <v>15</v>
       </c>
       <c r="D107">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E107" t="s">
         <v>146</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G107" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="B108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108">
+        <v>15</v>
+      </c>
+      <c r="D108">
+        <v>40</v>
+      </c>
+      <c r="E108" t="s">
+        <v>146</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G107" s="2">
-        <v>40</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I107" s="2" t="s">
+      <c r="G108" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J107" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22">
-      <c r="B108" s="1"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="2"/>
+      <c r="J108" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" t="s">
-        <v>309</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109">
-        <v>13</v>
-      </c>
-      <c r="D109">
-        <v>40</v>
-      </c>
-      <c r="E109" t="s">
-        <v>146</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G109" s="2">
-        <v>40</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="B109" s="1"/>
       <c r="I109" s="2"/>
       <c r="J109" s="5"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="2"/>
     </row>
     <row r="110" spans="1:22">
+      <c r="A110" t="s">
+        <v>309</v>
+      </c>
       <c r="B110" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C110">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E110" t="s">
         <v>146</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G110" s="2">
         <v>40</v>
@@ -10070,22 +10630,25 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="2"/>
     </row>
     <row r="111" spans="1:22">
       <c r="B111" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C111">
         <v>14</v>
       </c>
       <c r="D111">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
         <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G111" s="2">
         <v>40</v>
@@ -10096,22 +10659,25 @@
       <c r="I111" s="2"/>
       <c r="J111" s="5"/>
       <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:22">
       <c r="B112" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E112" t="s">
         <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G112" s="2">
         <v>40</v>
@@ -10119,22 +10685,25 @@
       <c r="H112" s="6" t="s">
         <v>150</v>
       </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:14">
       <c r="B113" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C113">
         <v>15</v>
       </c>
       <c r="D113">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
         <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G113" s="2">
         <v>40</v>
@@ -10142,25 +10711,22 @@
       <c r="H113" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I113" s="2"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:14">
       <c r="B114" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C114">
         <v>15</v>
       </c>
       <c r="D114">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E114" t="s">
         <v>146</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G114" s="2">
         <v>40</v>
@@ -10174,19 +10740,19 @@
     </row>
     <row r="115" spans="1:14">
       <c r="B115" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C115">
         <v>15</v>
       </c>
       <c r="D115">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E115" t="s">
         <v>146</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G115" s="2">
         <v>40</v>
@@ -10199,19 +10765,33 @@
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="B116" s="1"/>
-      <c r="H116" s="6"/>
+      <c r="B116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116">
+        <v>15</v>
+      </c>
+      <c r="D116">
+        <v>40</v>
+      </c>
+      <c r="E116" t="s">
+        <v>146</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G116" s="2">
+        <v>40</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="I116" s="2"/>
       <c r="J116" s="5"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="B117" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="B117" s="1"/>
       <c r="H117" s="6"/>
       <c r="I117" s="2"/>
       <c r="J117" s="5"/>
@@ -10219,7 +10799,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="B118" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>150</v>
@@ -10241,44 +10821,24 @@
       <c r="J119" s="5"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="121" spans="1:14">
-      <c r="A121" t="s">
+    <row r="120" spans="1:14">
+      <c r="B120" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H120" s="6"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="2"/>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C121">
-        <v>15</v>
-      </c>
-      <c r="D121">
-        <v>48</v>
-      </c>
-      <c r="E121" t="s">
-        <v>146</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G121" s="2">
-        <v>40</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="B122" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C122">
         <v>15</v>
@@ -10290,7 +10850,7 @@
         <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G122" s="2">
         <v>40</v>
@@ -10299,7 +10859,7 @@
         <v>146</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>150</v>
@@ -10310,7 +10870,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="B123" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C123">
         <v>15</v>
@@ -10322,15 +10882,30 @@
         <v>146</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>54</v>
+        <v>179</v>
+      </c>
+      <c r="G123" s="2">
+        <v>40</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="B124" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C124">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124">
         <v>48</v>
@@ -10339,33 +10914,24 @@
         <v>146</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G124" s="2">
-        <v>48</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="B125" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125">
         <v>48</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" t="s">
         <v>146</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G125" s="2">
         <v>48</v>
@@ -10373,92 +10939,89 @@
       <c r="H125" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I125" s="5" t="s">
+      <c r="J125" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="B126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>48</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G126" s="2">
+        <v>48</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I126" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J125" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K125" t="s">
+      <c r="J126" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K126" t="s">
         <v>277</v>
       </c>
-      <c r="L125" t="s">
-        <v>146</v>
-      </c>
-      <c r="M125" t="s">
+      <c r="L126" t="s">
+        <v>146</v>
+      </c>
+      <c r="M126" t="s">
         <v>287</v>
       </c>
-      <c r="N125" t="s">
+      <c r="N126" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
-      <c r="A127" t="s">
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
         <v>46</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>117</v>
       </c>
-      <c r="C127">
+      <c r="C128">
         <v>15</v>
       </c>
-      <c r="D127">
-        <v>40</v>
-      </c>
-      <c r="E127" t="s">
-        <v>146</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="D128">
+        <v>40</v>
+      </c>
+      <c r="E128" t="s">
+        <v>146</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G127" s="2">
-        <v>40</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I127" s="2" t="s">
+      <c r="G128" s="2">
+        <v>40</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J127" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="F128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G128" s="2">
-        <v>40</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I128" t="s">
-        <v>174</v>
-      </c>
       <c r="J128" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="F129" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G129" s="2">
         <v>40</v>
@@ -10467,395 +11030,410 @@
         <v>146</v>
       </c>
       <c r="I129" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>150</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>146</v>
+        <v>288</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="F130" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
+      </c>
+      <c r="G130" s="2">
+        <v>40</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I130" t="s">
+        <v>146</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="F131" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G131" s="2">
-        <v>40</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I131" t="s">
-        <v>175</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="F132" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G132" s="2">
+        <v>40</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I132" t="s">
+        <v>175</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="F133" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G132" s="2">
-        <v>40</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I132" t="s">
+      <c r="G133" s="2">
+        <v>40</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I133" t="s">
         <v>176</v>
       </c>
-      <c r="J132" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J133" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K133" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="L132" s="2" t="s">
+      <c r="L133" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="M132" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N132" s="2" t="s">
+      <c r="M133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N133" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
-      <c r="F133" s="3" t="s">
+    <row r="134" spans="1:15">
+      <c r="F134" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G133" s="2">
-        <v>40</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="G134" s="2">
+        <v>40</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I134" t="s">
         <v>177</v>
       </c>
-      <c r="J133" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J134" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K134" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="O133" t="s">
+      <c r="O134" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
         <v>186</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <v>16.899999999999999</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>48</v>
       </c>
-      <c r="E135" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F135" s="2" t="s">
+      <c r="E136" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G136" s="2">
         <v>48</v>
       </c>
-      <c r="J135" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="B136" s="1"/>
-      <c r="C136">
-        <f>C135/$C$137</f>
+      <c r="J136" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="B137" s="1"/>
+      <c r="C137">
+        <f>C136/$C$138</f>
         <v>1.2071428571428571</v>
       </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="2" t="s">
+      <c r="E137" s="7"/>
+      <c r="F137" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J136" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" t="s">
+      <c r="J137" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
         <v>184</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <v>14</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <v>48</v>
       </c>
-      <c r="E137" t="s">
-        <v>146</v>
-      </c>
-      <c r="F137" s="2" t="s">
+      <c r="E138" t="s">
+        <v>146</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
-      <c r="B138" s="1"/>
-      <c r="C138">
-        <f>C137/$C$137</f>
+    <row r="139" spans="1:15">
+      <c r="B139" s="1"/>
+      <c r="C139">
+        <f>C138/$C$138</f>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
-      <c r="A139" t="s">
+    <row r="140" spans="1:15">
+      <c r="A140" t="s">
         <v>184</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <v>11.4</v>
       </c>
-      <c r="D139">
+      <c r="D140">
         <v>48</v>
       </c>
-      <c r="E139" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F139" s="2" t="s">
+      <c r="E140" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G139" s="2">
-        <v>40</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K139" t="s">
+      <c r="G140" s="2">
+        <v>40</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K140" t="s">
         <v>295</v>
       </c>
-      <c r="L139" t="s">
-        <v>146</v>
-      </c>
-      <c r="M139" t="s">
+      <c r="L140" t="s">
+        <v>146</v>
+      </c>
+      <c r="M140" t="s">
         <v>296</v>
       </c>
-      <c r="N139" t="s">
+      <c r="N140" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
-      <c r="B140" s="1"/>
-      <c r="C140">
-        <f>C139/$C$137</f>
+    <row r="141" spans="1:15">
+      <c r="B141" s="1"/>
+      <c r="C141">
+        <f>C140/$C$138</f>
         <v>0.81428571428571428</v>
       </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="2" t="s">
+      <c r="E141" s="7"/>
+      <c r="F141" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J140" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" t="s">
+      <c r="J141" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
         <v>184</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C141">
+      <c r="C142">
         <v>8.4</v>
       </c>
-      <c r="D141">
+      <c r="D142">
         <v>48</v>
       </c>
-      <c r="E141" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F141" s="2" t="s">
+      <c r="E142" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G142" s="2">
         <v>32</v>
       </c>
-      <c r="J141" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K141" t="s">
+      <c r="J142" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K142" t="s">
         <v>299</v>
       </c>
-      <c r="L141" t="s">
+      <c r="L142" t="s">
         <v>298</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M142" t="s">
         <v>300</v>
       </c>
-      <c r="N141" t="s">
+      <c r="N142" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
-      <c r="B142" s="1"/>
-      <c r="C142">
-        <f>C141/$C$137</f>
+    <row r="143" spans="1:15">
+      <c r="B143" s="1"/>
+      <c r="C143">
+        <f>C142/$C$138</f>
         <v>0.6</v>
       </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="2" t="s">
+      <c r="E143" s="7"/>
+      <c r="F143" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J142" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" t="s">
+      <c r="J143" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" t="s">
         <v>205</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C143">
+      <c r="C144">
         <v>6.2</v>
       </c>
-      <c r="D143">
-        <v>40</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F143" s="2" t="s">
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G144" s="2">
         <v>32</v>
       </c>
-      <c r="J143" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="B144" s="1"/>
-      <c r="C144">
-        <f>C143/$C$137</f>
+      <c r="J144" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="B145" s="1"/>
+      <c r="C145">
+        <f>C144/$C$138</f>
         <v>0.44285714285714289</v>
       </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="2" t="s">
+      <c r="E145" s="7"/>
+      <c r="F145" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J144" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145" t="s">
+      <c r="J145" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
         <v>184</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <v>3.6</v>
       </c>
-      <c r="D145">
-        <v>40</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F145" s="2" t="s">
+      <c r="D146">
+        <v>40</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G146" s="2">
         <v>24</v>
       </c>
-      <c r="J145" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="B146" s="1"/>
-      <c r="C146">
-        <f>C145/$C$137</f>
+      <c r="J146" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="B147" s="1"/>
+      <c r="C147">
+        <f>C146/$C$138</f>
         <v>0.25714285714285717</v>
       </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="2" t="s">
+      <c r="E147" s="7"/>
+      <c r="F147" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J146" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" t="s">
+      <c r="J147" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
         <v>184</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <v>2.6</v>
       </c>
-      <c r="D147">
-        <v>40</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F147" s="2" t="s">
+      <c r="D148">
+        <v>40</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G147" s="2">
+      <c r="G148" s="2">
         <v>24</v>
-      </c>
-      <c r="J147" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="B148" s="1"/>
-      <c r="C148">
-        <f>C147/$C$137</f>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="J148" s="5" t="s">
         <v>150</v>
@@ -10863,40 +11441,37 @@
     </row>
     <row r="149" spans="1:10">
       <c r="B149" s="1"/>
-      <c r="E149" s="5"/>
+      <c r="C149">
+        <f>C148/$C$138</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="E149" s="7"/>
+      <c r="F149" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" t="s">
-        <v>192</v>
-      </c>
-      <c r="E150" s="7"/>
+      <c r="B150" s="1"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>193</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D151">
-        <v>56</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>169</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C152">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D152">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>169</v>
@@ -10904,13 +11479,13 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C153">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D153">
         <v>48</v>
@@ -10921,30 +11496,30 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D154">
         <v>48</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D155">
         <v>48</v>
@@ -10955,13 +11530,13 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C156">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D156">
         <v>48</v>
@@ -10972,13 +11547,13 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D157">
         <v>48</v>
@@ -10989,16 +11564,16 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D158">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>146</v>
@@ -11006,13 +11581,13 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D159">
         <v>40</v>
@@ -11023,13 +11598,13 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D160">
         <v>40</v>
@@ -11040,10 +11615,10 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -11057,187 +11632,193 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C162">
         <v>3</v>
       </c>
       <c r="D162">
+        <v>40</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
         <v>24</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="B163" s="1"/>
-      <c r="E163" s="7"/>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="A165" t="s">
+      <c r="E163" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="B164" s="1"/>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" t="s">
         <v>49</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C165">
+      <c r="C166">
         <v>21</v>
       </c>
-      <c r="D165">
+      <c r="D166">
         <v>48</v>
       </c>
-      <c r="E165" t="s">
-        <v>146</v>
-      </c>
-      <c r="F165" s="3" t="s">
+      <c r="E166" t="s">
+        <v>146</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="G166" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H166" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="K165" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="F166" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="K166" s="5" t="s">
         <v>364</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="N166" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="O166" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="F167" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="N167" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="167" spans="1:15">
-      <c r="B167" s="1" t="s">
+      <c r="O167" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="B168" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C167">
+      <c r="C168">
         <v>8</v>
       </c>
-      <c r="D167">
-        <v>40</v>
-      </c>
-      <c r="E167" t="s">
-        <v>146</v>
-      </c>
-      <c r="F167" s="3" t="s">
+      <c r="D168">
+        <v>40</v>
+      </c>
+      <c r="E168" t="s">
+        <v>146</v>
+      </c>
+      <c r="F168" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G167" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H167" s="3" t="s">
+      <c r="G168" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H168" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I168" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
-      <c r="F168" s="3" t="s">
+    <row r="169" spans="1:15">
+      <c r="F169" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G168" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H168" s="4" t="s">
+      <c r="G169" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H169" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-    </row>
     <row r="170" spans="1:15">
-      <c r="B170" s="1" t="s">
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="B171" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C170">
+      <c r="C171">
         <v>21</v>
       </c>
-      <c r="D170">
+      <c r="D171">
         <v>48</v>
       </c>
-      <c r="E170" t="s">
-        <v>146</v>
-      </c>
-      <c r="F170" s="3" t="s">
+      <c r="E171" t="s">
+        <v>146</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G170" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H170" s="4" t="s">
+      <c r="G171" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H171" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
-      <c r="F171" s="3" t="s">
+    <row r="172" spans="1:15">
+      <c r="F172" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G171" s="6" t="s">
+      <c r="G172" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H171" s="2" t="s">
+      <c r="H172" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K171" s="5" t="s">
+      <c r="K172" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="L171" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
-      <c r="B172" s="1" t="s">
+      <c r="L172" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="B173" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C172">
+      <c r="C173">
         <v>8</v>
       </c>
-      <c r="D172">
-        <v>40</v>
-      </c>
-      <c r="E172" t="s">
-        <v>146</v>
-      </c>
-      <c r="F172" s="3" t="s">
+      <c r="D173">
+        <v>40</v>
+      </c>
+      <c r="E173" t="s">
+        <v>146</v>
+      </c>
+      <c r="F173" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
-      <c r="F173" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="G173" s="9" t="s">
         <v>150</v>
@@ -11247,114 +11828,114 @@
       </c>
     </row>
     <row r="174" spans="1:15">
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
+      <c r="F174" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="175" spans="1:15">
-      <c r="B175" s="1" t="s">
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="B176" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C175">
+      <c r="C176">
         <v>21</v>
       </c>
-      <c r="D175">
+      <c r="D176">
         <v>48</v>
       </c>
-      <c r="E175" t="s">
-        <v>146</v>
-      </c>
-      <c r="F175" s="3" t="s">
+      <c r="E176" t="s">
+        <v>146</v>
+      </c>
+      <c r="F176" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G175" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H175" s="3" t="s">
+      <c r="G176" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H176" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
-      <c r="F176" s="3" t="s">
+    <row r="177" spans="2:12">
+      <c r="F177" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G176" s="9" t="s">
+      <c r="G177" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="H177" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="K176" s="5" t="s">
+      <c r="K177" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="L176" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="177" spans="2:12">
-      <c r="B177" s="1" t="s">
+      <c r="L177" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12">
+      <c r="B178" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C177">
+      <c r="C178">
         <v>8</v>
       </c>
-      <c r="D177">
-        <v>40</v>
-      </c>
-      <c r="E177" t="s">
-        <v>146</v>
-      </c>
-      <c r="F177" s="3" t="s">
+      <c r="D178">
+        <v>40</v>
+      </c>
+      <c r="E178" t="s">
+        <v>146</v>
+      </c>
+      <c r="F178" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G177" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H177" s="3" t="s">
+      <c r="G178" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H178" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="178" spans="2:12">
-      <c r="F178" s="3" t="s">
+    <row r="179" spans="2:12">
+      <c r="F179" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G178" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H178" s="4" t="s">
+      <c r="G179" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H179" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L178" s="3"/>
-    </row>
-    <row r="179" spans="2:12">
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
+      <c r="L179" s="3"/>
     </row>
     <row r="180" spans="2:12">
-      <c r="B180" s="1" t="s">
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="2:12">
+      <c r="B181" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C180">
+      <c r="C181">
         <v>21</v>
       </c>
-      <c r="D180">
+      <c r="D181">
         <v>48</v>
       </c>
-      <c r="E180" t="s">
-        <v>146</v>
-      </c>
-      <c r="F180" s="3" t="s">
+      <c r="E181" t="s">
+        <v>146</v>
+      </c>
+      <c r="F181" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="181" spans="2:12">
-      <c r="F181" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="G181" s="9" t="s">
         <v>150</v>
@@ -11364,33 +11945,33 @@
       </c>
     </row>
     <row r="182" spans="2:12">
-      <c r="B182" s="1" t="s">
+      <c r="F182" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12">
+      <c r="B183" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C182">
+      <c r="C183">
         <v>8</v>
       </c>
-      <c r="D182">
-        <v>40</v>
-      </c>
-      <c r="E182" t="s">
-        <v>146</v>
-      </c>
-      <c r="F182" s="3" t="s">
+      <c r="D183">
+        <v>40</v>
+      </c>
+      <c r="E183" t="s">
+        <v>146</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G182" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="183" spans="2:12">
-      <c r="F183" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G183" s="6" t="s">
+      <c r="G183" s="9" t="s">
         <v>150</v>
       </c>
       <c r="H183" s="4" t="s">
@@ -11398,71 +11979,71 @@
       </c>
     </row>
     <row r="184" spans="2:12">
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
+      <c r="F184" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="185" spans="2:12">
-      <c r="B185" s="1" t="s">
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="2:12">
+      <c r="B186" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C185">
+      <c r="C186">
         <v>21</v>
       </c>
-      <c r="D185">
+      <c r="D186">
         <v>48</v>
       </c>
-      <c r="E185" t="s">
-        <v>146</v>
-      </c>
-      <c r="F185" s="3" t="s">
+      <c r="E186" t="s">
+        <v>146</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G185" s="9" t="s">
+      <c r="G186" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H185" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="L185" s="3"/>
-    </row>
-    <row r="186" spans="2:12" ht="18">
-      <c r="F186" s="3" t="s">
+      <c r="H186" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="L186" s="3"/>
+    </row>
+    <row r="187" spans="2:12" ht="18">
+      <c r="F187" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="G186" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H186" s="3" t="s">
+      <c r="G187" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H187" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L186" s="11"/>
-    </row>
-    <row r="187" spans="2:12">
-      <c r="B187" s="1" t="s">
+      <c r="L187" s="11"/>
+    </row>
+    <row r="188" spans="2:12">
+      <c r="B188" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C187">
+      <c r="C188">
         <v>8</v>
       </c>
-      <c r="D187">
-        <v>40</v>
-      </c>
-      <c r="E187" t="s">
-        <v>146</v>
-      </c>
-      <c r="F187" s="3" t="s">
+      <c r="D188">
+        <v>40</v>
+      </c>
+      <c r="E188" t="s">
+        <v>146</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="188" spans="2:12">
-      <c r="F188" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="G188" s="9" t="s">
         <v>150</v>
@@ -11472,485 +12053,466 @@
       </c>
     </row>
     <row r="189" spans="2:12">
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+      <c r="F189" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="190" spans="2:12">
-      <c r="B190" s="1" t="s">
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="2:12">
+      <c r="B191" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C190">
+      <c r="C191">
         <v>21</v>
       </c>
-      <c r="D190">
+      <c r="D191">
         <v>48</v>
       </c>
-      <c r="E190" t="s">
-        <v>146</v>
-      </c>
-      <c r="F190" s="3" t="s">
+      <c r="E191" t="s">
+        <v>146</v>
+      </c>
+      <c r="F191" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G190" s="9" t="s">
+      <c r="G191" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H190" s="3" t="s">
+      <c r="H191" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K190" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L190" s="3" t="s">
+      <c r="K191" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12">
+      <c r="F192" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16">
+      <c r="B193" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C193">
+        <v>8</v>
+      </c>
+      <c r="D193">
+        <v>40</v>
+      </c>
+      <c r="E193" t="s">
+        <v>146</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K193" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="194" spans="2:16">
+      <c r="F194" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16">
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="2:16">
+      <c r="B196" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196">
+        <v>21</v>
+      </c>
+      <c r="D196">
+        <v>48</v>
+      </c>
+      <c r="E196" t="s">
+        <v>146</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L196" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="191" spans="2:12">
-      <c r="F191" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G191" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H191" s="3" t="s">
+    <row r="197" spans="2:16">
+      <c r="F197" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H197" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="192" spans="2:12">
-      <c r="B192" s="1" t="s">
+    <row r="198" spans="2:16">
+      <c r="B198" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C192">
+      <c r="C198">
         <v>8</v>
       </c>
-      <c r="D192">
-        <v>40</v>
-      </c>
-      <c r="E192" t="s">
-        <v>146</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G192" s="9" t="s">
+      <c r="D198">
+        <v>40</v>
+      </c>
+      <c r="E198" t="s">
+        <v>146</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G198" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H192" s="3" t="s">
+      <c r="H198" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K192" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L192" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="193" spans="2:16">
-      <c r="F193" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G193" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H193" s="4" t="s">
+      <c r="K198" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L198" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16">
+      <c r="F199" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H199" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="194" spans="2:16">
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-    </row>
-    <row r="195" spans="2:16">
-      <c r="B195" s="1" t="s">
+    <row r="200" spans="2:16">
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="2:16">
+      <c r="B201" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C195">
+      <c r="C201">
         <v>21</v>
       </c>
-      <c r="D195">
+      <c r="D201">
         <v>48</v>
       </c>
-      <c r="E195" t="s">
-        <v>146</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="G195" s="9" t="s">
+      <c r="E201" t="s">
+        <v>146</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G201" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H195" s="3" t="s">
+      <c r="H201" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K195" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L195" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="196" spans="2:16">
-      <c r="F196" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G196" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H196" s="3" t="s">
+      <c r="I201" t="s">
+        <v>323</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16">
+      <c r="F202" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L202" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16">
+      <c r="B203" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+      <c r="D203">
+        <v>40</v>
+      </c>
+      <c r="E203" t="s">
+        <v>146</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I203" t="s">
+        <v>324</v>
+      </c>
+      <c r="K203" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M203" t="s">
+        <v>371</v>
+      </c>
+      <c r="O203" t="s">
+        <v>363</v>
+      </c>
+      <c r="P203" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16">
+      <c r="F204" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H204" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="197" spans="2:16">
-      <c r="B197" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C197">
-        <v>8</v>
-      </c>
-      <c r="D197">
-        <v>40</v>
-      </c>
-      <c r="E197" t="s">
-        <v>146</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="G197" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K197" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L197" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="198" spans="2:16">
-      <c r="F198" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="199" spans="2:16">
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-    </row>
-    <row r="200" spans="2:16">
-      <c r="B200" s="1" t="s">
+      <c r="K204" s="5"/>
+      <c r="L204" s="4"/>
+      <c r="M204" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16">
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="O205" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P205" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16">
+      <c r="B206" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C200">
+      <c r="C206">
         <v>21</v>
       </c>
-      <c r="D200">
+      <c r="D206">
         <v>48</v>
       </c>
-      <c r="E200" t="s">
-        <v>146</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G200" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I200" t="s">
-        <v>323</v>
-      </c>
-      <c r="K200" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L200" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="201" spans="2:16">
-      <c r="F201" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G201" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="K201" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L201" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="202" spans="2:16">
-      <c r="B202" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C202">
-        <v>8</v>
-      </c>
-      <c r="D202">
-        <v>40</v>
-      </c>
-      <c r="E202" t="s">
-        <v>146</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G202" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I202" t="s">
-        <v>324</v>
-      </c>
-      <c r="K202" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L202" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M202" t="s">
-        <v>371</v>
-      </c>
-      <c r="O202" t="s">
-        <v>363</v>
-      </c>
-      <c r="P202" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="203" spans="2:16">
-      <c r="F203" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G203" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K203" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L203" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="M203" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="204" spans="2:16">
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="O204" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="P204" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="205" spans="2:16">
-      <c r="B205" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C205">
-        <v>21</v>
-      </c>
-      <c r="D205">
-        <v>48</v>
-      </c>
-      <c r="E205" t="s">
-        <v>146</v>
-      </c>
-      <c r="F205" s="4" t="s">
+      <c r="E206" t="s">
+        <v>146</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="G205" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H205" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K205" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L205" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="206" spans="2:16">
-      <c r="F206" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="G206" s="9" t="s">
         <v>321</v>
       </c>
       <c r="H206" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16">
+      <c r="F207" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G207" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="K206" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L206" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="207" spans="2:16">
-      <c r="B207" s="1" t="s">
+      <c r="H207" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K207" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L207" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16">
+      <c r="B208" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C207">
+      <c r="C208">
         <v>8</v>
       </c>
-      <c r="D207">
-        <v>40</v>
-      </c>
-      <c r="E207" t="s">
-        <v>146</v>
-      </c>
-      <c r="F207" s="4" t="s">
+      <c r="D208">
+        <v>40</v>
+      </c>
+      <c r="E208" t="s">
+        <v>146</v>
+      </c>
+      <c r="F208" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G207" s="10" t="s">
+      <c r="G208" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="H207" s="4" t="s">
+      <c r="H208" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K207" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L207" s="4" t="s">
+      <c r="K208" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L208" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="208" spans="2:16">
-      <c r="F208" s="4" t="s">
+    <row r="209" spans="1:9">
+      <c r="F209" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G208" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H208" s="4" t="s">
+      <c r="G209" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H209" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:9">
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
-      <c r="I211" s="5"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F212" s="12" t="s">
-        <v>396</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="5"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" t="s">
-        <v>389</v>
-      </c>
-      <c r="B213" t="s">
-        <v>117</v>
-      </c>
-      <c r="C213">
-        <v>15</v>
-      </c>
-      <c r="D213">
-        <v>48</v>
-      </c>
-      <c r="E213" t="s">
-        <v>146</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>388</v>
+      <c r="A213" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>390</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>128</v>
+        <v>388</v>
+      </c>
+      <c r="B214" t="s">
+        <v>117</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D214">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E214" t="s">
         <v>146</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G214" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>395</v>
+        <v>54</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>391</v>
-      </c>
-      <c r="B215" t="s">
-        <v>117</v>
+        <v>389</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C215">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D215">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E215" t="s">
         <v>146</v>
@@ -11962,10 +12524,13 @@
         <v>150</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>390</v>
+      </c>
       <c r="B216" t="s">
         <v>117</v>
       </c>
@@ -11979,42 +12544,42 @@
         <v>146</v>
       </c>
       <c r="F216" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G216" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H216" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G216" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>395</v>
-      </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
+      <c r="B217" t="s">
+        <v>117</v>
+      </c>
+      <c r="C217">
+        <v>15</v>
+      </c>
+      <c r="D217">
+        <v>48</v>
+      </c>
+      <c r="E217" t="s">
+        <v>146</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G217" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="218" spans="1:9">
-      <c r="B218" t="s">
-        <v>117</v>
-      </c>
-      <c r="C218">
-        <v>15</v>
-      </c>
-      <c r="D218">
-        <v>48</v>
-      </c>
-      <c r="E218" t="s">
-        <v>146</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G218" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
     </row>
     <row r="219" spans="1:9">
       <c r="B219" t="s">
@@ -12030,13 +12595,13 @@
         <v>146</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G219" s="10" t="s">
         <v>150</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -12053,13 +12618,13 @@
         <v>146</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G220" s="10" t="s">
         <v>150</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -12076,50 +12641,64 @@
         <v>146</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G221" s="10" t="s">
         <v>150</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
+      <c r="B222" t="s">
+        <v>117</v>
+      </c>
+      <c r="C222">
+        <v>15</v>
+      </c>
+      <c r="D222">
+        <v>48</v>
+      </c>
+      <c r="E222" t="s">
+        <v>146</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G222" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" t="s">
-        <v>406</v>
-      </c>
       <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="F224" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G224" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H224" s="4"/>
-      <c r="I224" t="s">
-        <v>407</v>
-      </c>
+      <c r="A224" t="s">
+        <v>405</v>
+      </c>
+      <c r="F224" s="4"/>
     </row>
     <row r="225" spans="1:12">
       <c r="F225" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G225" s="10" t="s">
         <v>150</v>
       </c>
       <c r="H225" s="4"/>
+      <c r="I225" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="226" spans="1:12">
       <c r="F226" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G226" s="10" t="s">
         <v>150</v>
@@ -12128,7 +12707,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="F227" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G227" s="10" t="s">
         <v>150</v>
@@ -12137,7 +12716,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="F228" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G228" s="10" t="s">
         <v>150</v>
@@ -12146,111 +12725,100 @@
     </row>
     <row r="229" spans="1:12">
       <c r="F229" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G229" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H229" s="3"/>
+        <v>412</v>
+      </c>
+      <c r="G229" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H229" s="4"/>
     </row>
     <row r="230" spans="1:12">
       <c r="F230" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G230" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H230" s="4"/>
+        <v>413</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:12">
       <c r="F231" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G231" s="10" t="s">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="H231" s="4"/>
     </row>
     <row r="232" spans="1:12">
-      <c r="F232" s="4"/>
-      <c r="G232" s="10"/>
+      <c r="F232" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G232" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H232" s="4"/>
     </row>
     <row r="233" spans="1:12">
-      <c r="B233" t="s">
+      <c r="F233" s="4"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="B234" t="s">
         <v>135</v>
       </c>
-      <c r="C233" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D233">
-        <v>40</v>
-      </c>
-      <c r="E233" t="s">
-        <v>146</v>
-      </c>
-      <c r="F233" s="2" t="s">
+      <c r="C234" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D234">
+        <v>40</v>
+      </c>
+      <c r="E234" t="s">
+        <v>146</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H234" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G233" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12">
-      <c r="F234" s="4"/>
-      <c r="G234" s="10"/>
-      <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:12">
       <c r="F235" s="4"/>
-      <c r="G235" s="4"/>
+      <c r="G235" s="10"/>
       <c r="H235" s="4"/>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F236" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
     <row r="237" spans="1:12">
-      <c r="B237" t="s">
-        <v>423</v>
+      <c r="A237" s="15" t="s">
+        <v>418</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D237">
-        <v>40</v>
-      </c>
-      <c r="E237" t="s">
-        <v>146</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>150</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
     </row>
     <row r="238" spans="1:12">
       <c r="B238" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>150</v>
@@ -12262,19 +12830,15 @@
         <v>146</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G238" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H238" s="4"/>
-      <c r="J238" s="14" t="s">
-        <v>431</v>
+        <v>440</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="239" spans="1:12">
       <c r="B239" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>150</v>
@@ -12286,51 +12850,48 @@
         <v>146</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G239" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J239" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G239" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H239" s="4"/>
+      <c r="J239" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="K239" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L239" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="240" spans="1:12">
       <c r="B240" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D240">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E240" t="s">
         <v>146</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G240" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H240" s="4"/>
+        <v>431</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="J240" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="K240" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="L240" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11">
       <c r="B241" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>150</v>
@@ -12342,150 +12903,177 @@
         <v>146</v>
       </c>
       <c r="F241" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G241" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H241" s="4"/>
+      <c r="J241" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G241" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="F243" s="2" t="s">
+      <c r="K241" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11">
+      <c r="B242" t="s">
+        <v>423</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D242">
+        <v>32</v>
+      </c>
+      <c r="E242" t="s">
+        <v>146</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11">
+      <c r="F244" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="2:11">
+      <c r="F245" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11">
+      <c r="F246" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H246" s="4"/>
+    </row>
+    <row r="247" spans="2:11">
+      <c r="F247" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H247" s="4"/>
+    </row>
+    <row r="248" spans="2:11">
+      <c r="F248" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="G243" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H243" s="3"/>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="F244" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G244" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="F245" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H245" s="4"/>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="F246" s="4" t="s">
+      <c r="G248" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H248" s="4"/>
+    </row>
+    <row r="249" spans="2:11">
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250" spans="2:11">
+      <c r="F250" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G250" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H250" s="4"/>
+    </row>
+    <row r="251" spans="2:11">
+      <c r="F251" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="G246" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H246" s="4"/>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="F247" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G247" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H247" s="4"/>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="G248" s="4"/>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="F249" s="4" t="s">
+      <c r="G251" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H251" s="4"/>
+    </row>
+    <row r="252" spans="2:11">
+      <c r="F252" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+    </row>
+    <row r="253" spans="2:11">
+      <c r="F253" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G253" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H253" s="4"/>
+    </row>
+    <row r="254" spans="2:11">
+      <c r="F254" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="G249" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H249" s="4"/>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="F250" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G250" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H250" s="4"/>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="F251" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="F252" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G252" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H252" s="4"/>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="F253" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-    </row>
-    <row r="255" spans="1:8">
+      <c r="G254" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11">
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
+    <row r="256" spans="2:11">
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>445</v>
+      </c>
+      <c r="F257" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F256" s="2" t="s">
+      <c r="G257" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H257" s="4"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="F258" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G256" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H256" s="4"/>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="F257" s="2" t="s">
+      <c r="G258" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="F259" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G257" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="F258" s="4" t="s">
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="15" t="s">
+    <row r="264" spans="1:8">
+      <c r="B264" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="B263" t="s">
-        <v>451</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="B264" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="C264" s="5" t="s">
-        <v>452</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="B265" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -12695,4 +13283,791 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9:G98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D33">
+        <v>48</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="1"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>456</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C36" t="s">
+        <v>463</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C37" t="s">
+        <v>463</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>457</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="F43" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="F44" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="F45" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="F46" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="F47" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="F48" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="F50" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="F51" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="F52" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="1"/>
+      <c r="F53" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="1"/>
+      <c r="F54" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="F55" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="F56" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="1"/>
+      <c r="F57" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" s="1"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="F60" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="4"/>
+      <c r="F61" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="4"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="4"/>
+      <c r="F63" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="4"/>
+      <c r="F64" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="F65" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="4"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="4"/>
+      <c r="F67" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="4"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="F69" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="F70" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="F72" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="F73" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="F74" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="F75" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="F77" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="F78" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="F79" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="F80" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="F84" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="F85" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="F86" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="F87" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="F88" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="F89" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="F90" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>549</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="F93" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="F94" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="F95" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="F96" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="24460" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="24460" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Final set" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="587">
   <si>
     <t>RCE sim</t>
   </si>
@@ -1400,24 +1400,12 @@
     <t>RCE_nx48_SST300.00K_Tthresh250K_usfc3_drag</t>
   </si>
   <si>
-    <t>RU1N</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
     <t>damp layer in original?</t>
   </si>
   <si>
     <t>RCE_nx48_SST300.00K_Tthresh225K_usfc3_drag</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
@@ -1655,22 +1643,145 @@
     <t>HOPRU11N</t>
   </si>
   <si>
-    <t>RU4N</t>
-  </si>
-  <si>
-    <t>RU5N</t>
-  </si>
-  <si>
-    <t>RU6N</t>
-  </si>
-  <si>
-    <t>RU7N</t>
-  </si>
-  <si>
     <t>cancel (no drag)</t>
   </si>
   <si>
     <t>lh</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_Cddiv8_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_Cdx8_drag</t>
+  </si>
+  <si>
+    <t>Vp = 90</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_fdiv8_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_fx8_drag</t>
+  </si>
+  <si>
+    <t>HOPRU13N</t>
+  </si>
+  <si>
+    <t>HOPRU14N</t>
+  </si>
+  <si>
+    <t>HOPRU15N</t>
+  </si>
+  <si>
+    <t>HOPRU16N</t>
+  </si>
+  <si>
+    <t>HOPRU17N</t>
+  </si>
+  <si>
+    <t>HOPRU18N</t>
+  </si>
+  <si>
+    <t>HOPRU19N</t>
+  </si>
+  <si>
+    <t>HOPRU20N</t>
+  </si>
+  <si>
+    <t>HOPRU21N</t>
+  </si>
+  <si>
+    <t>HOPRU22N</t>
+  </si>
+  <si>
+    <t>HOPRU23N</t>
+  </si>
+  <si>
+    <t>HOPRU24N</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh175K_usfc3_rad0.25K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh220K_usfc3_rad1.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh237K_usfc3_rad2.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc1.5_rad0.25K_drag</t>
+  </si>
+  <si>
+    <t>HOPRU25N</t>
+  </si>
+  <si>
+    <t>HOPRU26N</t>
+  </si>
+  <si>
+    <t>HOPRU27N</t>
+  </si>
+  <si>
+    <t>HOPRU28N</t>
+  </si>
+  <si>
+    <t>HOPRU29N</t>
+  </si>
+  <si>
+    <t>HOPRU30N</t>
+  </si>
+  <si>
+    <t>these are the same</t>
+  </si>
+  <si>
+    <t>HOPRU31N</t>
+  </si>
+  <si>
+    <t>HOPRU32N</t>
+  </si>
+  <si>
+    <t>HOPRU33N</t>
+  </si>
+  <si>
+    <t>HOPRU34N</t>
+  </si>
+  <si>
+    <t>HOPRU35N</t>
+  </si>
+  <si>
+    <t>HOPRU36N</t>
+  </si>
+  <si>
+    <t>aggregated!</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc15_rad2.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx24_SST300.00K_Tthresh200K_usfc3_fx8_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc.7_rad0.125K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh248K_usfc3_rad4.0K_drag</t>
+  </si>
+  <si>
+    <t>no agg</t>
+  </si>
+  <si>
+    <t>Vp = 90.5</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc6.4_rad1.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc34_rad4.0K_drag</t>
+  </si>
+  <si>
+    <t>DONE200days</t>
+  </si>
+  <si>
+    <t>HOPRU24Nshouldcrash</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1880,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3077">
+  <cellStyleXfs count="3579">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4847,8 +4958,510 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4884,8 +5497,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3077">
+  <cellStyles count="3579">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6424,6 +7040,257 @@
     <cellStyle name="Followed Hyperlink" xfId="3072" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3074" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3578" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7962,6 +8829,257 @@
     <cellStyle name="Hyperlink" xfId="3071" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3073" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3577" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8293,8 +9411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V265"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F30"/>
+    <sheetView topLeftCell="A224" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9810,7 +10928,7 @@
         <v>452</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H82" s="4"/>
       <c r="J82" s="5"/>
@@ -11720,7 +12838,7 @@
         <v>421</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -13070,7 +14188,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="B265" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>150</v>
@@ -13287,10 +14405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:G98"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13298,252 +14416,327 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>581</v>
+      </c>
+    </row>
     <row r="9" spans="1:7">
-      <c r="C9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>455</v>
       </c>
-      <c r="B10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C10" t="s">
-        <v>460</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C11" t="s">
-        <v>460</v>
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D11">
         <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D12">
         <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>465</v>
+        <v>485</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>467</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="D13">
         <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>486</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D14">
         <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>465</v>
+        <v>487</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="D15">
         <v>40</v>
       </c>
-      <c r="E15" s="7"/>
       <c r="F15" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>489</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="B17" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="C18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D18">
-        <v>48</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="D19">
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>491</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D20">
         <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+        <v>492</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>454</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="C23" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" s="5" t="s">
+    <row r="24" spans="1:8">
+      <c r="B24" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="C25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D25">
-        <v>48</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" s="1" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>150</v>
@@ -13551,513 +14744,782 @@
       <c r="D26">
         <v>48</v>
       </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+        <v>496</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="C29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29">
-        <v>40</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30">
-        <v>40</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="1" t="s">
+      <c r="G31" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31">
-        <v>40</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="C32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D32">
-        <v>48</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>545</v>
+        <v>150</v>
       </c>
       <c r="D33">
         <v>48</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>546</v>
+        <v>150</v>
       </c>
       <c r="D34">
         <v>48</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35">
+        <v>48</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="G35" s="5" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" t="s">
+      <c r="B36" s="1"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>456</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C36" t="s">
-        <v>463</v>
-      </c>
-      <c r="D36">
-        <v>48</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
       <c r="B37" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C37" t="s">
-        <v>463</v>
+        <v>480</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>585</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>313</v>
+        <v>499</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C39" t="s">
-        <v>463</v>
+        <v>417</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D39">
         <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>504</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C40" t="s">
-        <v>464</v>
+        <v>482</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D40">
         <v>40</v>
       </c>
-      <c r="E40" s="7"/>
       <c r="F40" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="F41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
         <v>457</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="B43" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:7">
+      <c r="B44" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="F45" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="F46" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="F47" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="F48" s="3" t="s">
-        <v>511</v>
+      <c r="F48" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="F50" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>543</v>
-      </c>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="F51" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>542</v>
-      </c>
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="F52" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>541</v>
-      </c>
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="B53" s="1"/>
-      <c r="F53" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>467</v>
-      </c>
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="B54" s="1"/>
-      <c r="F54" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>303</v>
-      </c>
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="F55" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>540</v>
-      </c>
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="F56" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>539</v>
-      </c>
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:7">
       <c r="B57" s="1"/>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="1">
+        <v>40</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>544</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="1"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="B65" s="1"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="F68" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="F69" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="F70" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71" s="1"/>
+      <c r="F71" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="B72" s="1"/>
+      <c r="F72" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="F73" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="F74" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="B75" s="1"/>
+      <c r="F75" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="B76" s="1"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="F78" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="B79" s="4"/>
+      <c r="F79" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" s="4"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="4"/>
+      <c r="F81" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="4"/>
+      <c r="F82" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="B58" s="1"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="F60" s="3" t="s">
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="F83" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="B61" s="4"/>
-      <c r="F61" s="3" t="s">
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="4"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="4"/>
+      <c r="F85" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="B62" s="4"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="B63" s="4"/>
-      <c r="F63" s="3" t="s">
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="4"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="F87" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64" s="4"/>
-      <c r="F64" s="3" t="s">
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="F88" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="F65" s="3" t="s">
+    </row>
+    <row r="89" spans="2:7">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="F90" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="4"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="4"/>
-      <c r="F67" s="3" t="s">
+    </row>
+    <row r="91" spans="2:7">
+      <c r="F91" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="4"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="F69" s="4" t="s">
+    </row>
+    <row r="92" spans="2:7">
+      <c r="F92" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G69" s="10"/>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="F70" s="4" t="s">
+    </row>
+    <row r="93" spans="2:7">
+      <c r="F93" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="F72" s="4" t="s">
+    <row r="94" spans="2:7">
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="F95" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
-      <c r="F73" s="4" t="s">
+    <row r="96" spans="2:7">
+      <c r="F96" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
-      <c r="F74" s="4" t="s">
+    <row r="97" spans="1:6">
+      <c r="F97" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
-      <c r="F75" s="4" t="s">
+    <row r="98" spans="1:6">
+      <c r="F98" s="4" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="F77" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="F78" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="F79" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="F80" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="F84" s="2" t="s">
+    <row r="102" spans="1:6">
+      <c r="F102" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="F85" s="2" t="s">
+    <row r="103" spans="1:6">
+      <c r="F103" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="F86" s="2" t="s">
+    <row r="104" spans="1:6">
+      <c r="F104" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="F87" s="2" t="s">
+    <row r="105" spans="1:6">
+      <c r="F105" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="F88" s="2" t="s">
+    <row r="106" spans="1:6">
+      <c r="F106" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="F89" s="2" t="s">
+    <row r="107" spans="1:6">
+      <c r="F107" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="F90" s="2" t="s">
+    <row r="108" spans="1:6">
+      <c r="F108" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>549</v>
-      </c>
-      <c r="F92" s="2" t="s">
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>541</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="F93" s="2" t="s">
+    <row r="111" spans="1:6">
+      <c r="F111" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="F94" s="2" t="s">
+    <row r="112" spans="1:6">
+      <c r="F112" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="F95" s="2" t="s">
+    <row r="113" spans="6:6">
+      <c r="F113" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="F96" s="2" t="s">
+    <row r="114" spans="6:6">
+      <c r="F114" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="6:6">
-      <c r="F97" s="2" t="s">
+    <row r="115" spans="6:6">
+      <c r="F115" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="6:6">
-      <c r="F98" s="2" t="s">
+    <row r="116" spans="6:6">
+      <c r="F116" s="2" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Master_simulation_list.xlsx
+++ b/Master_simulation_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="0" windowWidth="24460" windowHeight="15560" tabRatio="500" activeTab="2"/>
@@ -10,6 +10,8 @@
     <sheet name="Final set" sheetId="1" r:id="rId1"/>
     <sheet name="Older runs" sheetId="2" r:id="rId2"/>
     <sheet name="RUNS_drag" sheetId="3" r:id="rId3"/>
+    <sheet name="3d runs" sheetId="4" r:id="rId4"/>
+    <sheet name="Transient" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="644">
   <si>
     <t>RCE sim</t>
   </si>
@@ -1283,9 +1285,6 @@
     <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_DRY</t>
   </si>
   <si>
-    <t>HOPRU1N</t>
-  </si>
-  <si>
     <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh150K_fdiv2_lh187.5_tsadapt</t>
   </si>
   <si>
@@ -1382,9 +1381,6 @@
     <t>CTRLv0qrhSATqdz5000_nx6144_fx8_ts2</t>
   </si>
   <si>
-    <t>HOPRU2N</t>
-  </si>
-  <si>
     <t>T_tpp_drag</t>
   </si>
   <si>
@@ -1409,12 +1405,6 @@
     <t>skip</t>
   </si>
   <si>
-    <t>HOPRU3N</t>
-  </si>
-  <si>
-    <t>HOPRU4N</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
@@ -1628,160 +1618,343 @@
     <t>RCE_nx48_SST300.00K_Tthresh150K_usfc3_drag</t>
   </si>
   <si>
+    <t>cancel (no drag)</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_Cddiv8_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_Cdx8_drag</t>
+  </si>
+  <si>
+    <t>Vp = 90</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_fdiv8_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_fx8_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh175K_usfc3_rad0.25K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh220K_usfc3_rad1.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh237K_usfc3_rad2.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc1.5_rad0.25K_drag</t>
+  </si>
+  <si>
+    <t>these are the same</t>
+  </si>
+  <si>
+    <t>aggregated!</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc15_rad2.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx24_SST300.00K_Tthresh200K_usfc3_fx8_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc.7_rad0.125K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh248K_usfc3_rad4.0K_drag</t>
+  </si>
+  <si>
+    <t>no agg</t>
+  </si>
+  <si>
+    <t>Vp = 90.5</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc6.4_rad1.0K_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc34_rad4.0K_drag</t>
+  </si>
+  <si>
+    <t>DONE200days</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh187.5_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh375_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh750_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh3000_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh6000_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh12000_drag</t>
+  </si>
+  <si>
+    <t>SKIP ME</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fdiv8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fdiv4_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fdiv2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fx2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fx4_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_fx8_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqro100000qdz5000_nx3072_fx2_lh750_drag</t>
+  </si>
+  <si>
+    <t>Self-similarity</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx384_fx8_bcper_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqro400000qdz5000_nx3072_fdiv2_lh3000_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh175K_rad0.25K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh220K_rad1.0K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh237K_rad2.0K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Tthresh248K_rad4.0K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc.7_rad0.125K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc1.5_rad0.25K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc6.4_rad1.0K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc15_rad2.0K_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_usfc34_rad4.0K_drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST285.00K_Tthresh200K_usfc3_dz312.5_drag </t>
+  </si>
+  <si>
+    <t>RU2N</t>
+  </si>
+  <si>
+    <t>Vp = 50.49</t>
+  </si>
+  <si>
+    <t>Vp = 91.58</t>
+  </si>
+  <si>
+    <t>Vp = 125.65</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqro110000qdz5000_nx3072_Tthresh250K_lh825_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqro274000qdz5000_nx3072_Tthresh150K_lh2055_drag</t>
+  </si>
+  <si>
+    <t>Vp = 135.34</t>
+  </si>
+  <si>
+    <t>Vp = 64.38</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqro140000qdz5000_nx3072_usfc10_lh1050_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqro296000qdz5000_nx3072_usfc.5_lh2220_drag</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST310.00K_Tthresh200K_usfc3_dz312.5_drag_ts8</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST310.00K_Tthresh200K_usfc3_dz156.25_drag_ts8</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST310.00K_Tthresh200K_usfc3_dz312.5_drag</t>
+  </si>
+  <si>
+    <t>mpi dz-sensitive?</t>
+  </si>
+  <si>
+    <t>Vp = 61</t>
+  </si>
+  <si>
+    <t>Vp = 69</t>
+  </si>
+  <si>
+    <t>Vp  =96</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc.5_dx312.5_drag</t>
+  </si>
+  <si>
+    <t>RU6N</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST285.00K_Tthresh200K_usfc3_dz156.25_drag_ts8</t>
+  </si>
+  <si>
+    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc10_dx312.5_drag_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lv50_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lv25_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lv12.5_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lv200_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lv400_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lv800_drag</t>
+  </si>
+  <si>
+    <t>L_domain</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_lh12000_drag_ts8</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx192_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx768_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx1536_drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCE_nx48_SST300.00K_Tthresh200K_usfc3_dz312.5_drag </t>
+  </si>
+  <si>
+    <t>CTRLv0qro25000qrhSATqdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qro50000qrhSATqdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qro100000qrhSATqdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qro400000qrhSATqdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qro800000qrhSATqdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qro1600000qrhSATqdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLro50000v12.5qrh0qdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLro100000v12.5qrh0qdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLro200000v12.5qrh0qdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLv12.5qrh0qdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLro800000v12.5qrh0qdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLro1600000v12.5qrh0qdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLro3200000v12.5qrh0qdz5000_nx3072_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cddivsqrt2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cdx2sqrt2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cdxsqrt2_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx3072_Cddiv2sqrt2_drag</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx48_fx8_bcper_drag</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx96_fx8_bcper_drag</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx96dx2_fx8_bcper_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_fx2_nx1536_drag</t>
+  </si>
+  <si>
+    <t>run with iturb = 2</t>
+  </si>
+  <si>
+    <t>MAKE SURE TO SCALE qr0 TOO!</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx96_fx4_bcper_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx6144_dx2ts8_lh187.5_drag</t>
+  </si>
+  <si>
+    <t>CTRLv0qrhSATqdz5000_nx6144_dx2ts8_fdiv8_drag</t>
+  </si>
+  <si>
     <t>HOPRU7N</t>
   </si>
   <si>
-    <t>HOPRU8N</t>
-  </si>
-  <si>
-    <t>HOPRU9N</t>
-  </si>
-  <si>
-    <t>HOPRU10N</t>
-  </si>
-  <si>
-    <t>HOPRU11N</t>
-  </si>
-  <si>
-    <t>cancel (no drag)</t>
-  </si>
-  <si>
-    <t>lh</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_Cddiv8_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_Cdx8_drag</t>
-  </si>
-  <si>
-    <t>Vp = 90</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_fdiv8_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc3_fx8_drag</t>
-  </si>
-  <si>
-    <t>HOPRU13N</t>
-  </si>
-  <si>
-    <t>HOPRU14N</t>
-  </si>
-  <si>
-    <t>HOPRU15N</t>
-  </si>
-  <si>
-    <t>HOPRU16N</t>
-  </si>
-  <si>
-    <t>HOPRU17N</t>
-  </si>
-  <si>
-    <t>HOPRU18N</t>
-  </si>
-  <si>
-    <t>HOPRU19N</t>
-  </si>
-  <si>
-    <t>HOPRU20N</t>
-  </si>
-  <si>
-    <t>HOPRU21N</t>
-  </si>
-  <si>
-    <t>HOPRU22N</t>
-  </si>
-  <si>
-    <t>HOPRU23N</t>
-  </si>
-  <si>
-    <t>HOPRU24N</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh175K_usfc3_rad0.25K_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh220K_usfc3_rad1.0K_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh237K_usfc3_rad2.0K_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc1.5_rad0.25K_drag</t>
-  </si>
-  <si>
-    <t>HOPRU25N</t>
-  </si>
-  <si>
-    <t>HOPRU26N</t>
-  </si>
-  <si>
-    <t>HOPRU27N</t>
-  </si>
-  <si>
-    <t>HOPRU28N</t>
-  </si>
-  <si>
-    <t>HOPRU29N</t>
-  </si>
-  <si>
-    <t>HOPRU30N</t>
-  </si>
-  <si>
-    <t>these are the same</t>
-  </si>
-  <si>
-    <t>HOPRU31N</t>
-  </si>
-  <si>
-    <t>HOPRU32N</t>
-  </si>
-  <si>
-    <t>HOPRU33N</t>
-  </si>
-  <si>
-    <t>HOPRU34N</t>
-  </si>
-  <si>
-    <t>HOPRU35N</t>
-  </si>
-  <si>
-    <t>HOPRU36N</t>
-  </si>
-  <si>
-    <t>aggregated!</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc15_rad2.0K_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx24_SST300.00K_Tthresh200K_usfc3_fx8_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc.7_rad0.125K_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh248K_usfc3_rad4.0K_drag</t>
-  </si>
-  <si>
-    <t>no agg</t>
-  </si>
-  <si>
-    <t>Vp = 90.5</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc6.4_rad1.0K_drag</t>
-  </si>
-  <si>
-    <t>RCE_nx48_SST300.00K_Tthresh200K_usfc34_rad4.0K_drag</t>
-  </si>
-  <si>
-    <t>DONE200days</t>
-  </si>
-  <si>
-    <t>HOPRU24Nshouldcrash</t>
+    <t>3dCTRLv0qrhSATqdz5000_nx96_fx4_iturb2_bcper_drag</t>
+  </si>
+  <si>
+    <t>weak storm (Vm ~ 15 m/s, highly variable)</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx192_fx4_bcper_drag</t>
+  </si>
+  <si>
+    <t>3dCTRLv0qrhSATqdz5000_nx192_fx4_iturb2_bcper_drag</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +2053,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3579">
+  <cellStyleXfs count="4111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5460,8 +5633,540 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5494,14 +6199,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3579">
+  <cellStyles count="4111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7291,6 +7999,272 @@
     <cellStyle name="Followed Hyperlink" xfId="3574" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3576" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -9080,6 +10054,272 @@
     <cellStyle name="Hyperlink" xfId="3573" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3575" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9411,8 +10651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V265"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9441,13 +10681,13 @@
       <c r="I2" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -9757,7 +10997,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="F17" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>150</v>
@@ -10925,10 +12165,10 @@
     </row>
     <row r="82" spans="1:19">
       <c r="F82" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H82" s="4"/>
       <c r="J82" s="5"/>
@@ -12835,10 +14075,10 @@
         <v>382</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -13896,13 +15136,13 @@
         <v>146</v>
       </c>
       <c r="F234" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H234" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="G234" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -13936,7 +15176,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="B238" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>150</v>
@@ -13948,7 +15188,7 @@
         <v>146</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G238" s="6" t="s">
         <v>150</v>
@@ -13956,7 +15196,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="B239" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>150</v>
@@ -13968,14 +15208,14 @@
         <v>146</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G239" s="10" t="s">
         <v>150</v>
       </c>
       <c r="H239" s="4"/>
       <c r="J239" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -13992,24 +15232,24 @@
         <v>146</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G240" s="6" t="s">
         <v>150</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K240" s="10" t="s">
         <v>150</v>
       </c>
       <c r="L240" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="241" spans="2:11">
       <c r="B241" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>150</v>
@@ -14021,14 +15261,14 @@
         <v>146</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G241" s="10" t="s">
         <v>150</v>
       </c>
       <c r="H241" s="4"/>
       <c r="J241" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K241" s="10" t="s">
         <v>150</v>
@@ -14036,7 +15276,7 @@
     </row>
     <row r="242" spans="2:11">
       <c r="B242" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>150</v>
@@ -14048,7 +15288,7 @@
         <v>146</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G242" s="6" t="s">
         <v>150</v>
@@ -14056,7 +15296,7 @@
     </row>
     <row r="244" spans="2:11">
       <c r="F244" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>150</v>
@@ -14065,7 +15305,7 @@
     </row>
     <row r="245" spans="2:11">
       <c r="F245" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>150</v>
@@ -14073,13 +15313,13 @@
     </row>
     <row r="246" spans="2:11">
       <c r="F246" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H246" s="4"/>
     </row>
     <row r="247" spans="2:11">
       <c r="F247" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G247" s="6" t="s">
         <v>150</v>
@@ -14088,7 +15328,7 @@
     </row>
     <row r="248" spans="2:11">
       <c r="F248" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G248" s="10" t="s">
         <v>150</v>
@@ -14100,7 +15340,7 @@
     </row>
     <row r="250" spans="2:11">
       <c r="F250" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G250" s="10" t="s">
         <v>150</v>
@@ -14109,7 +15349,7 @@
     </row>
     <row r="251" spans="2:11">
       <c r="F251" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G251" s="6" t="s">
         <v>150</v>
@@ -14118,14 +15358,14 @@
     </row>
     <row r="252" spans="2:11">
       <c r="F252" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
     <row r="253" spans="2:11">
       <c r="F253" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G253" s="10" t="s">
         <v>150</v>
@@ -14134,7 +15374,7 @@
     </row>
     <row r="254" spans="2:11">
       <c r="F254" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G254" s="6" t="s">
         <v>150</v>
@@ -14150,10 +15390,10 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
+        <v>444</v>
+      </c>
+      <c r="F257" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="G257" s="10" t="s">
         <v>150</v>
@@ -14162,7 +15402,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="F258" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G258" s="6" t="s">
         <v>150</v>
@@ -14170,17 +15410,17 @@
     </row>
     <row r="259" spans="1:8">
       <c r="F259" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="B264" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>150</v>
@@ -14188,7 +15428,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="B265" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>150</v>
@@ -14213,7 +15453,7 @@
   <dimension ref="C4:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C41"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14405,10 +15645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14419,1108 +15659,1969 @@
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1">
-        <v>40</v>
+        <v>606</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="F3" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
+      <c r="F4" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="F5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>576</v>
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>581</v>
+      <c r="F8" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="C10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
+      <c r="F10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>484</v>
+        <v>603</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>549</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>485</v>
+        <v>604</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>550</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>461</v>
+        <v>605</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>461</v>
+        <v>613</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7"/>
       <c r="F16" s="2" t="s">
-        <v>489</v>
+        <v>614</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="F17" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="F18" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="G18" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="F19" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="F21" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="F24" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="F26" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="F27" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="F28" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="F29" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="D32" s="2">
+        <v>40</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="D33" s="2">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="D34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="D35" s="2">
+        <v>40</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="D36" s="2">
+        <v>40</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="D37" s="2">
+        <v>40</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="D38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="F41" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="F42" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="F44" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="F45" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>547</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="C49" t="s">
+        <v>457</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>453</v>
+      </c>
+      <c r="B50" t="s">
         <v>461</v>
       </c>
-      <c r="D19">
-        <v>48</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20">
-        <v>48</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>454</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26">
-        <v>48</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27">
-        <v>48</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29">
-        <v>40</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30">
-        <v>40</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31">
-        <v>40</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32">
-        <v>40</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33">
-        <v>48</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34">
-        <v>48</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35">
-        <v>48</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="1"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>456</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D37">
-        <v>48</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38">
-        <v>48</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39">
-        <v>40</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40">
-        <v>40</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41">
-        <v>40</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>457</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="F45" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="F47" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="F48" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="B49" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="F50" s="3"/>
+      <c r="G50" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="3"/>
+        <v>593</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>205</v>
-      </c>
       <c r="B52" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>150</v>
+        <v>463</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D58">
         <v>48</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53">
-        <v>40</v>
-      </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>184</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54">
-        <v>40</v>
-      </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55">
-        <v>40</v>
-      </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56">
-        <v>40</v>
-      </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="B57" s="1"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>582</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58">
-        <v>40</v>
-      </c>
-      <c r="F58" s="3"/>
+      <c r="F58" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>201</v>
-      </c>
       <c r="B59" s="1" t="s">
-        <v>562</v>
+        <v>469</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D59">
-        <v>40</v>
-      </c>
-      <c r="F59" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>186</v>
+      <c r="A60" s="7" t="s">
+        <v>595</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C60" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>150</v>
       </c>
       <c r="D60">
-        <v>40</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="1">
-        <v>40</v>
-      </c>
-      <c r="F61" s="3"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>205</v>
-      </c>
       <c r="B62" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>150</v>
+        <v>589</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="D62">
-        <v>40</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63">
+        <v>80</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D64">
+        <v>96</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D65">
+        <v>96</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="D66">
+        <v>80</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67">
+        <v>80</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>452</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69">
+        <v>40</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70">
+        <v>40</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72">
+        <v>48</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73">
+        <v>48</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76">
+        <v>40</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78">
+        <v>40</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79">
+        <v>48</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80">
+        <v>48</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81">
+        <v>48</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="B82" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D82">
+        <v>96</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="B83" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83">
+        <v>80</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="B84" s="1"/>
+      <c r="C84" s="5"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="B85" s="1"/>
+      <c r="C85" s="5"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="B86" s="1"/>
+      <c r="C86" s="5"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="B87" s="1"/>
+      <c r="C87" s="5"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="B88" s="1"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>454</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D89">
+        <v>48</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90">
+        <v>48</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="B91" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="B92" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="B93" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>455</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="B96" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="B97" s="1"/>
+      <c r="F97" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="F98" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="F99" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="B100" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="B101" s="1"/>
+      <c r="C101" s="5"/>
+      <c r="F101" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="F102" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="F103" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="F104" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="B105" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>182</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108">
+        <v>48</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109">
+        <v>40</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110">
+        <v>40</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111">
+        <v>40</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112">
+        <v>40</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="B113" s="1"/>
+      <c r="C113" s="5"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="B114" s="1"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>548</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115">
+        <v>40</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>201</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D116">
+        <v>40</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117">
+        <v>40</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D118" s="1">
+        <v>40</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119">
+        <v>40</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>534</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120">
+        <v>40</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="B121" s="1"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="B122" s="1"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="F125" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="F126" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="F127" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="B128" s="1"/>
+      <c r="F128" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="1"/>
+      <c r="F129" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="F130" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="F131" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="1"/>
+      <c r="F132" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="1"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="D135">
+        <v>40</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="4"/>
+      <c r="D136">
+        <v>40</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="4"/>
+      <c r="D137">
+        <v>48</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="4"/>
+      <c r="D138">
+        <v>40</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="4"/>
+      <c r="D139">
+        <v>40</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="4"/>
+      <c r="F141" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="4"/>
+      <c r="F142" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="4"/>
+      <c r="F143" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="F144" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="4:7">
+      <c r="F145" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7">
+      <c r="F146" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7">
+      <c r="F147" s="4"/>
+    </row>
+    <row r="149" spans="4:7">
+      <c r="D149">
+        <v>40</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7">
+      <c r="D150">
+        <v>40</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7">
+      <c r="D151">
+        <v>48</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="4:7">
+      <c r="D152">
+        <v>48</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7">
+      <c r="D153">
+        <v>40</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7">
+      <c r="D154">
+        <v>40</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="6:6">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="6:6">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="6:6">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="6:6">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="6:6">
+      <c r="F171" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>636</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="58.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>580</v>
+      </c>
+      <c r="I5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63">
-        <v>40</v>
-      </c>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64" s="1"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65" s="1"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="F66" s="3"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="F68" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="F69" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="F70" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="B71" s="1"/>
-      <c r="F71" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="B72" s="1"/>
-      <c r="F72" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="F73" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="F74" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="B75" s="1"/>
-      <c r="F75" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" s="1"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="F78" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="B79" s="4"/>
-      <c r="F79" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="B80" s="4"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="4"/>
-      <c r="F81" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="4"/>
-      <c r="F82" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="F83" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="4"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="4"/>
-      <c r="F85" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="4"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="F87" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="F88" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="F90" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="F91" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="F92" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="F93" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="F95" s="4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>582</v>
+      </c>
+      <c r="I6">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" t="s">
+        <v>586</v>
+      </c>
+      <c r="I7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>585</v>
+      </c>
+      <c r="I8">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="F10" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="F96" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="F97" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="F98" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>41</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="F102" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="F103" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="F104" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="F105" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="F106" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="F107" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="F108" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>541</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="F111" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="F112" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6">
-      <c r="F113" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6">
-      <c r="F114" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6">
-      <c r="F115" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6">
-      <c r="F116" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
